--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_1_branch_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_1_branch_resonant.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.084258736719999E-14</v>
+        <v>-1.563194052539792E-14</v>
       </c>
       <c r="O2">
-        <v>1.042129505522852E-14</v>
+        <v>2.865855831046933E-14</v>
       </c>
       <c r="P2">
-        <v>5.210647521222798E-15</v>
+        <v>-1.563193963309399E-14</v>
       </c>
       <c r="Q2">
-        <v>-1.964251360374589E-28</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>7.81639713425436E-15</v>
+        <v>-1.823683638439443E-14</v>
       </c>
       <c r="S2">
-        <v>-1.563151295570878E-14</v>
+        <v>1.563236788447004E-14</v>
       </c>
       <c r="T2">
-        <v>-2.605323420900065E-14</v>
+        <v>1.563194052539873E-14</v>
       </c>
       <c r="U2">
-        <v>5.763381837480579E-09</v>
+        <v>5.763376626835089E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763381837488515E-09</v>
+        <v>-5.76339225878364E-09</v>
       </c>
       <c r="W2">
-        <v>1.563194052540024E-14</v>
+        <v>-0</v>
       </c>
       <c r="X2">
-        <v>-5.763371415700995E-09</v>
+        <v>-5.763379231672612E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763397469914936E-09</v>
+        <v>5.763376627329007E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1048,40 +1048,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AG2">
-        <v>0.5500000119157952</v>
+        <v>0.5500000119159242</v>
       </c>
       <c r="AH2">
-        <v>0.5500000119165526</v>
+        <v>0.5500000119166901</v>
       </c>
       <c r="AI2">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000118694257</v>
+        <v>0.5500000118695547</v>
       </c>
       <c r="AK2">
-        <v>0.5500000119629213</v>
+        <v>0.550000011963059</v>
       </c>
       <c r="AL2">
-        <v>7.136948832612105E-13</v>
+        <v>-1.498082848613717E-12</v>
       </c>
       <c r="AM2">
-        <v>179.9999999999791</v>
+        <v>179.9999999999859</v>
       </c>
       <c r="AN2">
-        <v>-179.999999999986</v>
+        <v>-179.9999999999839</v>
       </c>
       <c r="AO2">
-        <v>7.199574017660761E-13</v>
+        <v>-1.476538053658606E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957422</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999957421</v>
+        <v>179.9999999957442</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.042129368360016E-14</v>
+        <v>1.563194052539846E-14</v>
       </c>
       <c r="O3">
-        <v>-2.084239749300037E-14</v>
+        <v>-2.344772068468526E-14</v>
       </c>
       <c r="P3">
-        <v>1.563213063336163E-14</v>
+        <v>1.563213056214329E-14</v>
       </c>
       <c r="Q3">
-        <v>-2.605323420900034E-14</v>
+        <v>-2.605323420899681E-14</v>
       </c>
       <c r="R3">
-        <v>2.865841533672503E-14</v>
+        <v>3.386906194870968E-14</v>
       </c>
       <c r="S3">
-        <v>-2.605337673463045E-14</v>
+        <v>-1.563208297956945E-14</v>
       </c>
       <c r="T3">
-        <v>1.309944479623194E-28</v>
+        <v>5.210646841799042E-15</v>
       </c>
       <c r="U3">
-        <v>-1.921113383885996E-09</v>
+        <v>-1.921118594533288E-09</v>
       </c>
       <c r="V3">
-        <v>1.921134226907912E-09</v>
+        <v>1.921123805614709E-09</v>
       </c>
       <c r="W3">
-        <v>-5.210646841800407E-15</v>
+        <v>1.5631940525399E-14</v>
       </c>
       <c r="X3">
-        <v>1.921123805233668E-09</v>
+        <v>1.921126410557539E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921129016207081E-09</v>
+        <v>-1.921129016207563E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1179,40 +1179,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AG3">
-        <v>0.5500000118539693</v>
+        <v>0.5500000118540982</v>
       </c>
       <c r="AH3">
-        <v>0.5500000119783777</v>
+        <v>0.5500000119785153</v>
       </c>
       <c r="AI3">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000118694257</v>
+        <v>0.5500000118695547</v>
       </c>
       <c r="AK3">
-        <v>0.5500000119629213</v>
+        <v>0.550000011963059</v>
       </c>
       <c r="AL3">
-        <v>7.202012759411887E-13</v>
+        <v>-1.463372887937923E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999943299</v>
+        <v>-179.9999999943231</v>
       </c>
       <c r="AN3">
-        <v>179.999999994323</v>
+        <v>179.9999999943251</v>
       </c>
       <c r="AO3">
-        <v>7.199574017660761E-13</v>
+        <v>-1.476538053658606E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957422</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999957421</v>
+        <v>179.9999999957442</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.559660329959602E-29</v>
+        <v>-1.042129368359888E-14</v>
       </c>
       <c r="O4">
-        <v>-1.042110381057885E-14</v>
+        <v>-1.302642700187351E-14</v>
       </c>
       <c r="P4">
-        <v>5.2108369479394E-15</v>
+        <v>5.210836877749702E-15</v>
       </c>
       <c r="Q4">
-        <v>-1.563194052540018E-14</v>
+        <v>4.028421505812582E-28</v>
       </c>
       <c r="R4">
-        <v>2.865841533672503E-14</v>
+        <v>1.302647458404914E-14</v>
       </c>
       <c r="S4">
-        <v>-1.563208304937141E-14</v>
+        <v>-5.210789295853673E-15</v>
       </c>
       <c r="T4">
-        <v>-5.210646841800081E-15</v>
+        <v>2.674398665928246E-28</v>
       </c>
       <c r="U4">
-        <v>-1.921113383885996E-09</v>
+        <v>-1.921118594533289E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123805614229E-09</v>
+        <v>1.921123805614711E-09</v>
       </c>
       <c r="W4">
-        <v>-5.210646841800277E-15</v>
+        <v>1.563194052539833E-14</v>
       </c>
       <c r="X4">
-        <v>1.921123805233668E-09</v>
+        <v>1.921115989263855E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921118594913398E-09</v>
+        <v>-1.921139437501249E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1310,40 +1310,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AG4">
-        <v>0.5500000118539694</v>
+        <v>0.5500000118540985</v>
       </c>
       <c r="AH4">
-        <v>0.5500000119783777</v>
+        <v>0.5500000119785156</v>
       </c>
       <c r="AI4">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000118694257</v>
+        <v>0.5500000118695547</v>
       </c>
       <c r="AK4">
-        <v>0.5500000119629213</v>
+        <v>0.550000011963059</v>
       </c>
       <c r="AL4">
-        <v>7.212940415210028E-13</v>
+        <v>-1.470371730663895E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999943299</v>
+        <v>-179.9999999943231</v>
       </c>
       <c r="AN4">
-        <v>179.999999994323</v>
+        <v>179.9999999943251</v>
       </c>
       <c r="AO4">
-        <v>7.199574017660761E-13</v>
+        <v>-1.476538053658606E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957422</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999957421</v>
+        <v>179.9999999957442</v>
       </c>
     </row>
   </sheetData>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.118631973195852E-15</v>
+        <v>-3.907985131369348E-15</v>
       </c>
       <c r="O2">
-        <v>-9.554686545812567E-10</v>
+        <v>-9.554657588249773E-10</v>
       </c>
       <c r="P2">
-        <v>-3.074963801528029E-09</v>
+        <v>-3.074964423756933E-09</v>
       </c>
       <c r="Q2">
-        <v>3.907985131369623E-15</v>
+        <v>1.302661710456445E-15</v>
       </c>
       <c r="R2">
-        <v>9.554745664191472E-10</v>
+        <v>9.554730687390441E-10</v>
       </c>
       <c r="S2">
-        <v>3.074962026023479E-09</v>
+        <v>3.074964423833369E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052547877E-14</v>
+        <v>1.563194052547745E-14</v>
       </c>
       <c r="U2">
-        <v>4.027677211547723E-09</v>
+        <v>4.027682424271447E-09</v>
       </c>
       <c r="V2">
-        <v>-3.566498605829123E-10</v>
+        <v>-3.566365228880932E-10</v>
       </c>
       <c r="W2">
-        <v>1.302661710456563E-14</v>
+        <v>-1.302661710456454E-14</v>
       </c>
       <c r="X2">
-        <v>-4.027680965983608E-09</v>
+        <v>-4.027687896240262E-09</v>
       </c>
       <c r="Y2">
-        <v>3.566526568219881E-10</v>
+        <v>3.566365229748173E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1585,40 +1585,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AG2">
-        <v>0.935039655595625</v>
+        <v>0.9350396555956964</v>
       </c>
       <c r="AH2">
-        <v>0.6992415818049253</v>
+        <v>0.6992415818049716</v>
       </c>
       <c r="AI2">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AJ2">
-        <v>0.9350396555805494</v>
+        <v>0.9350396555806207</v>
       </c>
       <c r="AK2">
-        <v>0.6992415818243328</v>
+        <v>0.6992415818243792</v>
       </c>
       <c r="AL2">
-        <v>2.639363142860475E-13</v>
+        <v>-5.259291317665945E-14</v>
       </c>
       <c r="AM2">
-        <v>-140.8543229646633</v>
+        <v>-140.8543229646662</v>
       </c>
       <c r="AN2">
-        <v>122.4159013159207</v>
+        <v>122.4159013159274</v>
       </c>
       <c r="AO2">
-        <v>2.662111301345676E-13</v>
+        <v>-4.014211352731047E-14</v>
       </c>
       <c r="AP2">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633597</v>
       </c>
       <c r="AQ2">
-        <v>122.4159013173523</v>
+        <v>122.4159013173589</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.302661710456549E-15</v>
+        <v>6.513308552282266E-15</v>
       </c>
       <c r="O3">
-        <v>3.185000170908476E-10</v>
+        <v>3.184926076493769E-10</v>
       </c>
       <c r="P3">
-        <v>1.024996396962408E-09</v>
+        <v>1.024986365705298E-09</v>
       </c>
       <c r="Q3">
-        <v>-6.513308552282818E-15</v>
+        <v>-9.118631973195174E-15</v>
       </c>
       <c r="R3">
-        <v>-3.184906702550412E-10</v>
+        <v>-3.184852978032524E-10</v>
       </c>
       <c r="S3">
-        <v>-1.024996396953915E-09</v>
+        <v>-1.02498814127779E-09</v>
       </c>
       <c r="T3">
-        <v>-2.605323420913127E-15</v>
+        <v>-7.815970262738731E-15</v>
       </c>
       <c r="U3">
-        <v>-1.342569588646104E-09</v>
+        <v>-1.342572764379909E-09</v>
       </c>
       <c r="V3">
-        <v>1.188781979345568E-10</v>
+        <v>1.188816371535931E-10</v>
       </c>
       <c r="W3">
-        <v>2.605323420913091E-15</v>
+        <v>1.042129368365164E-14</v>
       </c>
       <c r="X3">
-        <v>1.342568630285481E-09</v>
+        <v>1.342567292334006E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.188781979249207E-10</v>
+        <v>-1.188788409916057E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1716,40 +1716,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AG3">
-        <v>0.9350396555755242</v>
+        <v>0.9350396555755953</v>
       </c>
       <c r="AH3">
-        <v>0.6992415818308019</v>
+        <v>0.6992415818308483</v>
       </c>
       <c r="AI3">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AJ3">
-        <v>0.9350396555805494</v>
+        <v>0.9350396555806207</v>
       </c>
       <c r="AK3">
-        <v>0.6992415818243328</v>
+        <v>0.6992415818243792</v>
       </c>
       <c r="AL3">
-        <v>2.65458910404196E-13</v>
+        <v>-3.521358696603402E-14</v>
       </c>
       <c r="AM3">
-        <v>-140.8543229629213</v>
+        <v>-140.8543229629242</v>
       </c>
       <c r="AN3">
-        <v>122.4159013178294</v>
+        <v>122.415901317836</v>
       </c>
       <c r="AO3">
-        <v>2.662111301345676E-13</v>
+        <v>-4.014211352731047E-14</v>
       </c>
       <c r="AP3">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633597</v>
       </c>
       <c r="AQ3">
-        <v>122.4159013173523</v>
+        <v>122.4159013173589</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-6.513308552282804E-15</v>
+        <v>1.30266171045645E-15</v>
       </c>
       <c r="O4">
-        <v>3.184819623497265E-10</v>
+        <v>3.184994777810914E-10</v>
       </c>
       <c r="P4">
-        <v>1.024994621381424E-09</v>
+        <v>1.024986365705298E-09</v>
       </c>
       <c r="Q4">
-        <v>1.302661710456549E-15</v>
+        <v>-3.907985131369356E-15</v>
       </c>
       <c r="R4">
-        <v>-3.184691804480631E-10</v>
+        <v>-3.184887328691098E-10</v>
       </c>
       <c r="S4">
-        <v>-1.024992580230196E-09</v>
+        <v>-1.024991958001508E-09</v>
       </c>
       <c r="T4">
-        <v>-3.040890710512628E-29</v>
+        <v>-7.815970262738728E-15</v>
       </c>
       <c r="U4">
-        <v>-1.342561440687378E-09</v>
+        <v>-1.342567172075206E-09</v>
       </c>
       <c r="V4">
-        <v>1.188809940869084E-10</v>
+        <v>1.188816371535932E-10</v>
       </c>
       <c r="W4">
-        <v>2.605323420913128E-15</v>
+        <v>1.042129368365164E-14</v>
       </c>
       <c r="X4">
-        <v>1.342563278479106E-09</v>
+        <v>1.342564496181655E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.188718506106002E-10</v>
+        <v>-1.188851883059262E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AG4">
-        <v>0.9350396555755242</v>
+        <v>0.9350396555755954</v>
       </c>
       <c r="AH4">
-        <v>0.699241581830802</v>
+        <v>0.6992415818308484</v>
       </c>
       <c r="AI4">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AJ4">
-        <v>0.9350396555805494</v>
+        <v>0.9350396555806207</v>
       </c>
       <c r="AK4">
-        <v>0.6992415818243328</v>
+        <v>0.6992415818243792</v>
       </c>
       <c r="AL4">
-        <v>2.674987715910373E-13</v>
+        <v>-3.525520335448094E-14</v>
       </c>
       <c r="AM4">
-        <v>-140.8543229629213</v>
+        <v>-140.8543229629242</v>
       </c>
       <c r="AN4">
-        <v>122.4159013178294</v>
+        <v>122.415901317836</v>
       </c>
       <c r="AO4">
-        <v>2.662111301345676E-13</v>
+        <v>-4.014211352731047E-14</v>
       </c>
       <c r="AP4">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633597</v>
       </c>
       <c r="AQ4">
-        <v>122.4159013173523</v>
+        <v>122.4159013173589</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.118631973195852E-15</v>
+        <v>-3.907985131369348E-15</v>
       </c>
       <c r="O2">
-        <v>-9.554686545812567E-10</v>
+        <v>-9.554657588249773E-10</v>
       </c>
       <c r="P2">
-        <v>-3.074963801528029E-09</v>
+        <v>-3.074964423756933E-09</v>
       </c>
       <c r="Q2">
-        <v>3.907985131369623E-15</v>
+        <v>1.302661710456445E-15</v>
       </c>
       <c r="R2">
-        <v>9.554745664191472E-10</v>
+        <v>9.554730687390441E-10</v>
       </c>
       <c r="S2">
-        <v>3.074962026023479E-09</v>
+        <v>3.074964423833369E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052547877E-14</v>
+        <v>1.563194052547745E-14</v>
       </c>
       <c r="U2">
-        <v>4.027677211547723E-09</v>
+        <v>4.027682424271447E-09</v>
       </c>
       <c r="V2">
-        <v>-3.566498605829123E-10</v>
+        <v>-3.566365228880932E-10</v>
       </c>
       <c r="W2">
-        <v>1.302661710456563E-14</v>
+        <v>-1.302661710456454E-14</v>
       </c>
       <c r="X2">
-        <v>-4.027680965983608E-09</v>
+        <v>-4.027687896240262E-09</v>
       </c>
       <c r="Y2">
-        <v>3.566526568219881E-10</v>
+        <v>3.566365229748173E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2122,40 +2122,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AG2">
-        <v>0.935039655595625</v>
+        <v>0.9350396555956964</v>
       </c>
       <c r="AH2">
-        <v>0.6992415818049253</v>
+        <v>0.6992415818049716</v>
       </c>
       <c r="AI2">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AJ2">
-        <v>0.9350396555805494</v>
+        <v>0.9350396555806207</v>
       </c>
       <c r="AK2">
-        <v>0.6992415818243328</v>
+        <v>0.6992415818243792</v>
       </c>
       <c r="AL2">
-        <v>2.639363142860475E-13</v>
+        <v>-5.259291317665945E-14</v>
       </c>
       <c r="AM2">
-        <v>-140.8543229646633</v>
+        <v>-140.8543229646662</v>
       </c>
       <c r="AN2">
-        <v>122.4159013159207</v>
+        <v>122.4159013159274</v>
       </c>
       <c r="AO2">
-        <v>2.662111301345676E-13</v>
+        <v>-4.014211352731047E-14</v>
       </c>
       <c r="AP2">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633597</v>
       </c>
       <c r="AQ2">
-        <v>122.4159013173523</v>
+        <v>122.4159013173589</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.302661710456549E-15</v>
+        <v>6.513308552282266E-15</v>
       </c>
       <c r="O3">
-        <v>3.185000170908476E-10</v>
+        <v>3.184926076493769E-10</v>
       </c>
       <c r="P3">
-        <v>1.024996396962408E-09</v>
+        <v>1.024986365705298E-09</v>
       </c>
       <c r="Q3">
-        <v>-6.513308552282818E-15</v>
+        <v>-9.118631973195174E-15</v>
       </c>
       <c r="R3">
-        <v>-3.184906702550412E-10</v>
+        <v>-3.184852978032524E-10</v>
       </c>
       <c r="S3">
-        <v>-1.024996396953915E-09</v>
+        <v>-1.02498814127779E-09</v>
       </c>
       <c r="T3">
-        <v>-2.605323420913127E-15</v>
+        <v>-7.815970262738731E-15</v>
       </c>
       <c r="U3">
-        <v>-1.342569588646104E-09</v>
+        <v>-1.342572764379909E-09</v>
       </c>
       <c r="V3">
-        <v>1.188781979345568E-10</v>
+        <v>1.188816371535931E-10</v>
       </c>
       <c r="W3">
-        <v>2.605323420913091E-15</v>
+        <v>1.042129368365164E-14</v>
       </c>
       <c r="X3">
-        <v>1.342568630285481E-09</v>
+        <v>1.342567292334006E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.188781979249207E-10</v>
+        <v>-1.188788409916057E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2253,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AG3">
-        <v>0.9350396555755242</v>
+        <v>0.9350396555755953</v>
       </c>
       <c r="AH3">
-        <v>0.6992415818308019</v>
+        <v>0.6992415818308483</v>
       </c>
       <c r="AI3">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AJ3">
-        <v>0.9350396555805494</v>
+        <v>0.9350396555806207</v>
       </c>
       <c r="AK3">
-        <v>0.6992415818243328</v>
+        <v>0.6992415818243792</v>
       </c>
       <c r="AL3">
-        <v>2.65458910404196E-13</v>
+        <v>-3.521358696603402E-14</v>
       </c>
       <c r="AM3">
-        <v>-140.8543229629213</v>
+        <v>-140.8543229629242</v>
       </c>
       <c r="AN3">
-        <v>122.4159013178294</v>
+        <v>122.415901317836</v>
       </c>
       <c r="AO3">
-        <v>2.662111301345676E-13</v>
+        <v>-4.014211352731047E-14</v>
       </c>
       <c r="AP3">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633597</v>
       </c>
       <c r="AQ3">
-        <v>122.4159013173523</v>
+        <v>122.4159013173589</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-6.513308552282804E-15</v>
+        <v>1.30266171045645E-15</v>
       </c>
       <c r="O4">
-        <v>3.184819623497265E-10</v>
+        <v>3.184994777810914E-10</v>
       </c>
       <c r="P4">
-        <v>1.024994621381424E-09</v>
+        <v>1.024986365705298E-09</v>
       </c>
       <c r="Q4">
-        <v>1.302661710456549E-15</v>
+        <v>-3.907985131369356E-15</v>
       </c>
       <c r="R4">
-        <v>-3.184691804480631E-10</v>
+        <v>-3.184887328691098E-10</v>
       </c>
       <c r="S4">
-        <v>-1.024992580230196E-09</v>
+        <v>-1.024991958001508E-09</v>
       </c>
       <c r="T4">
-        <v>-3.040890710512628E-29</v>
+        <v>-7.815970262738728E-15</v>
       </c>
       <c r="U4">
-        <v>-1.342561440687378E-09</v>
+        <v>-1.342567172075206E-09</v>
       </c>
       <c r="V4">
-        <v>1.188809940869084E-10</v>
+        <v>1.188816371535932E-10</v>
       </c>
       <c r="W4">
-        <v>2.605323420913128E-15</v>
+        <v>1.042129368365164E-14</v>
       </c>
       <c r="X4">
-        <v>1.342563278479106E-09</v>
+        <v>1.342564496181655E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.188718506106002E-10</v>
+        <v>-1.188851883059262E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2384,40 +2384,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AG4">
-        <v>0.9350396555755242</v>
+        <v>0.9350396555755954</v>
       </c>
       <c r="AH4">
-        <v>0.699241581830802</v>
+        <v>0.6992415818308484</v>
       </c>
       <c r="AI4">
-        <v>1.100000023837871</v>
+        <v>1.100000023837781</v>
       </c>
       <c r="AJ4">
-        <v>0.9350396555805494</v>
+        <v>0.9350396555806207</v>
       </c>
       <c r="AK4">
-        <v>0.6992415818243328</v>
+        <v>0.6992415818243792</v>
       </c>
       <c r="AL4">
-        <v>2.674987715910373E-13</v>
+        <v>-3.525520335448094E-14</v>
       </c>
       <c r="AM4">
-        <v>-140.8543229629213</v>
+        <v>-140.8543229629242</v>
       </c>
       <c r="AN4">
-        <v>122.4159013178294</v>
+        <v>122.415901317836</v>
       </c>
       <c r="AO4">
-        <v>2.662111301345676E-13</v>
+        <v>-4.014211352731047E-14</v>
       </c>
       <c r="AP4">
-        <v>-140.8543229633568</v>
+        <v>-140.8543229633597</v>
       </c>
       <c r="AQ4">
-        <v>122.4159013173523</v>
+        <v>122.4159013173589</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.3684757858662E-14</v>
+        <v>-3.079018521626291E-14</v>
       </c>
       <c r="O2">
-        <v>-3.552721234443971E-15</v>
+        <v>-1.657933744012393E-14</v>
       </c>
       <c r="P2">
-        <v>-8.119369162249378E-21</v>
+        <v>4.736943087440577E-15</v>
       </c>
       <c r="Q2">
-        <v>2.131628207279585E-14</v>
+        <v>1.894780628693104E-14</v>
       </c>
       <c r="R2">
-        <v>4.737638643609297E-15</v>
+        <v>2.250120642684532E-14</v>
       </c>
       <c r="S2">
-        <v>6.876556774264586E-19</v>
+        <v>-2.367787761029469E-15</v>
       </c>
       <c r="T2">
-        <v>-1.421085471519762E-14</v>
+        <v>-2.368475785866693E-14</v>
       </c>
       <c r="U2">
-        <v>4.763101912883691E-09</v>
+        <v>4.763111386785799E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763109018312041E-09</v>
+        <v>-4.763132703068706E-09</v>
       </c>
       <c r="W2">
-        <v>9.473903143465173E-15</v>
+        <v>1.42108547152002E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763097175530555E-09</v>
+        <v>-4.763111386384234E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763109018713602E-09</v>
+        <v>4.763132703470273E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2659,40 +2659,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999996697</v>
+        <v>0.9999999999997864</v>
       </c>
       <c r="AG2">
-        <v>0.4999999999997828</v>
+        <v>0.4999999999996742</v>
       </c>
       <c r="AH2">
-        <v>0.499999999999887</v>
+        <v>0.4999999999997618</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999996702</v>
+        <v>0.9999999999997866</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999999576293</v>
+        <v>0.499999999957521</v>
       </c>
       <c r="AK2">
-        <v>0.5000000000420404</v>
+        <v>0.5000000000419154</v>
       </c>
       <c r="AL2">
-        <v>7.541047931741602E-13</v>
+        <v>3.692744166171589E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999999018</v>
+        <v>-179.9999999999092</v>
       </c>
       <c r="AN2">
-        <v>179.999999999895</v>
+        <v>179.9999999998906</v>
       </c>
       <c r="AO2">
-        <v>7.968438863946557E-13</v>
+        <v>3.720520589616535E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917352</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999917208</v>
+        <v>179.9999999917164</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.105427357598859E-15</v>
+        <v>-4.736951571733296E-15</v>
       </c>
       <c r="O3">
-        <v>1.184542419278787E-15</v>
+        <v>2.368780111888435E-15</v>
       </c>
       <c r="P3">
-        <v>4.737256296324555E-15</v>
+        <v>9.474207987895252E-15</v>
       </c>
       <c r="Q3">
-        <v>-9.473903143464944E-15</v>
+        <v>-4.736951571732375E-15</v>
       </c>
       <c r="R3">
-        <v>-2.290250033048511E-19</v>
+        <v>-1.184466714749951E-15</v>
       </c>
       <c r="S3">
-        <v>-4.73718079069143E-15</v>
+        <v>-2.368705127288084E-15</v>
       </c>
       <c r="T3">
-        <v>-1.421085471519721E-14</v>
+        <v>4.736951571732684E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587700637449424E-09</v>
+        <v>-1.587710111352222E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771248018563E-09</v>
+        <v>1.58770774323366E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571732307E-15</v>
+        <v>-9.473903143466289E-15</v>
       </c>
       <c r="X3">
-        <v>1.587705374445614E-09</v>
+        <v>1.587710111396841E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587703006237867E-09</v>
+        <v>-1.587707743189042E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2790,40 +2790,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.99999999999967</v>
+        <v>0.9999999999997865</v>
       </c>
       <c r="AG3">
-        <v>0.4999999999435782</v>
+        <v>0.4999999999434699</v>
       </c>
       <c r="AH3">
-        <v>0.5000000000560918</v>
+        <v>0.5000000000559669</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999996702</v>
+        <v>0.9999999999997866</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999999576293</v>
+        <v>0.499999999957521</v>
       </c>
       <c r="AK3">
-        <v>0.5000000000420404</v>
+        <v>0.5000000000419154</v>
       </c>
       <c r="AL3">
-        <v>8.144006167351953E-13</v>
+        <v>3.703053586432342E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999890032</v>
+        <v>-179.9999999890105</v>
       </c>
       <c r="AN3">
-        <v>179.9999999889961</v>
+        <v>179.9999999889918</v>
       </c>
       <c r="AO3">
-        <v>7.968438863946557E-13</v>
+        <v>3.720520589616535E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917352</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999917208</v>
+        <v>179.9999999917164</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.368475785866219E-15</v>
+        <v>-7.105427357600096E-15</v>
       </c>
       <c r="O4">
-        <v>1.184542423211169E-15</v>
+        <v>-2.368171458957462E-15</v>
       </c>
       <c r="P4">
-        <v>3.047226489737156E-19</v>
+        <v>9.474207985371162E-15</v>
       </c>
       <c r="Q4">
-        <v>1.317587763762197E-28</v>
+        <v>-2.368475785865573E-15</v>
       </c>
       <c r="R4">
-        <v>-2.29026369906447E-19</v>
+        <v>3.552484856581608E-15</v>
       </c>
       <c r="S4">
-        <v>-2.292199269007448E-19</v>
+        <v>-2.368705125919598E-15</v>
       </c>
       <c r="T4">
-        <v>-3.214651532371485E-29</v>
+        <v>9.473903143465523E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587710111352567E-09</v>
+        <v>-1.587710111352223E-09</v>
       </c>
       <c r="V4">
-        <v>1.587712480185631E-09</v>
+        <v>1.587698269330515E-09</v>
       </c>
       <c r="W4">
-        <v>-9.473903143464878E-15</v>
+        <v>-1.421085471519912E-14</v>
       </c>
       <c r="X4">
-        <v>1.587714848348756E-09</v>
+        <v>1.587710111396842E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587712480141012E-09</v>
+        <v>-1.587698269285898E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2921,40 +2921,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999996699</v>
+        <v>0.9999999999997865</v>
       </c>
       <c r="AG4">
-        <v>0.4999999999435783</v>
+        <v>0.4999999999434698</v>
       </c>
       <c r="AH4">
-        <v>0.5000000000560918</v>
+        <v>0.5000000000559668</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999996702</v>
+        <v>0.9999999999997866</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999999576293</v>
+        <v>0.499999999957521</v>
       </c>
       <c r="AK4">
-        <v>0.5000000000420404</v>
+        <v>0.5000000000419154</v>
       </c>
       <c r="AL4">
-        <v>7.776561048639951E-13</v>
+        <v>3.692086308643599E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999890031</v>
+        <v>-179.9999999890105</v>
       </c>
       <c r="AN4">
-        <v>179.9999999889962</v>
+        <v>179.9999999889918</v>
       </c>
       <c r="AO4">
-        <v>7.968438863946557E-13</v>
+        <v>3.720520589616535E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917352</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999917208</v>
+        <v>179.9999999917164</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.3684757858662E-14</v>
+        <v>-3.079018521626291E-14</v>
       </c>
       <c r="O2">
-        <v>-3.552721234443971E-15</v>
+        <v>-1.657933744012393E-14</v>
       </c>
       <c r="P2">
-        <v>-8.119369162249378E-21</v>
+        <v>4.736943087440577E-15</v>
       </c>
       <c r="Q2">
-        <v>2.131628207279585E-14</v>
+        <v>1.894780628693104E-14</v>
       </c>
       <c r="R2">
-        <v>4.737638643609297E-15</v>
+        <v>2.250120642684532E-14</v>
       </c>
       <c r="S2">
-        <v>6.876556774264586E-19</v>
+        <v>-2.367787761029469E-15</v>
       </c>
       <c r="T2">
-        <v>-1.421085471519762E-14</v>
+        <v>-2.368475785866693E-14</v>
       </c>
       <c r="U2">
-        <v>4.763101912883691E-09</v>
+        <v>4.763111386785799E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763109018312041E-09</v>
+        <v>-4.763132703068706E-09</v>
       </c>
       <c r="W2">
-        <v>9.473903143465173E-15</v>
+        <v>1.42108547152002E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763097175530555E-09</v>
+        <v>-4.763111386384234E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763109018713602E-09</v>
+        <v>4.763132703470273E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3196,40 +3196,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999996697</v>
+        <v>0.9999999999997864</v>
       </c>
       <c r="AG2">
-        <v>0.4999999999997828</v>
+        <v>0.4999999999996742</v>
       </c>
       <c r="AH2">
-        <v>0.499999999999887</v>
+        <v>0.4999999999997618</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999996702</v>
+        <v>0.9999999999997866</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999999576293</v>
+        <v>0.499999999957521</v>
       </c>
       <c r="AK2">
-        <v>0.5000000000420404</v>
+        <v>0.5000000000419154</v>
       </c>
       <c r="AL2">
-        <v>7.541047931741602E-13</v>
+        <v>3.692744166171589E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999999018</v>
+        <v>-179.9999999999092</v>
       </c>
       <c r="AN2">
-        <v>179.999999999895</v>
+        <v>179.9999999998906</v>
       </c>
       <c r="AO2">
-        <v>7.968438863946557E-13</v>
+        <v>3.720520589616535E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917352</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999917208</v>
+        <v>179.9999999917164</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.105427357598859E-15</v>
+        <v>-4.736951571733296E-15</v>
       </c>
       <c r="O3">
-        <v>1.184542419278787E-15</v>
+        <v>2.368780111888435E-15</v>
       </c>
       <c r="P3">
-        <v>4.737256296324555E-15</v>
+        <v>9.474207987895252E-15</v>
       </c>
       <c r="Q3">
-        <v>-9.473903143464944E-15</v>
+        <v>-4.736951571732375E-15</v>
       </c>
       <c r="R3">
-        <v>-2.290250033048511E-19</v>
+        <v>-1.184466714749951E-15</v>
       </c>
       <c r="S3">
-        <v>-4.73718079069143E-15</v>
+        <v>-2.368705127288084E-15</v>
       </c>
       <c r="T3">
-        <v>-1.421085471519721E-14</v>
+        <v>4.736951571732684E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587700637449424E-09</v>
+        <v>-1.587710111352222E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771248018563E-09</v>
+        <v>1.58770774323366E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571732307E-15</v>
+        <v>-9.473903143466289E-15</v>
       </c>
       <c r="X3">
-        <v>1.587705374445614E-09</v>
+        <v>1.587710111396841E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587703006237867E-09</v>
+        <v>-1.587707743189042E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3327,40 +3327,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.99999999999967</v>
+        <v>0.9999999999997865</v>
       </c>
       <c r="AG3">
-        <v>0.4999999999435782</v>
+        <v>0.4999999999434699</v>
       </c>
       <c r="AH3">
-        <v>0.5000000000560918</v>
+        <v>0.5000000000559669</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999996702</v>
+        <v>0.9999999999997866</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999999576293</v>
+        <v>0.499999999957521</v>
       </c>
       <c r="AK3">
-        <v>0.5000000000420404</v>
+        <v>0.5000000000419154</v>
       </c>
       <c r="AL3">
-        <v>8.144006167351953E-13</v>
+        <v>3.703053586432342E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999890032</v>
+        <v>-179.9999999890105</v>
       </c>
       <c r="AN3">
-        <v>179.9999999889961</v>
+        <v>179.9999999889918</v>
       </c>
       <c r="AO3">
-        <v>7.968438863946557E-13</v>
+        <v>3.720520589616535E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917352</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999917208</v>
+        <v>179.9999999917164</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.368475785866219E-15</v>
+        <v>-7.105427357600096E-15</v>
       </c>
       <c r="O4">
-        <v>1.184542423211169E-15</v>
+        <v>-2.368171458957462E-15</v>
       </c>
       <c r="P4">
-        <v>3.047226489737156E-19</v>
+        <v>9.474207985371162E-15</v>
       </c>
       <c r="Q4">
-        <v>1.317587763762197E-28</v>
+        <v>-2.368475785865573E-15</v>
       </c>
       <c r="R4">
-        <v>-2.29026369906447E-19</v>
+        <v>3.552484856581608E-15</v>
       </c>
       <c r="S4">
-        <v>-2.292199269007448E-19</v>
+        <v>-2.368705125919598E-15</v>
       </c>
       <c r="T4">
-        <v>-3.214651532371485E-29</v>
+        <v>9.473903143465523E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587710111352567E-09</v>
+        <v>-1.587710111352223E-09</v>
       </c>
       <c r="V4">
-        <v>1.587712480185631E-09</v>
+        <v>1.587698269330515E-09</v>
       </c>
       <c r="W4">
-        <v>-9.473903143464878E-15</v>
+        <v>-1.421085471519912E-14</v>
       </c>
       <c r="X4">
-        <v>1.587714848348756E-09</v>
+        <v>1.587710111396842E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587712480141012E-09</v>
+        <v>-1.587698269285898E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3458,40 +3458,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999996699</v>
+        <v>0.9999999999997865</v>
       </c>
       <c r="AG4">
-        <v>0.4999999999435783</v>
+        <v>0.4999999999434698</v>
       </c>
       <c r="AH4">
-        <v>0.5000000000560918</v>
+        <v>0.5000000000559668</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999996702</v>
+        <v>0.9999999999997866</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999999576293</v>
+        <v>0.499999999957521</v>
       </c>
       <c r="AK4">
-        <v>0.5000000000420404</v>
+        <v>0.5000000000419154</v>
       </c>
       <c r="AL4">
-        <v>7.776561048639951E-13</v>
+        <v>3.692086308643599E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999890031</v>
+        <v>-179.9999999890105</v>
       </c>
       <c r="AN4">
-        <v>179.9999999889962</v>
+        <v>179.9999999889918</v>
       </c>
       <c r="AO4">
-        <v>7.968438863946557E-13</v>
+        <v>3.720520589616535E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999917278</v>
+        <v>-179.9999999917352</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999917208</v>
+        <v>179.9999999917164</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.006602208997067E-14</v>
+        <v>7.401486830860322E-15</v>
       </c>
       <c r="O2">
-        <v>-8.00233370771898E-10</v>
+        <v>-8.00249481161923E-10</v>
       </c>
       <c r="P2">
-        <v>-2.567398937521458E-09</v>
+        <v>-2.567401750622175E-09</v>
       </c>
       <c r="Q2">
-        <v>8.585724723798492E-15</v>
+        <v>-3.848773152047132E-15</v>
       </c>
       <c r="R2">
-        <v>8.002394542884996E-10</v>
+        <v>8.002479884378962E-10</v>
       </c>
       <c r="S2">
-        <v>2.567396848661654E-09</v>
+        <v>2.567401147943038E-09</v>
       </c>
       <c r="T2">
-        <v>-5.30676857332309E-29</v>
+        <v>-1.184237892937838E-14</v>
       </c>
       <c r="U2">
-        <v>3.40141282757264E-09</v>
+        <v>3.401402560721975E-09</v>
       </c>
       <c r="V2">
-        <v>-3.406498595227023E-10</v>
+        <v>-3.406455005182875E-10</v>
       </c>
       <c r="W2">
-        <v>4.736951571750957E-15</v>
+        <v>9.473903143502559E-15</v>
       </c>
       <c r="X2">
-        <v>-3.40141565354998E-09</v>
+        <v>-3.401406304880985E-09</v>
       </c>
       <c r="Y2">
-        <v>3.406476293972338E-10</v>
+        <v>3.406464346664316E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3733,40 +3733,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000003569</v>
+        <v>1.000000000003619</v>
       </c>
       <c r="AG2">
-        <v>0.8443704185456359</v>
+        <v>0.8443704185456459</v>
       </c>
       <c r="AH2">
-        <v>0.625829189579425</v>
+        <v>0.6258291895793318</v>
       </c>
       <c r="AI2">
-        <v>1.000000000003569</v>
+        <v>1.000000000003619</v>
       </c>
       <c r="AJ2">
-        <v>0.8443704185349066</v>
+        <v>0.8443704185349175</v>
       </c>
       <c r="AK2">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896124595</v>
       </c>
       <c r="AL2">
-        <v>3.020611711224128E-13</v>
+        <v>-4.070079467400845E-12</v>
       </c>
       <c r="AM2">
-        <v>-141.4823925534191</v>
+        <v>-141.4823925534131</v>
       </c>
       <c r="AN2">
-        <v>122.8363393546083</v>
+        <v>122.836339354608</v>
       </c>
       <c r="AO2">
-        <v>3.289685541539689E-13</v>
+        <v>-4.061606385273452E-12</v>
       </c>
       <c r="AP2">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510817</v>
       </c>
       <c r="AQ2">
-        <v>122.8363393558971</v>
+        <v>122.8363393558968</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.960594732344178E-16</v>
+        <v>-8.881784197033391E-16</v>
       </c>
       <c r="O3">
-        <v>2.667496727563432E-10</v>
+        <v>2.667452978614215E-10</v>
       </c>
       <c r="P3">
-        <v>8.557956549653341E-10</v>
+        <v>8.557982671305126E-10</v>
       </c>
       <c r="Q3">
-        <v>-5.921189464688769E-16</v>
+        <v>3.256654205578743E-15</v>
       </c>
       <c r="R3">
-        <v>-2.667435893537292E-10</v>
+        <v>-2.667571453211033E-10</v>
       </c>
       <c r="S3">
-        <v>-8.557977439391285E-10</v>
+        <v>-8.557994727310201E-10</v>
       </c>
       <c r="T3">
-        <v>2.368475785875455E-15</v>
+        <v>6.307799522778516E-29</v>
       </c>
       <c r="U3">
-        <v>-1.133800124391151E-09</v>
+        <v>-1.133801050518151E-09</v>
       </c>
       <c r="V3">
-        <v>1.135488477509708E-10</v>
+        <v>1.135448001040539E-10</v>
       </c>
       <c r="W3">
-        <v>2.36847578587545E-15</v>
+        <v>-2.368475785875802E-15</v>
       </c>
       <c r="X3">
-        <v>1.133797298346447E-09</v>
+        <v>1.133809512795248E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.135510779437995E-10</v>
+        <v>-1.135429319509119E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3864,40 +3864,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000003569</v>
+        <v>1.000000000003618</v>
       </c>
       <c r="AG3">
-        <v>0.8443704185313302</v>
+        <v>0.8443704185313413</v>
       </c>
       <c r="AH3">
-        <v>0.6258291896235951</v>
+        <v>0.6258291896235019</v>
       </c>
       <c r="AI3">
-        <v>1.000000000003569</v>
+        <v>1.000000000003619</v>
       </c>
       <c r="AJ3">
-        <v>0.8443704185349066</v>
+        <v>0.8443704185349175</v>
       </c>
       <c r="AK3">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896124595</v>
       </c>
       <c r="AL3">
-        <v>3.371330024275894E-13</v>
+        <v>-4.069118125956539E-12</v>
       </c>
       <c r="AM3">
-        <v>-141.4823925503106</v>
+        <v>-141.4823925503046</v>
       </c>
       <c r="AN3">
-        <v>122.8363393563267</v>
+        <v>122.8363393563264</v>
       </c>
       <c r="AO3">
-        <v>3.289685541539689E-13</v>
+        <v>-4.061606385273452E-12</v>
       </c>
       <c r="AP3">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510817</v>
       </c>
       <c r="AQ3">
-        <v>122.8363393558971</v>
+        <v>122.8363393558968</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.256654205578788E-15</v>
+        <v>2.960594732346148E-16</v>
       </c>
       <c r="O4">
-        <v>2.66756115546475E-10</v>
+        <v>2.667564348493979E-10</v>
       </c>
       <c r="P4">
-        <v>8.557966596442975E-10</v>
+        <v>8.557920797964986E-10</v>
       </c>
       <c r="Q4">
-        <v>2.960594732344331E-15</v>
+        <v>4.44089209851636E-15</v>
       </c>
       <c r="R4">
-        <v>-2.667492497775527E-10</v>
+        <v>-2.667567541379496E-10</v>
       </c>
       <c r="S4">
-        <v>-8.558033284657642E-10</v>
+        <v>-8.557978652446785E-10</v>
       </c>
       <c r="T4">
-        <v>7.105427357626343E-15</v>
+        <v>2.36847578587555E-15</v>
       </c>
       <c r="U4">
-        <v>-1.133815444469153E-09</v>
+        <v>-1.133812634306711E-09</v>
       </c>
       <c r="V4">
-        <v>1.13547290963703E-10</v>
+        <v>1.135434532760919E-10</v>
       </c>
       <c r="W4">
-        <v>-2.368475785875437E-15</v>
+        <v>-4.736951571751457E-15</v>
       </c>
       <c r="X4">
-        <v>1.133813241139357E-09</v>
+        <v>1.133809824152701E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.135533588441221E-10</v>
+        <v>-1.135454228105406E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3995,40 +3995,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000003569</v>
+        <v>1.000000000003618</v>
       </c>
       <c r="AG4">
-        <v>0.8443704185313303</v>
+        <v>0.8443704185313413</v>
       </c>
       <c r="AH4">
-        <v>0.6258291896235949</v>
+        <v>0.6258291896235019</v>
       </c>
       <c r="AI4">
-        <v>1.000000000003569</v>
+        <v>1.000000000003619</v>
       </c>
       <c r="AJ4">
-        <v>0.8443704185349066</v>
+        <v>0.8443704185349175</v>
       </c>
       <c r="AK4">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896124595</v>
       </c>
       <c r="AL4">
-        <v>3.208449104548942E-13</v>
+        <v>-4.07542944678182E-12</v>
       </c>
       <c r="AM4">
-        <v>-141.4823925503106</v>
+        <v>-141.4823925503046</v>
       </c>
       <c r="AN4">
-        <v>122.8363393563267</v>
+        <v>122.8363393563264</v>
       </c>
       <c r="AO4">
-        <v>3.289685541539689E-13</v>
+        <v>-4.061606385273452E-12</v>
       </c>
       <c r="AP4">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510817</v>
       </c>
       <c r="AQ4">
-        <v>122.8363393558971</v>
+        <v>122.8363393558968</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.006602208997067E-14</v>
+        <v>7.401486830860322E-15</v>
       </c>
       <c r="O2">
-        <v>-8.00233370771898E-10</v>
+        <v>-8.00249481161923E-10</v>
       </c>
       <c r="P2">
-        <v>-2.567398937521458E-09</v>
+        <v>-2.567401750622175E-09</v>
       </c>
       <c r="Q2">
-        <v>8.585724723798492E-15</v>
+        <v>-3.848773152047132E-15</v>
       </c>
       <c r="R2">
-        <v>8.002394542884996E-10</v>
+        <v>8.002479884378962E-10</v>
       </c>
       <c r="S2">
-        <v>2.567396848661654E-09</v>
+        <v>2.567401147943038E-09</v>
       </c>
       <c r="T2">
-        <v>-5.30676857332309E-29</v>
+        <v>-1.184237892937838E-14</v>
       </c>
       <c r="U2">
-        <v>3.40141282757264E-09</v>
+        <v>3.401402560721975E-09</v>
       </c>
       <c r="V2">
-        <v>-3.406498595227023E-10</v>
+        <v>-3.406455005182875E-10</v>
       </c>
       <c r="W2">
-        <v>4.736951571750957E-15</v>
+        <v>9.473903143502559E-15</v>
       </c>
       <c r="X2">
-        <v>-3.40141565354998E-09</v>
+        <v>-3.401406304880985E-09</v>
       </c>
       <c r="Y2">
-        <v>3.406476293972338E-10</v>
+        <v>3.406464346664316E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4270,40 +4270,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000003569</v>
+        <v>1.000000000003619</v>
       </c>
       <c r="AG2">
-        <v>0.8443704185456359</v>
+        <v>0.8443704185456459</v>
       </c>
       <c r="AH2">
-        <v>0.625829189579425</v>
+        <v>0.6258291895793318</v>
       </c>
       <c r="AI2">
-        <v>1.000000000003569</v>
+        <v>1.000000000003619</v>
       </c>
       <c r="AJ2">
-        <v>0.8443704185349066</v>
+        <v>0.8443704185349175</v>
       </c>
       <c r="AK2">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896124595</v>
       </c>
       <c r="AL2">
-        <v>3.020611711224128E-13</v>
+        <v>-4.070079467400845E-12</v>
       </c>
       <c r="AM2">
-        <v>-141.4823925534191</v>
+        <v>-141.4823925534131</v>
       </c>
       <c r="AN2">
-        <v>122.8363393546083</v>
+        <v>122.836339354608</v>
       </c>
       <c r="AO2">
-        <v>3.289685541539689E-13</v>
+        <v>-4.061606385273452E-12</v>
       </c>
       <c r="AP2">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510817</v>
       </c>
       <c r="AQ2">
-        <v>122.8363393558971</v>
+        <v>122.8363393558968</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.960594732344178E-16</v>
+        <v>-8.881784197033391E-16</v>
       </c>
       <c r="O3">
-        <v>2.667496727563432E-10</v>
+        <v>2.667452978614215E-10</v>
       </c>
       <c r="P3">
-        <v>8.557956549653341E-10</v>
+        <v>8.557982671305126E-10</v>
       </c>
       <c r="Q3">
-        <v>-5.921189464688769E-16</v>
+        <v>3.256654205578743E-15</v>
       </c>
       <c r="R3">
-        <v>-2.667435893537292E-10</v>
+        <v>-2.667571453211033E-10</v>
       </c>
       <c r="S3">
-        <v>-8.557977439391285E-10</v>
+        <v>-8.557994727310201E-10</v>
       </c>
       <c r="T3">
-        <v>2.368475785875455E-15</v>
+        <v>6.307799522778516E-29</v>
       </c>
       <c r="U3">
-        <v>-1.133800124391151E-09</v>
+        <v>-1.133801050518151E-09</v>
       </c>
       <c r="V3">
-        <v>1.135488477509708E-10</v>
+        <v>1.135448001040539E-10</v>
       </c>
       <c r="W3">
-        <v>2.36847578587545E-15</v>
+        <v>-2.368475785875802E-15</v>
       </c>
       <c r="X3">
-        <v>1.133797298346447E-09</v>
+        <v>1.133809512795248E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.135510779437995E-10</v>
+        <v>-1.135429319509119E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4401,40 +4401,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000003569</v>
+        <v>1.000000000003618</v>
       </c>
       <c r="AG3">
-        <v>0.8443704185313302</v>
+        <v>0.8443704185313413</v>
       </c>
       <c r="AH3">
-        <v>0.6258291896235951</v>
+        <v>0.6258291896235019</v>
       </c>
       <c r="AI3">
-        <v>1.000000000003569</v>
+        <v>1.000000000003619</v>
       </c>
       <c r="AJ3">
-        <v>0.8443704185349066</v>
+        <v>0.8443704185349175</v>
       </c>
       <c r="AK3">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896124595</v>
       </c>
       <c r="AL3">
-        <v>3.371330024275894E-13</v>
+        <v>-4.069118125956539E-12</v>
       </c>
       <c r="AM3">
-        <v>-141.4823925503106</v>
+        <v>-141.4823925503046</v>
       </c>
       <c r="AN3">
-        <v>122.8363393563267</v>
+        <v>122.8363393563264</v>
       </c>
       <c r="AO3">
-        <v>3.289685541539689E-13</v>
+        <v>-4.061606385273452E-12</v>
       </c>
       <c r="AP3">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510817</v>
       </c>
       <c r="AQ3">
-        <v>122.8363393558971</v>
+        <v>122.8363393558968</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.256654205578788E-15</v>
+        <v>2.960594732346148E-16</v>
       </c>
       <c r="O4">
-        <v>2.66756115546475E-10</v>
+        <v>2.667564348493979E-10</v>
       </c>
       <c r="P4">
-        <v>8.557966596442975E-10</v>
+        <v>8.557920797964986E-10</v>
       </c>
       <c r="Q4">
-        <v>2.960594732344331E-15</v>
+        <v>4.44089209851636E-15</v>
       </c>
       <c r="R4">
-        <v>-2.667492497775527E-10</v>
+        <v>-2.667567541379496E-10</v>
       </c>
       <c r="S4">
-        <v>-8.558033284657642E-10</v>
+        <v>-8.557978652446785E-10</v>
       </c>
       <c r="T4">
-        <v>7.105427357626343E-15</v>
+        <v>2.36847578587555E-15</v>
       </c>
       <c r="U4">
-        <v>-1.133815444469153E-09</v>
+        <v>-1.133812634306711E-09</v>
       </c>
       <c r="V4">
-        <v>1.13547290963703E-10</v>
+        <v>1.135434532760919E-10</v>
       </c>
       <c r="W4">
-        <v>-2.368475785875437E-15</v>
+        <v>-4.736951571751457E-15</v>
       </c>
       <c r="X4">
-        <v>1.133813241139357E-09</v>
+        <v>1.133809824152701E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.135533588441221E-10</v>
+        <v>-1.135454228105406E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4532,40 +4532,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000003569</v>
+        <v>1.000000000003618</v>
       </c>
       <c r="AG4">
-        <v>0.8443704185313303</v>
+        <v>0.8443704185313413</v>
       </c>
       <c r="AH4">
-        <v>0.6258291896235949</v>
+        <v>0.6258291896235019</v>
       </c>
       <c r="AI4">
-        <v>1.000000000003569</v>
+        <v>1.000000000003619</v>
       </c>
       <c r="AJ4">
-        <v>0.8443704185349066</v>
+        <v>0.8443704185349175</v>
       </c>
       <c r="AK4">
-        <v>0.6258291896125525</v>
+        <v>0.6258291896124595</v>
       </c>
       <c r="AL4">
-        <v>3.208449104548942E-13</v>
+        <v>-4.07542944678182E-12</v>
       </c>
       <c r="AM4">
-        <v>-141.4823925503106</v>
+        <v>-141.4823925503046</v>
       </c>
       <c r="AN4">
-        <v>122.8363393563267</v>
+        <v>122.8363393563264</v>
       </c>
       <c r="AO4">
-        <v>3.289685541539689E-13</v>
+        <v>-4.061606385273452E-12</v>
       </c>
       <c r="AP4">
-        <v>-141.4823925510877</v>
+        <v>-141.4823925510817</v>
       </c>
       <c r="AQ4">
-        <v>122.8363393558971</v>
+        <v>122.8363393558968</v>
       </c>
     </row>
   </sheetData>
@@ -4720,130 +4720,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.001504778943321415</v>
+        <v>0.0164226911161985</v>
       </c>
       <c r="C2">
-        <v>0.001504779004759788</v>
+        <v>0.01642269111589968</v>
       </c>
       <c r="D2">
-        <v>0.001504779004760902</v>
+        <v>0.01642269111590295</v>
       </c>
       <c r="E2">
-        <v>0.001003501810502207</v>
+        <v>0.01095190795525724</v>
       </c>
       <c r="F2">
-        <v>0.001003501870812353</v>
+        <v>0.01095190795496296</v>
       </c>
       <c r="G2">
-        <v>0.001003501870814881</v>
+        <v>0.01095190795496623</v>
       </c>
       <c r="H2">
-        <v>0.01737569055994999</v>
+        <v>0.1896329027351056</v>
       </c>
       <c r="I2">
-        <v>0.01737569126937922</v>
+        <v>0.1896329027316551</v>
       </c>
       <c r="J2">
-        <v>0.01737569126939208</v>
+        <v>0.1896329027316928</v>
       </c>
       <c r="K2">
-        <v>0.01158744080851453</v>
+        <v>0.1264617401221554</v>
       </c>
       <c r="L2">
-        <v>0.0115874415049161</v>
+        <v>0.1264617401187574</v>
       </c>
       <c r="M2">
-        <v>0.01158744150494529</v>
+        <v>0.1264617401187952</v>
       </c>
       <c r="N2">
-        <v>-3.529889490416482E-13</v>
+        <v>1.396908246855011E-14</v>
       </c>
       <c r="O2">
-        <v>0.01654954603825493</v>
+        <v>0.1817701330529602</v>
       </c>
       <c r="P2">
-        <v>-0.01653071084508154</v>
+        <v>-0.1795265005967462</v>
       </c>
       <c r="Q2">
-        <v>4.650860914872113E-06</v>
+        <v>0.0005539577916966346</v>
       </c>
       <c r="R2">
-        <v>-0.01103358236022443</v>
+        <v>-0.1208298560700801</v>
       </c>
       <c r="S2">
-        <v>0.01102753704018829</v>
+        <v>0.1201096076472709</v>
       </c>
       <c r="T2">
-        <v>1.251046647673871E-13</v>
+        <v>-1.078681381480036E-13</v>
       </c>
       <c r="U2">
-        <v>-0.003279047613372107</v>
+        <v>-0.3134551522521802</v>
       </c>
       <c r="V2">
-        <v>-0.001995762380842933</v>
+        <v>-0.3148202091759014</v>
       </c>
       <c r="W2">
-        <v>1.850705872508023E-06</v>
+        <v>0.0002204345892972136</v>
       </c>
       <c r="X2">
-        <v>0.002179828132683836</v>
+        <v>0.209160231263855</v>
       </c>
       <c r="Y2">
-        <v>0.001341509444719141</v>
+        <v>0.210261440364414</v>
       </c>
       <c r="Z2">
-        <v>-87.77848819432623</v>
+        <v>-90.21647481100848</v>
       </c>
       <c r="AA2">
-        <v>-87.77843389573088</v>
+        <v>-90.21647483282301</v>
       </c>
       <c r="AB2">
-        <v>-87.77843389584586</v>
+        <v>-90.21647483281008</v>
       </c>
       <c r="AC2">
-        <v>92.17610114291496</v>
+        <v>89.73813261788736</v>
       </c>
       <c r="AD2">
-        <v>92.17618256801569</v>
+        <v>89.73813258517248</v>
       </c>
       <c r="AE2">
-        <v>92.17618256780511</v>
+        <v>89.73813258518115</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9709695033649217</v>
+        <v>1.910775203193928</v>
       </c>
       <c r="AI2">
-        <v>0.9582784092157877</v>
+        <v>1.911117283870643</v>
       </c>
       <c r="AJ2">
-        <v>0.0004319813960848262</v>
+        <v>0.004714510504380473</v>
       </c>
       <c r="AK2">
-        <v>0.9706066706233739</v>
+        <v>1.910087662885228</v>
       </c>
       <c r="AL2">
-        <v>0.9586961239089093</v>
+        <v>1.9148013392095</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-98.98559388134899</v>
+        <v>-150.1073724941298</v>
       </c>
       <c r="AO2">
-        <v>99.10560112752574</v>
+        <v>150.0895368626976</v>
       </c>
       <c r="AP2">
-        <v>113.8750751383872</v>
+        <v>111.4370620228529</v>
       </c>
       <c r="AQ2">
-        <v>-98.9994302673321</v>
+        <v>-150.2472538496945</v>
       </c>
       <c r="AR2">
-        <v>99.11218269048086</v>
+        <v>150.0014250248657</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4860,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0005017509119473911</v>
+        <v>0.005475953977530022</v>
       </c>
       <c r="F3">
-        <v>0.0005017509320507323</v>
+        <v>0.005475953977432883</v>
       </c>
       <c r="G3">
-        <v>0.0005017509320513589</v>
+        <v>0.005475953977432888</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4878,49 +4878,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.00579372048157933</v>
+        <v>0.0632308700599392</v>
       </c>
       <c r="L3">
-        <v>0.005793720713712719</v>
+        <v>0.06323087005881754</v>
       </c>
       <c r="M3">
-        <v>0.005793720713719953</v>
+        <v>0.0632308700588176</v>
       </c>
       <c r="N3">
-        <v>-8.470956325243343E-13</v>
+        <v>-8.455604264780451E-12</v>
       </c>
       <c r="O3">
-        <v>2.007742230369616E-10</v>
+        <v>-6.722891055653248E-09</v>
       </c>
       <c r="P3">
-        <v>2.423478582141654E-10</v>
+        <v>-6.762009312583378E-09</v>
       </c>
       <c r="Q3">
-        <v>-2.325430810384372E-06</v>
+        <v>-0.0002769788993641202</v>
       </c>
       <c r="R3">
-        <v>0.005516791280368075</v>
+        <v>0.06041492467386794</v>
       </c>
       <c r="S3">
-        <v>-0.005513768398812396</v>
+        <v>-0.06005480720138225</v>
       </c>
       <c r="T3">
-        <v>1.912007005311692E-12</v>
+        <v>2.124106996652277E-11</v>
       </c>
       <c r="U3">
-        <v>1.402684002589714E-09</v>
+        <v>-3.883714062377549E-09</v>
       </c>
       <c r="V3">
-        <v>-1.378677002936514E-09</v>
+        <v>3.861154874819934E-09</v>
       </c>
       <c r="W3">
-        <v>-9.253521396281649E-07</v>
+        <v>-0.0001102172857987859</v>
       </c>
       <c r="X3">
-        <v>-0.001089913364848026</v>
+        <v>-0.1045801175724064</v>
       </c>
       <c r="Y3">
-        <v>-0.0006707554116744344</v>
+        <v>-0.105130718251426</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4932,49 +4932,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-87.82387892490753</v>
+        <v>-90.26186555184432</v>
       </c>
       <c r="AD3">
-        <v>-87.82382464178835</v>
+        <v>-90.26186557364561</v>
       </c>
       <c r="AE3">
-        <v>-87.82382464175591</v>
+        <v>-90.26186557365419</v>
       </c>
       <c r="AG3">
-        <v>0.0005183939934992961</v>
+        <v>0.005657590693199275</v>
       </c>
       <c r="AH3">
-        <v>0.9705340748746539</v>
+        <v>1.909951052342352</v>
       </c>
       <c r="AI3">
-        <v>0.9587796946052258</v>
+        <v>1.915538552363306</v>
       </c>
       <c r="AJ3">
-        <v>0.0004319813960848262</v>
+        <v>0.004714510504380473</v>
       </c>
       <c r="AK3">
-        <v>0.9706066706233739</v>
+        <v>1.910087662885228</v>
       </c>
       <c r="AL3">
-        <v>0.9586961239089093</v>
+        <v>1.9148013392095</v>
       </c>
       <c r="AM3">
-        <v>113.8705348762413</v>
+        <v>111.4325223147324</v>
       </c>
       <c r="AN3">
-        <v>-99.00219727251788</v>
+        <v>-150.2752455068152</v>
       </c>
       <c r="AO3">
-        <v>99.11349619000653</v>
+        <v>149.9838295339712</v>
       </c>
       <c r="AP3">
-        <v>113.8750751383872</v>
+        <v>111.4370620228529</v>
       </c>
       <c r="AQ3">
-        <v>-98.9994302673321</v>
+        <v>-150.2472538496945</v>
       </c>
       <c r="AR3">
-        <v>99.11218269048086</v>
+        <v>150.0014250248657</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -4991,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0005017509119473911</v>
+        <v>0.00547595397753003</v>
       </c>
       <c r="F4">
-        <v>0.0005017509320507634</v>
+        <v>0.005475953977434531</v>
       </c>
       <c r="G4">
-        <v>0.0005017509320497503</v>
+        <v>0.005475953977431247</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5009,49 +5009,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.00579372048157933</v>
+        <v>0.06323087005993928</v>
       </c>
       <c r="L4">
-        <v>0.005793720713713078</v>
+        <v>0.06323087005883657</v>
       </c>
       <c r="M4">
-        <v>0.00579372071370138</v>
+        <v>0.06323087005879864</v>
       </c>
       <c r="N4">
-        <v>-8.470956325252297E-13</v>
+        <v>-8.455554371794797E-12</v>
       </c>
       <c r="O4">
-        <v>2.007756617603788E-10</v>
+        <v>-6.722886544049463E-09</v>
       </c>
       <c r="P4">
-        <v>2.423478582141656E-10</v>
+        <v>-6.762009312583378E-09</v>
       </c>
       <c r="Q4">
-        <v>-2.325430810384372E-06</v>
+        <v>-0.0002769788993640875</v>
       </c>
       <c r="R4">
-        <v>0.005516791280366637</v>
+        <v>0.06041492467391733</v>
       </c>
       <c r="S4">
-        <v>-0.005513768398795899</v>
+        <v>-0.0600548072013641</v>
       </c>
       <c r="T4">
-        <v>1.912007005310907E-12</v>
+        <v>2.12410895520479E-11</v>
       </c>
       <c r="U4">
-        <v>1.402693084077791E-09</v>
+        <v>-3.883648977221687E-09</v>
       </c>
       <c r="V4">
-        <v>-1.378677002936513E-09</v>
+        <v>3.861154874819934E-09</v>
       </c>
       <c r="W4">
-        <v>-9.253521396281649E-07</v>
+        <v>-0.0001102172857988691</v>
       </c>
       <c r="X4">
-        <v>-0.001089913364857108</v>
+        <v>-0.1045801175724199</v>
       </c>
       <c r="Y4">
-        <v>-0.0006707554116625897</v>
+        <v>-0.1051307182513946</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5063,49 +5063,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-87.82387892490753</v>
+        <v>-90.26186555186149</v>
       </c>
       <c r="AD4">
-        <v>-87.82382464169471</v>
+        <v>-90.2618655736627</v>
       </c>
       <c r="AE4">
-        <v>-87.82382464165516</v>
+        <v>-90.26186557365426</v>
       </c>
       <c r="AG4">
-        <v>0.0005183939934992079</v>
+        <v>0.005657590693199451</v>
       </c>
       <c r="AH4">
-        <v>0.9705340748746542</v>
+        <v>1.909951052342352</v>
       </c>
       <c r="AI4">
-        <v>0.9587796946052256</v>
+        <v>1.915538552363306</v>
       </c>
       <c r="AJ4">
-        <v>0.0004319813960848262</v>
+        <v>0.004714510504380473</v>
       </c>
       <c r="AK4">
-        <v>0.9706066706233739</v>
+        <v>1.910087662885228</v>
       </c>
       <c r="AL4">
-        <v>0.9586961239089093</v>
+        <v>1.9148013392095</v>
       </c>
       <c r="AM4">
-        <v>113.8705348762724</v>
+        <v>111.4325223147317</v>
       </c>
       <c r="AN4">
-        <v>-99.00219727251789</v>
+        <v>-150.2752455068152</v>
       </c>
       <c r="AO4">
-        <v>99.11349619000654</v>
+        <v>149.9838295339712</v>
       </c>
       <c r="AP4">
-        <v>113.8750751383872</v>
+        <v>111.4370620228529</v>
       </c>
       <c r="AQ4">
-        <v>-98.9994302673321</v>
+        <v>-150.2472538496945</v>
       </c>
       <c r="AR4">
-        <v>99.11218269048086</v>
+        <v>150.0014250248657</v>
       </c>
     </row>
   </sheetData>
@@ -5260,130 +5260,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.001504778943321415</v>
+        <v>0.0164226911161985</v>
       </c>
       <c r="C2">
-        <v>0.001504779004759788</v>
+        <v>0.01642269111589968</v>
       </c>
       <c r="D2">
-        <v>0.001504779004760902</v>
+        <v>0.01642269111590295</v>
       </c>
       <c r="E2">
-        <v>0.001003501810502207</v>
+        <v>0.01095190795525724</v>
       </c>
       <c r="F2">
-        <v>0.001003501870812353</v>
+        <v>0.01095190795496296</v>
       </c>
       <c r="G2">
-        <v>0.001003501870814881</v>
+        <v>0.01095190795496623</v>
       </c>
       <c r="H2">
-        <v>0.01737569055994999</v>
+        <v>0.1896329027351056</v>
       </c>
       <c r="I2">
-        <v>0.01737569126937922</v>
+        <v>0.1896329027316551</v>
       </c>
       <c r="J2">
-        <v>0.01737569126939208</v>
+        <v>0.1896329027316928</v>
       </c>
       <c r="K2">
-        <v>0.01158744080851453</v>
+        <v>0.1264617401221554</v>
       </c>
       <c r="L2">
-        <v>0.0115874415049161</v>
+        <v>0.1264617401187574</v>
       </c>
       <c r="M2">
-        <v>0.01158744150494529</v>
+        <v>0.1264617401187952</v>
       </c>
       <c r="N2">
-        <v>-3.529889490416482E-13</v>
+        <v>1.396908246855011E-14</v>
       </c>
       <c r="O2">
-        <v>0.01654954603825493</v>
+        <v>0.1817701330529602</v>
       </c>
       <c r="P2">
-        <v>-0.01653071084508154</v>
+        <v>-0.1795265005967462</v>
       </c>
       <c r="Q2">
-        <v>4.650860914872113E-06</v>
+        <v>0.0005539577916966346</v>
       </c>
       <c r="R2">
-        <v>-0.01103358236022443</v>
+        <v>-0.1208298560700801</v>
       </c>
       <c r="S2">
-        <v>0.01102753704018829</v>
+        <v>0.1201096076472709</v>
       </c>
       <c r="T2">
-        <v>1.251046647673871E-13</v>
+        <v>-1.078681381480036E-13</v>
       </c>
       <c r="U2">
-        <v>-0.003279047613372107</v>
+        <v>-0.3134551522521802</v>
       </c>
       <c r="V2">
-        <v>-0.001995762380842933</v>
+        <v>-0.3148202091759014</v>
       </c>
       <c r="W2">
-        <v>1.850705872508023E-06</v>
+        <v>0.0002204345892972136</v>
       </c>
       <c r="X2">
-        <v>0.002179828132683836</v>
+        <v>0.209160231263855</v>
       </c>
       <c r="Y2">
-        <v>0.001341509444719141</v>
+        <v>0.210261440364414</v>
       </c>
       <c r="Z2">
-        <v>-87.77848819432623</v>
+        <v>-90.21647481100848</v>
       </c>
       <c r="AA2">
-        <v>-87.77843389573088</v>
+        <v>-90.21647483282301</v>
       </c>
       <c r="AB2">
-        <v>-87.77843389584586</v>
+        <v>-90.21647483281008</v>
       </c>
       <c r="AC2">
-        <v>92.17610114291496</v>
+        <v>89.73813261788736</v>
       </c>
       <c r="AD2">
-        <v>92.17618256801569</v>
+        <v>89.73813258517248</v>
       </c>
       <c r="AE2">
-        <v>92.17618256780511</v>
+        <v>89.73813258518115</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9709695033649217</v>
+        <v>1.910775203193928</v>
       </c>
       <c r="AI2">
-        <v>0.9582784092157877</v>
+        <v>1.911117283870643</v>
       </c>
       <c r="AJ2">
-        <v>0.0004319813960848262</v>
+        <v>0.004714510504380473</v>
       </c>
       <c r="AK2">
-        <v>0.9706066706233739</v>
+        <v>1.910087662885228</v>
       </c>
       <c r="AL2">
-        <v>0.9586961239089093</v>
+        <v>1.9148013392095</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-98.98559388134899</v>
+        <v>-150.1073724941298</v>
       </c>
       <c r="AO2">
-        <v>99.10560112752574</v>
+        <v>150.0895368626976</v>
       </c>
       <c r="AP2">
-        <v>113.8750751383872</v>
+        <v>111.4370620228529</v>
       </c>
       <c r="AQ2">
-        <v>-98.9994302673321</v>
+        <v>-150.2472538496945</v>
       </c>
       <c r="AR2">
-        <v>99.11218269048086</v>
+        <v>150.0014250248657</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5400,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0005017509119473911</v>
+        <v>0.005475953977530022</v>
       </c>
       <c r="F3">
-        <v>0.0005017509320507323</v>
+        <v>0.005475953977432883</v>
       </c>
       <c r="G3">
-        <v>0.0005017509320513589</v>
+        <v>0.005475953977432888</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5418,49 +5418,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.00579372048157933</v>
+        <v>0.0632308700599392</v>
       </c>
       <c r="L3">
-        <v>0.005793720713712719</v>
+        <v>0.06323087005881754</v>
       </c>
       <c r="M3">
-        <v>0.005793720713719953</v>
+        <v>0.0632308700588176</v>
       </c>
       <c r="N3">
-        <v>-8.470956325243343E-13</v>
+        <v>-8.455604264780451E-12</v>
       </c>
       <c r="O3">
-        <v>2.007742230369616E-10</v>
+        <v>-6.722891055653248E-09</v>
       </c>
       <c r="P3">
-        <v>2.423478582141654E-10</v>
+        <v>-6.762009312583378E-09</v>
       </c>
       <c r="Q3">
-        <v>-2.325430810384372E-06</v>
+        <v>-0.0002769788993641202</v>
       </c>
       <c r="R3">
-        <v>0.005516791280368075</v>
+        <v>0.06041492467386794</v>
       </c>
       <c r="S3">
-        <v>-0.005513768398812396</v>
+        <v>-0.06005480720138225</v>
       </c>
       <c r="T3">
-        <v>1.912007005311692E-12</v>
+        <v>2.124106996652277E-11</v>
       </c>
       <c r="U3">
-        <v>1.402684002589714E-09</v>
+        <v>-3.883714062377549E-09</v>
       </c>
       <c r="V3">
-        <v>-1.378677002936514E-09</v>
+        <v>3.861154874819934E-09</v>
       </c>
       <c r="W3">
-        <v>-9.253521396281649E-07</v>
+        <v>-0.0001102172857987859</v>
       </c>
       <c r="X3">
-        <v>-0.001089913364848026</v>
+        <v>-0.1045801175724064</v>
       </c>
       <c r="Y3">
-        <v>-0.0006707554116744344</v>
+        <v>-0.105130718251426</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5472,49 +5472,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-87.82387892490753</v>
+        <v>-90.26186555184432</v>
       </c>
       <c r="AD3">
-        <v>-87.82382464178835</v>
+        <v>-90.26186557364561</v>
       </c>
       <c r="AE3">
-        <v>-87.82382464175591</v>
+        <v>-90.26186557365419</v>
       </c>
       <c r="AG3">
-        <v>0.0005183939934992961</v>
+        <v>0.005657590693199275</v>
       </c>
       <c r="AH3">
-        <v>0.9705340748746539</v>
+        <v>1.909951052342352</v>
       </c>
       <c r="AI3">
-        <v>0.9587796946052258</v>
+        <v>1.915538552363306</v>
       </c>
       <c r="AJ3">
-        <v>0.0004319813960848262</v>
+        <v>0.004714510504380473</v>
       </c>
       <c r="AK3">
-        <v>0.9706066706233739</v>
+        <v>1.910087662885228</v>
       </c>
       <c r="AL3">
-        <v>0.9586961239089093</v>
+        <v>1.9148013392095</v>
       </c>
       <c r="AM3">
-        <v>113.8705348762413</v>
+        <v>111.4325223147324</v>
       </c>
       <c r="AN3">
-        <v>-99.00219727251788</v>
+        <v>-150.2752455068152</v>
       </c>
       <c r="AO3">
-        <v>99.11349619000653</v>
+        <v>149.9838295339712</v>
       </c>
       <c r="AP3">
-        <v>113.8750751383872</v>
+        <v>111.4370620228529</v>
       </c>
       <c r="AQ3">
-        <v>-98.9994302673321</v>
+        <v>-150.2472538496945</v>
       </c>
       <c r="AR3">
-        <v>99.11218269048086</v>
+        <v>150.0014250248657</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5531,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0005017509119473911</v>
+        <v>0.00547595397753003</v>
       </c>
       <c r="F4">
-        <v>0.0005017509320507634</v>
+        <v>0.005475953977434531</v>
       </c>
       <c r="G4">
-        <v>0.0005017509320497503</v>
+        <v>0.005475953977431247</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5549,49 +5549,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.00579372048157933</v>
+        <v>0.06323087005993928</v>
       </c>
       <c r="L4">
-        <v>0.005793720713713078</v>
+        <v>0.06323087005883657</v>
       </c>
       <c r="M4">
-        <v>0.00579372071370138</v>
+        <v>0.06323087005879864</v>
       </c>
       <c r="N4">
-        <v>-8.470956325252297E-13</v>
+        <v>-8.455554371794797E-12</v>
       </c>
       <c r="O4">
-        <v>2.007756617603788E-10</v>
+        <v>-6.722886544049463E-09</v>
       </c>
       <c r="P4">
-        <v>2.423478582141656E-10</v>
+        <v>-6.762009312583378E-09</v>
       </c>
       <c r="Q4">
-        <v>-2.325430810384372E-06</v>
+        <v>-0.0002769788993640875</v>
       </c>
       <c r="R4">
-        <v>0.005516791280366637</v>
+        <v>0.06041492467391733</v>
       </c>
       <c r="S4">
-        <v>-0.005513768398795899</v>
+        <v>-0.0600548072013641</v>
       </c>
       <c r="T4">
-        <v>1.912007005310907E-12</v>
+        <v>2.12410895520479E-11</v>
       </c>
       <c r="U4">
-        <v>1.402693084077791E-09</v>
+        <v>-3.883648977221687E-09</v>
       </c>
       <c r="V4">
-        <v>-1.378677002936513E-09</v>
+        <v>3.861154874819934E-09</v>
       </c>
       <c r="W4">
-        <v>-9.253521396281649E-07</v>
+        <v>-0.0001102172857988691</v>
       </c>
       <c r="X4">
-        <v>-0.001089913364857108</v>
+        <v>-0.1045801175724199</v>
       </c>
       <c r="Y4">
-        <v>-0.0006707554116625897</v>
+        <v>-0.1051307182513946</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5603,49 +5603,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-87.82387892490753</v>
+        <v>-90.26186555186149</v>
       </c>
       <c r="AD4">
-        <v>-87.82382464169471</v>
+        <v>-90.2618655736627</v>
       </c>
       <c r="AE4">
-        <v>-87.82382464165516</v>
+        <v>-90.26186557365426</v>
       </c>
       <c r="AG4">
-        <v>0.0005183939934992079</v>
+        <v>0.005657590693199451</v>
       </c>
       <c r="AH4">
-        <v>0.9705340748746542</v>
+        <v>1.909951052342352</v>
       </c>
       <c r="AI4">
-        <v>0.9587796946052256</v>
+        <v>1.915538552363306</v>
       </c>
       <c r="AJ4">
-        <v>0.0004319813960848262</v>
+        <v>0.004714510504380473</v>
       </c>
       <c r="AK4">
-        <v>0.9706066706233739</v>
+        <v>1.910087662885228</v>
       </c>
       <c r="AL4">
-        <v>0.9586961239089093</v>
+        <v>1.9148013392095</v>
       </c>
       <c r="AM4">
-        <v>113.8705348762724</v>
+        <v>111.4325223147317</v>
       </c>
       <c r="AN4">
-        <v>-99.00219727251789</v>
+        <v>-150.2752455068152</v>
       </c>
       <c r="AO4">
-        <v>99.11349619000654</v>
+        <v>149.9838295339712</v>
       </c>
       <c r="AP4">
-        <v>113.8750751383872</v>
+        <v>111.4370620228529</v>
       </c>
       <c r="AQ4">
-        <v>-98.9994302673321</v>
+        <v>-150.2472538496945</v>
       </c>
       <c r="AR4">
-        <v>99.11218269048086</v>
+        <v>150.0014250248657</v>
       </c>
     </row>
   </sheetData>
@@ -5800,130 +5800,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0003039490735104944</v>
+        <v>0.01663524275398155</v>
       </c>
       <c r="C2">
-        <v>0.0003039490859218823</v>
+        <v>0.01663524275367866</v>
       </c>
       <c r="D2">
-        <v>0.0003039490859219742</v>
+        <v>0.01663524275368023</v>
       </c>
       <c r="E2">
-        <v>0.0002026965136117204</v>
+        <v>0.01109365366284198</v>
       </c>
       <c r="F2">
-        <v>0.00020269652579551</v>
+        <v>0.0110936536625466</v>
       </c>
       <c r="G2">
-        <v>0.0002026965257955712</v>
+        <v>0.01109365366254821</v>
       </c>
       <c r="H2">
-        <v>0.003509701588224426</v>
+        <v>0.1920872376409203</v>
       </c>
       <c r="I2">
-        <v>0.003509701731538789</v>
+        <v>0.192087237637423</v>
       </c>
       <c r="J2">
-        <v>0.00350970173153985</v>
+        <v>0.192087237637441</v>
       </c>
       <c r="K2">
-        <v>0.002340537733950509</v>
+        <v>0.128098478570766</v>
       </c>
       <c r="L2">
-        <v>0.002340537874636792</v>
+        <v>0.1280984785673552</v>
       </c>
       <c r="M2">
-        <v>0.0023405378746375</v>
+        <v>0.1280984785673737</v>
       </c>
       <c r="N2">
-        <v>0.002290005788269319</v>
+        <v>-0.00277342224794436</v>
       </c>
       <c r="O2">
-        <v>0.001527639042761001</v>
+        <v>0.185499130701275</v>
       </c>
       <c r="P2">
-        <v>-0.003816878641408933</v>
+        <v>-0.1804236234798669</v>
       </c>
       <c r="Q2">
-        <v>-0.001525741907561442</v>
+        <v>0.002416459515158829</v>
       </c>
       <c r="R2">
-        <v>-0.001020284034014852</v>
+        <v>-0.1233045199286941</v>
       </c>
       <c r="S2">
-        <v>0.002545971327460239</v>
+        <v>0.1207174374758579</v>
       </c>
       <c r="T2">
-        <v>0.002306432919210162</v>
+        <v>-0.002763548097439357</v>
       </c>
       <c r="U2">
-        <v>-0.003270204516175321</v>
+        <v>-0.3178378540833761</v>
       </c>
       <c r="V2">
-        <v>0.0007485633707814141</v>
+        <v>-0.3240421825676065</v>
       </c>
       <c r="W2">
-        <v>-0.001539240435162292</v>
+        <v>0.002070587682675258</v>
       </c>
       <c r="X2">
-        <v>0.002180090674211089</v>
+        <v>0.2120867242679088</v>
       </c>
       <c r="Y2">
-        <v>-0.000497107532599839</v>
+        <v>0.2164175733168233</v>
       </c>
       <c r="Z2">
-        <v>-53.05900732305598</v>
+        <v>-90.97137378259896</v>
       </c>
       <c r="AA2">
-        <v>-53.05895302431155</v>
+        <v>-90.97137380441718</v>
       </c>
       <c r="AB2">
-        <v>-53.05895302438503</v>
+        <v>-90.97137380440154</v>
       </c>
       <c r="AC2">
-        <v>126.8955820142757</v>
+        <v>88.983233646307</v>
       </c>
       <c r="AD2">
-        <v>126.8956634394841</v>
+        <v>88.98323361358261</v>
       </c>
       <c r="AE2">
-        <v>126.8956634393623</v>
+        <v>88.98323361359336</v>
       </c>
       <c r="AG2">
-        <v>0.9260598527355606</v>
+        <v>0.02038259049452917</v>
       </c>
       <c r="AH2">
-        <v>1.028412409794424</v>
+        <v>1.915844503329756</v>
       </c>
       <c r="AI2">
-        <v>1.10823944867421</v>
+        <v>1.93081778137402</v>
       </c>
       <c r="AJ2">
-        <v>0.9259798659197098</v>
+        <v>0.02484208648269244</v>
       </c>
       <c r="AK2">
-        <v>1.028407260601489</v>
+        <v>1.915134935879114</v>
       </c>
       <c r="AL2">
-        <v>1.108312835422431</v>
+        <v>1.934518916207788</v>
       </c>
       <c r="AM2">
-        <v>-7.854239822580863</v>
+        <v>133.926450024421</v>
       </c>
       <c r="AN2">
-        <v>-118.0198552812533</v>
+        <v>-150.7023334833341</v>
       </c>
       <c r="AO2">
-        <v>115.8450719166575</v>
+        <v>149.9199793619674</v>
       </c>
       <c r="AP2">
-        <v>-7.852082548072576</v>
+        <v>129.5754603433749</v>
       </c>
       <c r="AQ2">
-        <v>-118.0247080766357</v>
+        <v>-150.8435926468576</v>
       </c>
       <c r="AR2">
-        <v>115.8475121099392</v>
+        <v>149.8305130180549</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5940,13 +5940,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001013482581592483</v>
+        <v>0.005546826831324403</v>
       </c>
       <c r="F3">
-        <v>0.0001013482622194965</v>
+        <v>0.005546826831220737</v>
       </c>
       <c r="G3">
-        <v>0.0001013482622196811</v>
+        <v>0.005546826831218312</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5958,49 +5958,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001170268882602834</v>
+        <v>0.06404923928426766</v>
       </c>
       <c r="L3">
-        <v>0.001170268929486541</v>
+        <v>0.06404923928307063</v>
       </c>
       <c r="M3">
-        <v>0.001170268929488673</v>
+        <v>0.06404923928304264</v>
       </c>
       <c r="N3">
-        <v>5.558717338445554E-10</v>
+        <v>-6.76241549700999E-11</v>
       </c>
       <c r="O3">
-        <v>2.675071174627585E-10</v>
+        <v>-6.816885974345045E-09</v>
       </c>
       <c r="P3">
-        <v>-4.55762116604088E-11</v>
+        <v>-6.960080407380214E-09</v>
       </c>
       <c r="Q3">
-        <v>0.0007628712317034803</v>
+        <v>-0.001208229790629749</v>
       </c>
       <c r="R3">
-        <v>0.0005101421507593416</v>
+        <v>0.06165225655612142</v>
       </c>
       <c r="S3">
-        <v>-0.001272985686489058</v>
+        <v>-0.06035872221448667</v>
       </c>
       <c r="T3">
-        <v>-5.101964658591774E-10</v>
+        <v>8.083531589115055E-11</v>
       </c>
       <c r="U3">
-        <v>1.428997938921167E-10</v>
+        <v>-3.963211244740384E-09</v>
       </c>
       <c r="V3">
-        <v>-3.236530885742772E-10</v>
+        <v>3.880646497406566E-09</v>
       </c>
       <c r="W3">
-        <v>0.0007696199624708663</v>
+        <v>-0.001035293802723969</v>
       </c>
       <c r="X3">
-        <v>-0.001090045265616791</v>
+        <v>-0.1060433641141087</v>
       </c>
       <c r="Y3">
-        <v>0.0002485536044531747</v>
+        <v>-0.1082087847177652</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6012,49 +6012,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-53.1043980536563</v>
+        <v>-91.0167645234322</v>
       </c>
       <c r="AD3">
-        <v>-53.10434377032917</v>
+        <v>-91.01676454524376</v>
       </c>
       <c r="AE3">
-        <v>-53.10434377033501</v>
+        <v>-91.0167645452654</v>
       </c>
       <c r="AG3">
-        <v>0.9259638690082806</v>
+        <v>0.02574762112459901</v>
       </c>
       <c r="AH3">
-        <v>1.028406223172679</v>
+        <v>1.914993944282368</v>
       </c>
       <c r="AI3">
-        <v>1.108327520272241</v>
+        <v>1.935259561251991</v>
       </c>
       <c r="AJ3">
-        <v>0.9259798659197098</v>
+        <v>0.02484208648269244</v>
       </c>
       <c r="AK3">
-        <v>1.028407260601489</v>
+        <v>1.915134935879114</v>
       </c>
       <c r="AL3">
-        <v>1.108312835422431</v>
+        <v>1.934518916207788</v>
       </c>
       <c r="AM3">
-        <v>-7.851650496258119</v>
+        <v>128.8861448216505</v>
       </c>
       <c r="AN3">
-        <v>-118.0256787975691</v>
+        <v>-150.8718603361286</v>
       </c>
       <c r="AO3">
-        <v>115.8479998412722</v>
+        <v>149.8126470277187</v>
       </c>
       <c r="AP3">
-        <v>-7.852082548072576</v>
+        <v>129.5754603433749</v>
       </c>
       <c r="AQ3">
-        <v>-118.0247080766357</v>
+        <v>-150.8435926468576</v>
       </c>
       <c r="AR3">
-        <v>115.8475121099392</v>
+        <v>149.8305130180549</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6071,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001013482581586742</v>
+        <v>0.00554682683132115</v>
       </c>
       <c r="F4">
-        <v>0.0001013482622200708</v>
+        <v>0.00554682683122396</v>
       </c>
       <c r="G4">
-        <v>0.0001013482622199684</v>
+        <v>0.00554682683121834</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6089,49 +6089,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001170268882596205</v>
+        <v>0.06404923928423011</v>
       </c>
       <c r="L4">
-        <v>0.001170268929493174</v>
+        <v>0.06404923928310784</v>
       </c>
       <c r="M4">
-        <v>0.001170268929491991</v>
+        <v>0.06404923928304296</v>
       </c>
       <c r="N4">
-        <v>5.558774271679725E-10</v>
+        <v>-6.762446123692462E-11</v>
       </c>
       <c r="O4">
-        <v>2.675006670682389E-10</v>
+        <v>-6.816905450729206E-09</v>
       </c>
       <c r="P4">
-        <v>-4.557333209199586E-11</v>
+        <v>-6.960080407380214E-09</v>
       </c>
       <c r="Q4">
-        <v>0.0007628712317024318</v>
+        <v>-0.001208229790628723</v>
       </c>
       <c r="R4">
-        <v>0.000510142150761353</v>
+        <v>0.06165225655609341</v>
       </c>
       <c r="S4">
-        <v>-0.001272985686491938</v>
+        <v>-0.06035872221445498</v>
       </c>
       <c r="T4">
-        <v>-5.101872885262493E-10</v>
+        <v>8.083569563965541E-11</v>
       </c>
       <c r="U4">
-        <v>1.429032273368503E-10</v>
+        <v>-3.963139021438037E-09</v>
       </c>
       <c r="V4">
-        <v>-3.2365752729594E-10</v>
+        <v>3.880646497406567E-09</v>
       </c>
       <c r="W4">
-        <v>0.0007696199624632622</v>
+        <v>-0.001035293802723732</v>
       </c>
       <c r="X4">
-        <v>-0.00109004526562338</v>
+        <v>-0.1060433641142074</v>
       </c>
       <c r="Y4">
-        <v>0.0002485536044576134</v>
+        <v>-0.1082087847177836</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6143,49 +6143,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-53.10439805341263</v>
+        <v>-91.01676452344977</v>
       </c>
       <c r="AD4">
-        <v>-53.10434377028293</v>
+        <v>-91.01676454520927</v>
       </c>
       <c r="AE4">
-        <v>-53.10434377016694</v>
+        <v>-91.01676454528236</v>
       </c>
       <c r="AG4">
-        <v>0.9259638690082806</v>
+        <v>0.02574762112459916</v>
       </c>
       <c r="AH4">
-        <v>1.028406223172679</v>
+        <v>1.914993944282368</v>
       </c>
       <c r="AI4">
-        <v>1.108327520272241</v>
+        <v>1.935259561251991</v>
       </c>
       <c r="AJ4">
-        <v>0.9259798659197098</v>
+        <v>0.02484208648269244</v>
       </c>
       <c r="AK4">
-        <v>1.028407260601489</v>
+        <v>1.915134935879114</v>
       </c>
       <c r="AL4">
-        <v>1.108312835422431</v>
+        <v>1.934518916207788</v>
       </c>
       <c r="AM4">
-        <v>-7.851650496258121</v>
+        <v>128.8861448216503</v>
       </c>
       <c r="AN4">
-        <v>-118.0256787975691</v>
+        <v>-150.8718603361286</v>
       </c>
       <c r="AO4">
-        <v>115.8479998412722</v>
+        <v>149.8126470277187</v>
       </c>
       <c r="AP4">
-        <v>-7.852082548072576</v>
+        <v>129.5754603433749</v>
       </c>
       <c r="AQ4">
-        <v>-118.0247080766357</v>
+        <v>-150.8435926468576</v>
       </c>
       <c r="AR4">
-        <v>115.8475121099392</v>
+        <v>149.8305130180549</v>
       </c>
     </row>
   </sheetData>
@@ -6565,130 +6565,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0003039490735104944</v>
+        <v>0.01663524275398155</v>
       </c>
       <c r="C2">
-        <v>0.0003039490859218823</v>
+        <v>0.01663524275367866</v>
       </c>
       <c r="D2">
-        <v>0.0003039490859219742</v>
+        <v>0.01663524275368023</v>
       </c>
       <c r="E2">
-        <v>0.0002026965136117204</v>
+        <v>0.01109365366284198</v>
       </c>
       <c r="F2">
-        <v>0.00020269652579551</v>
+        <v>0.0110936536625466</v>
       </c>
       <c r="G2">
-        <v>0.0002026965257955712</v>
+        <v>0.01109365366254821</v>
       </c>
       <c r="H2">
-        <v>0.003509701588224426</v>
+        <v>0.1920872376409203</v>
       </c>
       <c r="I2">
-        <v>0.003509701731538789</v>
+        <v>0.192087237637423</v>
       </c>
       <c r="J2">
-        <v>0.00350970173153985</v>
+        <v>0.192087237637441</v>
       </c>
       <c r="K2">
-        <v>0.002340537733950509</v>
+        <v>0.128098478570766</v>
       </c>
       <c r="L2">
-        <v>0.002340537874636792</v>
+        <v>0.1280984785673552</v>
       </c>
       <c r="M2">
-        <v>0.0023405378746375</v>
+        <v>0.1280984785673737</v>
       </c>
       <c r="N2">
-        <v>0.002290005788269319</v>
+        <v>-0.00277342224794436</v>
       </c>
       <c r="O2">
-        <v>0.001527639042761001</v>
+        <v>0.185499130701275</v>
       </c>
       <c r="P2">
-        <v>-0.003816878641408933</v>
+        <v>-0.1804236234798669</v>
       </c>
       <c r="Q2">
-        <v>-0.001525741907561442</v>
+        <v>0.002416459515158829</v>
       </c>
       <c r="R2">
-        <v>-0.001020284034014852</v>
+        <v>-0.1233045199286941</v>
       </c>
       <c r="S2">
-        <v>0.002545971327460239</v>
+        <v>0.1207174374758579</v>
       </c>
       <c r="T2">
-        <v>0.002306432919210162</v>
+        <v>-0.002763548097439357</v>
       </c>
       <c r="U2">
-        <v>-0.003270204516175321</v>
+        <v>-0.3178378540833761</v>
       </c>
       <c r="V2">
-        <v>0.0007485633707814141</v>
+        <v>-0.3240421825676065</v>
       </c>
       <c r="W2">
-        <v>-0.001539240435162292</v>
+        <v>0.002070587682675258</v>
       </c>
       <c r="X2">
-        <v>0.002180090674211089</v>
+        <v>0.2120867242679088</v>
       </c>
       <c r="Y2">
-        <v>-0.000497107532599839</v>
+        <v>0.2164175733168233</v>
       </c>
       <c r="Z2">
-        <v>-53.05900732305598</v>
+        <v>-90.97137378259896</v>
       </c>
       <c r="AA2">
-        <v>-53.05895302431155</v>
+        <v>-90.97137380441718</v>
       </c>
       <c r="AB2">
-        <v>-53.05895302438503</v>
+        <v>-90.97137380440154</v>
       </c>
       <c r="AC2">
-        <v>126.8955820142757</v>
+        <v>88.983233646307</v>
       </c>
       <c r="AD2">
-        <v>126.8956634394841</v>
+        <v>88.98323361358261</v>
       </c>
       <c r="AE2">
-        <v>126.8956634393623</v>
+        <v>88.98323361359336</v>
       </c>
       <c r="AG2">
-        <v>0.9260598527355606</v>
+        <v>0.02038259049452917</v>
       </c>
       <c r="AH2">
-        <v>1.028412409794424</v>
+        <v>1.915844503329756</v>
       </c>
       <c r="AI2">
-        <v>1.10823944867421</v>
+        <v>1.93081778137402</v>
       </c>
       <c r="AJ2">
-        <v>0.9259798659197098</v>
+        <v>0.02484208648269244</v>
       </c>
       <c r="AK2">
-        <v>1.028407260601489</v>
+        <v>1.915134935879114</v>
       </c>
       <c r="AL2">
-        <v>1.108312835422431</v>
+        <v>1.934518916207788</v>
       </c>
       <c r="AM2">
-        <v>-7.854239822580863</v>
+        <v>133.926450024421</v>
       </c>
       <c r="AN2">
-        <v>-118.0198552812533</v>
+        <v>-150.7023334833341</v>
       </c>
       <c r="AO2">
-        <v>115.8450719166575</v>
+        <v>149.9199793619674</v>
       </c>
       <c r="AP2">
-        <v>-7.852082548072576</v>
+        <v>129.5754603433749</v>
       </c>
       <c r="AQ2">
-        <v>-118.0247080766357</v>
+        <v>-150.8435926468576</v>
       </c>
       <c r="AR2">
-        <v>115.8475121099392</v>
+        <v>149.8305130180549</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6705,13 +6705,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001013482581592483</v>
+        <v>0.005546826831324403</v>
       </c>
       <c r="F3">
-        <v>0.0001013482622194965</v>
+        <v>0.005546826831220737</v>
       </c>
       <c r="G3">
-        <v>0.0001013482622196811</v>
+        <v>0.005546826831218312</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -6723,49 +6723,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001170268882602834</v>
+        <v>0.06404923928426766</v>
       </c>
       <c r="L3">
-        <v>0.001170268929486541</v>
+        <v>0.06404923928307063</v>
       </c>
       <c r="M3">
-        <v>0.001170268929488673</v>
+        <v>0.06404923928304264</v>
       </c>
       <c r="N3">
-        <v>5.558717338445554E-10</v>
+        <v>-6.76241549700999E-11</v>
       </c>
       <c r="O3">
-        <v>2.675071174627585E-10</v>
+        <v>-6.816885974345045E-09</v>
       </c>
       <c r="P3">
-        <v>-4.55762116604088E-11</v>
+        <v>-6.960080407380214E-09</v>
       </c>
       <c r="Q3">
-        <v>0.0007628712317034803</v>
+        <v>-0.001208229790629749</v>
       </c>
       <c r="R3">
-        <v>0.0005101421507593416</v>
+        <v>0.06165225655612142</v>
       </c>
       <c r="S3">
-        <v>-0.001272985686489058</v>
+        <v>-0.06035872221448667</v>
       </c>
       <c r="T3">
-        <v>-5.101964658591774E-10</v>
+        <v>8.083531589115055E-11</v>
       </c>
       <c r="U3">
-        <v>1.428997938921167E-10</v>
+        <v>-3.963211244740384E-09</v>
       </c>
       <c r="V3">
-        <v>-3.236530885742772E-10</v>
+        <v>3.880646497406566E-09</v>
       </c>
       <c r="W3">
-        <v>0.0007696199624708663</v>
+        <v>-0.001035293802723969</v>
       </c>
       <c r="X3">
-        <v>-0.001090045265616791</v>
+        <v>-0.1060433641141087</v>
       </c>
       <c r="Y3">
-        <v>0.0002485536044531747</v>
+        <v>-0.1082087847177652</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6777,49 +6777,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-53.1043980536563</v>
+        <v>-91.0167645234322</v>
       </c>
       <c r="AD3">
-        <v>-53.10434377032917</v>
+        <v>-91.01676454524376</v>
       </c>
       <c r="AE3">
-        <v>-53.10434377033501</v>
+        <v>-91.0167645452654</v>
       </c>
       <c r="AG3">
-        <v>0.9259638690082806</v>
+        <v>0.02574762112459901</v>
       </c>
       <c r="AH3">
-        <v>1.028406223172679</v>
+        <v>1.914993944282368</v>
       </c>
       <c r="AI3">
-        <v>1.108327520272241</v>
+        <v>1.935259561251991</v>
       </c>
       <c r="AJ3">
-        <v>0.9259798659197098</v>
+        <v>0.02484208648269244</v>
       </c>
       <c r="AK3">
-        <v>1.028407260601489</v>
+        <v>1.915134935879114</v>
       </c>
       <c r="AL3">
-        <v>1.108312835422431</v>
+        <v>1.934518916207788</v>
       </c>
       <c r="AM3">
-        <v>-7.851650496258119</v>
+        <v>128.8861448216505</v>
       </c>
       <c r="AN3">
-        <v>-118.0256787975691</v>
+        <v>-150.8718603361286</v>
       </c>
       <c r="AO3">
-        <v>115.8479998412722</v>
+        <v>149.8126470277187</v>
       </c>
       <c r="AP3">
-        <v>-7.852082548072576</v>
+        <v>129.5754603433749</v>
       </c>
       <c r="AQ3">
-        <v>-118.0247080766357</v>
+        <v>-150.8435926468576</v>
       </c>
       <c r="AR3">
-        <v>115.8475121099392</v>
+        <v>149.8305130180549</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6836,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001013482581586742</v>
+        <v>0.00554682683132115</v>
       </c>
       <c r="F4">
-        <v>0.0001013482622200708</v>
+        <v>0.00554682683122396</v>
       </c>
       <c r="G4">
-        <v>0.0001013482622199684</v>
+        <v>0.00554682683121834</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -6854,49 +6854,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001170268882596205</v>
+        <v>0.06404923928423011</v>
       </c>
       <c r="L4">
-        <v>0.001170268929493174</v>
+        <v>0.06404923928310784</v>
       </c>
       <c r="M4">
-        <v>0.001170268929491991</v>
+        <v>0.06404923928304296</v>
       </c>
       <c r="N4">
-        <v>5.558774271679725E-10</v>
+        <v>-6.762446123692462E-11</v>
       </c>
       <c r="O4">
-        <v>2.675006670682389E-10</v>
+        <v>-6.816905450729206E-09</v>
       </c>
       <c r="P4">
-        <v>-4.557333209199586E-11</v>
+        <v>-6.960080407380214E-09</v>
       </c>
       <c r="Q4">
-        <v>0.0007628712317024318</v>
+        <v>-0.001208229790628723</v>
       </c>
       <c r="R4">
-        <v>0.000510142150761353</v>
+        <v>0.06165225655609341</v>
       </c>
       <c r="S4">
-        <v>-0.001272985686491938</v>
+        <v>-0.06035872221445498</v>
       </c>
       <c r="T4">
-        <v>-5.101872885262493E-10</v>
+        <v>8.083569563965541E-11</v>
       </c>
       <c r="U4">
-        <v>1.429032273368503E-10</v>
+        <v>-3.963139021438037E-09</v>
       </c>
       <c r="V4">
-        <v>-3.2365752729594E-10</v>
+        <v>3.880646497406567E-09</v>
       </c>
       <c r="W4">
-        <v>0.0007696199624632622</v>
+        <v>-0.001035293802723732</v>
       </c>
       <c r="X4">
-        <v>-0.00109004526562338</v>
+        <v>-0.1060433641142074</v>
       </c>
       <c r="Y4">
-        <v>0.0002485536044576134</v>
+        <v>-0.1082087847177836</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6908,49 +6908,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-53.10439805341263</v>
+        <v>-91.01676452344977</v>
       </c>
       <c r="AD4">
-        <v>-53.10434377028293</v>
+        <v>-91.01676454520927</v>
       </c>
       <c r="AE4">
-        <v>-53.10434377016694</v>
+        <v>-91.01676454528236</v>
       </c>
       <c r="AG4">
-        <v>0.9259638690082806</v>
+        <v>0.02574762112459916</v>
       </c>
       <c r="AH4">
-        <v>1.028406223172679</v>
+        <v>1.914993944282368</v>
       </c>
       <c r="AI4">
-        <v>1.108327520272241</v>
+        <v>1.935259561251991</v>
       </c>
       <c r="AJ4">
-        <v>0.9259798659197098</v>
+        <v>0.02484208648269244</v>
       </c>
       <c r="AK4">
-        <v>1.028407260601489</v>
+        <v>1.915134935879114</v>
       </c>
       <c r="AL4">
-        <v>1.108312835422431</v>
+        <v>1.934518916207788</v>
       </c>
       <c r="AM4">
-        <v>-7.851650496258121</v>
+        <v>128.8861448216503</v>
       </c>
       <c r="AN4">
-        <v>-118.0256787975691</v>
+        <v>-150.8718603361286</v>
       </c>
       <c r="AO4">
-        <v>115.8479998412722</v>
+        <v>149.8126470277187</v>
       </c>
       <c r="AP4">
-        <v>-7.852082548072576</v>
+        <v>129.5754603433749</v>
       </c>
       <c r="AQ4">
-        <v>-118.0247080766357</v>
+        <v>-150.8435926468576</v>
       </c>
       <c r="AR4">
-        <v>115.8475121099392</v>
+        <v>149.8305130180549</v>
       </c>
     </row>
   </sheetData>
@@ -7105,130 +7105,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.001342979246875955</v>
+        <v>0.01493211671141605</v>
       </c>
       <c r="C2">
-        <v>0.0013429792999583</v>
+        <v>0.01493211671111525</v>
       </c>
       <c r="D2">
-        <v>0.00134297929995857</v>
+        <v>0.0149321167111154</v>
       </c>
       <c r="E2">
-        <v>0.0008956006309896579</v>
+        <v>0.009957870411108639</v>
       </c>
       <c r="F2">
-        <v>0.0008956006820959073</v>
+        <v>0.009957870410817521</v>
       </c>
       <c r="G2">
-        <v>0.0008956006820959594</v>
+        <v>0.00995787041081767</v>
       </c>
       <c r="H2">
-        <v>0.01550738859399827</v>
+        <v>0.1724212320581394</v>
       </c>
       <c r="I2">
-        <v>0.0155073892069404</v>
+        <v>0.172421232054666</v>
       </c>
       <c r="J2">
-        <v>0.01550738920694352</v>
+        <v>0.1724212320546678</v>
       </c>
       <c r="K2">
-        <v>0.01034150530776555</v>
+        <v>0.1149835832481797</v>
       </c>
       <c r="L2">
-        <v>0.01034150589788969</v>
+        <v>0.1149835832448181</v>
       </c>
       <c r="M2">
-        <v>0.01034150589789029</v>
+        <v>0.1149835832448198</v>
       </c>
       <c r="N2">
-        <v>1.255830755661454E-13</v>
+        <v>-3.529394141453323E-14</v>
       </c>
       <c r="O2">
-        <v>0.01343523391121242</v>
+        <v>0.1510980311545647</v>
       </c>
       <c r="P2">
-        <v>-0.01340642823543448</v>
+        <v>-0.1475367798586377</v>
       </c>
       <c r="Q2">
-        <v>7.112579015469622E-06</v>
+        <v>0.0008792883363682323</v>
       </c>
       <c r="R2">
-        <v>-0.008955140556988123</v>
+        <v>-0.1001466092036701</v>
       </c>
       <c r="S2">
-        <v>0.008945894482416745</v>
+        <v>0.09900340132290164</v>
       </c>
       <c r="T2">
-        <v>1.079477029992196E-13</v>
+        <v>-2.8926864390641E-14</v>
       </c>
       <c r="U2">
-        <v>-0.002591287907202821</v>
+        <v>-0.2586432842305916</v>
       </c>
       <c r="V2">
-        <v>-0.001610200111951558</v>
+        <v>-0.2607630580190798</v>
       </c>
       <c r="W2">
-        <v>1.474901514065667E-06</v>
+        <v>0.0001823330481087025</v>
       </c>
       <c r="X2">
-        <v>0.001715913684982857</v>
+        <v>0.1725118643871437</v>
       </c>
       <c r="Y2">
-        <v>0.001088875224694854</v>
+        <v>0.1742284175508187</v>
       </c>
       <c r="Z2">
-        <v>-87.90677307328953</v>
+        <v>-90.40669084963575</v>
       </c>
       <c r="AA2">
-        <v>-87.90671765679072</v>
+        <v>-90.40669087253499</v>
       </c>
       <c r="AB2">
-        <v>-87.90671765683493</v>
+        <v>-90.40669087251138</v>
       </c>
       <c r="AC2">
-        <v>92.00605645844061</v>
+        <v>89.50615714773717</v>
       </c>
       <c r="AD2">
-        <v>92.00613956209259</v>
+        <v>89.50615711339887</v>
       </c>
       <c r="AE2">
-        <v>92.00613956200056</v>
+        <v>89.50615711343664</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.8823436448222212</v>
+        <v>1.737283685614697</v>
       </c>
       <c r="AI2">
-        <v>0.8707319861325011</v>
+        <v>1.737646783248131</v>
       </c>
       <c r="AJ2">
-        <v>0.0007024017239186023</v>
+        <v>0.007809758814742887</v>
       </c>
       <c r="AK2">
-        <v>0.8816949610009963</v>
+        <v>1.734800031023272</v>
       </c>
       <c r="AL2">
-        <v>0.8714319477554349</v>
+        <v>1.742793591010804</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-98.82345153514746</v>
+        <v>-150.1134455661317</v>
       </c>
       <c r="AO2">
-        <v>98.9420750154186</v>
+        <v>150.0926200384843</v>
       </c>
       <c r="AP2">
-        <v>103.7211736878162</v>
+        <v>101.2212261824011</v>
       </c>
       <c r="AQ2">
-        <v>-98.84095183153306</v>
+        <v>-150.3578153013648</v>
       </c>
       <c r="AR2">
-        <v>98.94592266334048</v>
+        <v>149.8992248484464</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7245,13 +7245,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0004478003211620647</v>
+        <v>0.004978935205401437</v>
       </c>
       <c r="F3">
-        <v>0.0004478003381986253</v>
+        <v>0.004978935205303671</v>
       </c>
       <c r="G3">
-        <v>0.0004478003381981057</v>
+        <v>0.004978935205303481</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -7263,49 +7263,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.005170752719322378</v>
+        <v>0.05749179162232448</v>
       </c>
       <c r="L3">
-        <v>0.005170752916043637</v>
+        <v>0.05749179162119558</v>
       </c>
       <c r="M3">
-        <v>0.005170752916037635</v>
+        <v>0.05749179162119339</v>
       </c>
       <c r="N3">
-        <v>-7.35251729984872E-13</v>
+        <v>-7.004051140313133E-12</v>
       </c>
       <c r="O3">
-        <v>1.64975561967297E-10</v>
+        <v>-5.544223503271831E-09</v>
       </c>
       <c r="P3">
-        <v>1.970988622994007E-10</v>
+        <v>-5.604920462546946E-09</v>
       </c>
       <c r="Q3">
-        <v>-3.556289814080076E-06</v>
+        <v>-0.0004396441710822263</v>
       </c>
       <c r="R3">
-        <v>0.004477570360755689</v>
+        <v>0.05007330182868233</v>
       </c>
       <c r="S3">
-        <v>-0.004472947142461894</v>
+        <v>-0.04950170345999629</v>
       </c>
       <c r="T3">
-        <v>3.002576401455624E-12</v>
+        <v>3.370811877740745E-11</v>
       </c>
       <c r="U3">
-        <v>1.166588508894244E-09</v>
+        <v>-3.218543131248125E-09</v>
       </c>
       <c r="V3">
-        <v>-1.148037581467312E-09</v>
+        <v>3.183550135166628E-09</v>
       </c>
       <c r="W3">
-        <v>-7.374495060865196E-07</v>
+        <v>-9.11665100105168E-05</v>
       </c>
       <c r="X3">
-        <v>-0.0008579562590303487</v>
+        <v>-0.08625593380100864</v>
       </c>
       <c r="Y3">
-        <v>-0.0005444381862823792</v>
+        <v>-0.08711420718272778</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7317,49 +7317,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-87.99392323705206</v>
+        <v>-90.49384102238469</v>
       </c>
       <c r="AD3">
-        <v>-87.99386783411504</v>
+        <v>-90.49384104522031</v>
       </c>
       <c r="AE3">
-        <v>-87.99386783413897</v>
+        <v>-90.49384104523922</v>
       </c>
       <c r="AG3">
-        <v>0.0008429085285722007</v>
+        <v>0.009372004717813222</v>
       </c>
       <c r="AH3">
-        <v>0.8815651604951757</v>
+        <v>1.734305647801699</v>
       </c>
       <c r="AI3">
-        <v>0.8715719775746861</v>
+        <v>1.743824451083987</v>
       </c>
       <c r="AJ3">
-        <v>0.0007024017239186023</v>
+        <v>0.007809758814742887</v>
       </c>
       <c r="AK3">
-        <v>0.8816949610009963</v>
+        <v>1.734800031023272</v>
       </c>
       <c r="AL3">
-        <v>0.8714319477554349</v>
+        <v>1.742793591010804</v>
       </c>
       <c r="AM3">
-        <v>103.7124572202372</v>
+        <v>101.2125104000104</v>
       </c>
       <c r="AN3">
-        <v>-98.84444794552991</v>
+        <v>-150.4067673620864</v>
       </c>
       <c r="AO3">
-        <v>98.94668319646713</v>
+        <v>149.860644720227</v>
       </c>
       <c r="AP3">
-        <v>103.7211736878162</v>
+        <v>101.2212261824011</v>
       </c>
       <c r="AQ3">
-        <v>-98.84095183153306</v>
+        <v>-150.3578153013648</v>
       </c>
       <c r="AR3">
-        <v>98.94592266334048</v>
+        <v>149.8992248484464</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7376,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0004478003211620647</v>
+        <v>0.004978935205401019</v>
       </c>
       <c r="F4">
-        <v>0.0004478003381986541</v>
+        <v>0.004978935205304486</v>
       </c>
       <c r="G4">
-        <v>0.0004478003381980483</v>
+        <v>0.004978935205302661</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7394,49 +7394,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.005170752719322378</v>
+        <v>0.05749179162231967</v>
       </c>
       <c r="L4">
-        <v>0.005170752916043968</v>
+        <v>0.05749179162120499</v>
       </c>
       <c r="M4">
-        <v>0.005170752916036974</v>
+        <v>0.05749179162118392</v>
       </c>
       <c r="N4">
-        <v>-7.352557020307768E-13</v>
+        <v>-7.004120970048166E-12</v>
       </c>
       <c r="O4">
-        <v>1.649781302055957E-10</v>
+        <v>-5.54420110185657E-09</v>
       </c>
       <c r="P4">
-        <v>1.970975781802516E-10</v>
+        <v>-5.604937052919379E-09</v>
       </c>
       <c r="Q4">
-        <v>-3.556289814080076E-06</v>
+        <v>-0.0004396441710822044</v>
       </c>
       <c r="R4">
-        <v>0.004477570360754405</v>
+        <v>0.05007330182867618</v>
       </c>
       <c r="S4">
-        <v>-0.004472947142459325</v>
+        <v>-0.04950170345998801</v>
       </c>
       <c r="T4">
-        <v>3.002558992417373E-12</v>
+        <v>3.370801441770828E-11</v>
       </c>
       <c r="U4">
-        <v>1.166605014002867E-09</v>
+        <v>-3.21854930447264E-09</v>
       </c>
       <c r="V4">
-        <v>-1.148029424740032E-09</v>
+        <v>3.18352156052685E-09</v>
       </c>
       <c r="W4">
-        <v>-7.374495060865196E-07</v>
+        <v>-9.116651001043701E-05</v>
       </c>
       <c r="X4">
-        <v>-0.0008579562590386025</v>
+        <v>-0.08625593380103107</v>
       </c>
       <c r="Y4">
-        <v>-0.00054443818629869</v>
+        <v>-0.0871142071827135</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7448,49 +7448,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-87.99392323705206</v>
+        <v>-90.49384102237529</v>
       </c>
       <c r="AD4">
-        <v>-87.99386783401013</v>
+        <v>-90.49384104521079</v>
       </c>
       <c r="AE4">
-        <v>-87.99386783434879</v>
+        <v>-90.49384104523929</v>
       </c>
       <c r="AG4">
-        <v>0.0008429085285720832</v>
+        <v>0.009372004717812729</v>
       </c>
       <c r="AH4">
-        <v>0.8815651604951759</v>
+        <v>1.734305647801699</v>
       </c>
       <c r="AI4">
-        <v>0.8715719775746861</v>
+        <v>1.743824451083986</v>
       </c>
       <c r="AJ4">
-        <v>0.0007024017239186023</v>
+        <v>0.007809758814742887</v>
       </c>
       <c r="AK4">
-        <v>0.8816949610009963</v>
+        <v>1.734800031023272</v>
       </c>
       <c r="AL4">
-        <v>0.8714319477554349</v>
+        <v>1.742793591010804</v>
       </c>
       <c r="AM4">
-        <v>103.7124572202547</v>
+        <v>101.2125104000124</v>
       </c>
       <c r="AN4">
-        <v>-98.84444794552991</v>
+        <v>-150.4067673620864</v>
       </c>
       <c r="AO4">
-        <v>98.94668319646713</v>
+        <v>149.860644720227</v>
       </c>
       <c r="AP4">
-        <v>103.7211736878162</v>
+        <v>101.2212261824011</v>
       </c>
       <c r="AQ4">
-        <v>-98.84095183153306</v>
+        <v>-150.3578153013648</v>
       </c>
       <c r="AR4">
-        <v>98.94592266334048</v>
+        <v>149.8992248484464</v>
       </c>
     </row>
   </sheetData>
@@ -7645,130 +7645,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.001342979246875955</v>
+        <v>0.01493211671141605</v>
       </c>
       <c r="C2">
-        <v>0.0013429792999583</v>
+        <v>0.01493211671111525</v>
       </c>
       <c r="D2">
-        <v>0.00134297929995857</v>
+        <v>0.0149321167111154</v>
       </c>
       <c r="E2">
-        <v>0.0008956006309896579</v>
+        <v>0.009957870411108639</v>
       </c>
       <c r="F2">
-        <v>0.0008956006820959073</v>
+        <v>0.009957870410817521</v>
       </c>
       <c r="G2">
-        <v>0.0008956006820959594</v>
+        <v>0.00995787041081767</v>
       </c>
       <c r="H2">
-        <v>0.01550738859399827</v>
+        <v>0.1724212320581394</v>
       </c>
       <c r="I2">
-        <v>0.0155073892069404</v>
+        <v>0.172421232054666</v>
       </c>
       <c r="J2">
-        <v>0.01550738920694352</v>
+        <v>0.1724212320546678</v>
       </c>
       <c r="K2">
-        <v>0.01034150530776555</v>
+        <v>0.1149835832481797</v>
       </c>
       <c r="L2">
-        <v>0.01034150589788969</v>
+        <v>0.1149835832448181</v>
       </c>
       <c r="M2">
-        <v>0.01034150589789029</v>
+        <v>0.1149835832448198</v>
       </c>
       <c r="N2">
-        <v>1.255830755661454E-13</v>
+        <v>-3.529394141453323E-14</v>
       </c>
       <c r="O2">
-        <v>0.01343523391121242</v>
+        <v>0.1510980311545647</v>
       </c>
       <c r="P2">
-        <v>-0.01340642823543448</v>
+        <v>-0.1475367798586377</v>
       </c>
       <c r="Q2">
-        <v>7.112579015469622E-06</v>
+        <v>0.0008792883363682323</v>
       </c>
       <c r="R2">
-        <v>-0.008955140556988123</v>
+        <v>-0.1001466092036701</v>
       </c>
       <c r="S2">
-        <v>0.008945894482416745</v>
+        <v>0.09900340132290164</v>
       </c>
       <c r="T2">
-        <v>1.079477029992196E-13</v>
+        <v>-2.8926864390641E-14</v>
       </c>
       <c r="U2">
-        <v>-0.002591287907202821</v>
+        <v>-0.2586432842305916</v>
       </c>
       <c r="V2">
-        <v>-0.001610200111951558</v>
+        <v>-0.2607630580190798</v>
       </c>
       <c r="W2">
-        <v>1.474901514065667E-06</v>
+        <v>0.0001823330481087025</v>
       </c>
       <c r="X2">
-        <v>0.001715913684982857</v>
+        <v>0.1725118643871437</v>
       </c>
       <c r="Y2">
-        <v>0.001088875224694854</v>
+        <v>0.1742284175508187</v>
       </c>
       <c r="Z2">
-        <v>-87.90677307328953</v>
+        <v>-90.40669084963575</v>
       </c>
       <c r="AA2">
-        <v>-87.90671765679072</v>
+        <v>-90.40669087253499</v>
       </c>
       <c r="AB2">
-        <v>-87.90671765683493</v>
+        <v>-90.40669087251138</v>
       </c>
       <c r="AC2">
-        <v>92.00605645844061</v>
+        <v>89.50615714773717</v>
       </c>
       <c r="AD2">
-        <v>92.00613956209259</v>
+        <v>89.50615711339887</v>
       </c>
       <c r="AE2">
-        <v>92.00613956200056</v>
+        <v>89.50615711343664</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.8823436448222212</v>
+        <v>1.737283685614697</v>
       </c>
       <c r="AI2">
-        <v>0.8707319861325011</v>
+        <v>1.737646783248131</v>
       </c>
       <c r="AJ2">
-        <v>0.0007024017239186023</v>
+        <v>0.007809758814742887</v>
       </c>
       <c r="AK2">
-        <v>0.8816949610009963</v>
+        <v>1.734800031023272</v>
       </c>
       <c r="AL2">
-        <v>0.8714319477554349</v>
+        <v>1.742793591010804</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>-98.82345153514746</v>
+        <v>-150.1134455661317</v>
       </c>
       <c r="AO2">
-        <v>98.9420750154186</v>
+        <v>150.0926200384843</v>
       </c>
       <c r="AP2">
-        <v>103.7211736878162</v>
+        <v>101.2212261824011</v>
       </c>
       <c r="AQ2">
-        <v>-98.84095183153306</v>
+        <v>-150.3578153013648</v>
       </c>
       <c r="AR2">
-        <v>98.94592266334048</v>
+        <v>149.8992248484464</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7785,13 +7785,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0004478003211620647</v>
+        <v>0.004978935205401437</v>
       </c>
       <c r="F3">
-        <v>0.0004478003381986253</v>
+        <v>0.004978935205303671</v>
       </c>
       <c r="G3">
-        <v>0.0004478003381981057</v>
+        <v>0.004978935205303481</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -7803,49 +7803,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.005170752719322378</v>
+        <v>0.05749179162232448</v>
       </c>
       <c r="L3">
-        <v>0.005170752916043637</v>
+        <v>0.05749179162119558</v>
       </c>
       <c r="M3">
-        <v>0.005170752916037635</v>
+        <v>0.05749179162119339</v>
       </c>
       <c r="N3">
-        <v>-7.35251729984872E-13</v>
+        <v>-7.004051140313133E-12</v>
       </c>
       <c r="O3">
-        <v>1.64975561967297E-10</v>
+        <v>-5.544223503271831E-09</v>
       </c>
       <c r="P3">
-        <v>1.970988622994007E-10</v>
+        <v>-5.604920462546946E-09</v>
       </c>
       <c r="Q3">
-        <v>-3.556289814080076E-06</v>
+        <v>-0.0004396441710822263</v>
       </c>
       <c r="R3">
-        <v>0.004477570360755689</v>
+        <v>0.05007330182868233</v>
       </c>
       <c r="S3">
-        <v>-0.004472947142461894</v>
+        <v>-0.04950170345999629</v>
       </c>
       <c r="T3">
-        <v>3.002576401455624E-12</v>
+        <v>3.370811877740745E-11</v>
       </c>
       <c r="U3">
-        <v>1.166588508894244E-09</v>
+        <v>-3.218543131248125E-09</v>
       </c>
       <c r="V3">
-        <v>-1.148037581467312E-09</v>
+        <v>3.183550135166628E-09</v>
       </c>
       <c r="W3">
-        <v>-7.374495060865196E-07</v>
+        <v>-9.11665100105168E-05</v>
       </c>
       <c r="X3">
-        <v>-0.0008579562590303487</v>
+        <v>-0.08625593380100864</v>
       </c>
       <c r="Y3">
-        <v>-0.0005444381862823792</v>
+        <v>-0.08711420718272778</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7857,49 +7857,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-87.99392323705206</v>
+        <v>-90.49384102238469</v>
       </c>
       <c r="AD3">
-        <v>-87.99386783411504</v>
+        <v>-90.49384104522031</v>
       </c>
       <c r="AE3">
-        <v>-87.99386783413897</v>
+        <v>-90.49384104523922</v>
       </c>
       <c r="AG3">
-        <v>0.0008429085285722007</v>
+        <v>0.009372004717813222</v>
       </c>
       <c r="AH3">
-        <v>0.8815651604951757</v>
+        <v>1.734305647801699</v>
       </c>
       <c r="AI3">
-        <v>0.8715719775746861</v>
+        <v>1.743824451083987</v>
       </c>
       <c r="AJ3">
-        <v>0.0007024017239186023</v>
+        <v>0.007809758814742887</v>
       </c>
       <c r="AK3">
-        <v>0.8816949610009963</v>
+        <v>1.734800031023272</v>
       </c>
       <c r="AL3">
-        <v>0.8714319477554349</v>
+        <v>1.742793591010804</v>
       </c>
       <c r="AM3">
-        <v>103.7124572202372</v>
+        <v>101.2125104000104</v>
       </c>
       <c r="AN3">
-        <v>-98.84444794552991</v>
+        <v>-150.4067673620864</v>
       </c>
       <c r="AO3">
-        <v>98.94668319646713</v>
+        <v>149.860644720227</v>
       </c>
       <c r="AP3">
-        <v>103.7211736878162</v>
+        <v>101.2212261824011</v>
       </c>
       <c r="AQ3">
-        <v>-98.84095183153306</v>
+        <v>-150.3578153013648</v>
       </c>
       <c r="AR3">
-        <v>98.94592266334048</v>
+        <v>149.8992248484464</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7916,13 +7916,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0004478003211620647</v>
+        <v>0.004978935205401019</v>
       </c>
       <c r="F4">
-        <v>0.0004478003381986541</v>
+        <v>0.004978935205304486</v>
       </c>
       <c r="G4">
-        <v>0.0004478003381980483</v>
+        <v>0.004978935205302661</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7934,49 +7934,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.005170752719322378</v>
+        <v>0.05749179162231967</v>
       </c>
       <c r="L4">
-        <v>0.005170752916043968</v>
+        <v>0.05749179162120499</v>
       </c>
       <c r="M4">
-        <v>0.005170752916036974</v>
+        <v>0.05749179162118392</v>
       </c>
       <c r="N4">
-        <v>-7.352557020307768E-13</v>
+        <v>-7.004120970048166E-12</v>
       </c>
       <c r="O4">
-        <v>1.649781302055957E-10</v>
+        <v>-5.54420110185657E-09</v>
       </c>
       <c r="P4">
-        <v>1.970975781802516E-10</v>
+        <v>-5.604937052919379E-09</v>
       </c>
       <c r="Q4">
-        <v>-3.556289814080076E-06</v>
+        <v>-0.0004396441710822044</v>
       </c>
       <c r="R4">
-        <v>0.004477570360754405</v>
+        <v>0.05007330182867618</v>
       </c>
       <c r="S4">
-        <v>-0.004472947142459325</v>
+        <v>-0.04950170345998801</v>
       </c>
       <c r="T4">
-        <v>3.002558992417373E-12</v>
+        <v>3.370801441770828E-11</v>
       </c>
       <c r="U4">
-        <v>1.166605014002867E-09</v>
+        <v>-3.21854930447264E-09</v>
       </c>
       <c r="V4">
-        <v>-1.148029424740032E-09</v>
+        <v>3.18352156052685E-09</v>
       </c>
       <c r="W4">
-        <v>-7.374495060865196E-07</v>
+        <v>-9.116651001043701E-05</v>
       </c>
       <c r="X4">
-        <v>-0.0008579562590386025</v>
+        <v>-0.08625593380103107</v>
       </c>
       <c r="Y4">
-        <v>-0.00054443818629869</v>
+        <v>-0.0871142071827135</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7988,49 +7988,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-87.99392323705206</v>
+        <v>-90.49384102237529</v>
       </c>
       <c r="AD4">
-        <v>-87.99386783401013</v>
+        <v>-90.49384104521079</v>
       </c>
       <c r="AE4">
-        <v>-87.99386783434879</v>
+        <v>-90.49384104523929</v>
       </c>
       <c r="AG4">
-        <v>0.0008429085285720832</v>
+        <v>0.009372004717812729</v>
       </c>
       <c r="AH4">
-        <v>0.8815651604951759</v>
+        <v>1.734305647801699</v>
       </c>
       <c r="AI4">
-        <v>0.8715719775746861</v>
+        <v>1.743824451083986</v>
       </c>
       <c r="AJ4">
-        <v>0.0007024017239186023</v>
+        <v>0.007809758814742887</v>
       </c>
       <c r="AK4">
-        <v>0.8816949610009963</v>
+        <v>1.734800031023272</v>
       </c>
       <c r="AL4">
-        <v>0.8714319477554349</v>
+        <v>1.742793591010804</v>
       </c>
       <c r="AM4">
-        <v>103.7124572202547</v>
+        <v>101.2125104000124</v>
       </c>
       <c r="AN4">
-        <v>-98.84444794552991</v>
+        <v>-150.4067673620864</v>
       </c>
       <c r="AO4">
-        <v>98.94668319646713</v>
+        <v>149.860644720227</v>
       </c>
       <c r="AP4">
-        <v>103.7211736878162</v>
+        <v>101.2212261824011</v>
       </c>
       <c r="AQ4">
-        <v>-98.84095183153306</v>
+        <v>-150.3578153013648</v>
       </c>
       <c r="AR4">
-        <v>98.94592266334048</v>
+        <v>149.8992248484464</v>
       </c>
     </row>
   </sheetData>
@@ -8185,130 +8185,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0002813078416322945</v>
+        <v>0.01512440453971722</v>
       </c>
       <c r="C2">
-        <v>0.000281307852750434</v>
+        <v>0.01512440453941546</v>
       </c>
       <c r="D2">
-        <v>0.0002813078527497845</v>
+        <v>0.01512440453941495</v>
       </c>
       <c r="E2">
-        <v>0.0001875974487726544</v>
+        <v>0.01008610255078829</v>
       </c>
       <c r="F2">
-        <v>0.0001875974594770208</v>
+        <v>0.0100861025504963</v>
       </c>
       <c r="G2">
-        <v>0.0001875974594764173</v>
+        <v>0.01008610255049562</v>
       </c>
       <c r="H2">
-        <v>0.003248263161831156</v>
+        <v>0.1746415806467707</v>
       </c>
       <c r="I2">
-        <v>0.003248263290212374</v>
+        <v>0.1746415806432863</v>
       </c>
       <c r="J2">
-        <v>0.003248263290204874</v>
+        <v>0.1746415806432804</v>
       </c>
       <c r="K2">
-        <v>0.002166188750963581</v>
+        <v>0.1164642804554358</v>
       </c>
       <c r="L2">
-        <v>0.002166188874566957</v>
+        <v>0.1164642804520642</v>
       </c>
       <c r="M2">
-        <v>0.002166188874559989</v>
+        <v>0.1164642804520563</v>
       </c>
       <c r="N2">
-        <v>0.00190589215690875</v>
+        <v>-0.002296278111085796</v>
       </c>
       <c r="O2">
-        <v>0.001309890358719606</v>
+        <v>0.154187682303645</v>
       </c>
       <c r="P2">
-        <v>-0.003214520587650149</v>
+        <v>-0.1482378425520082</v>
       </c>
       <c r="Q2">
-        <v>-0.001268719778186202</v>
+        <v>0.002431097775194207</v>
       </c>
       <c r="R2">
-        <v>-0.0008759907033403367</v>
+        <v>-0.1021878559236044</v>
       </c>
       <c r="S2">
-        <v>0.002144618816870935</v>
+        <v>0.09948599760940098</v>
       </c>
       <c r="T2">
-        <v>0.001932226538707958</v>
+        <v>-0.002280607395397167</v>
       </c>
       <c r="U2">
-        <v>-0.002730359931035643</v>
+        <v>-0.2622185762503807</v>
       </c>
       <c r="V2">
-        <v>0.0006137915003319714</v>
+        <v>-0.2683705665447284</v>
       </c>
       <c r="W2">
-        <v>-0.001290423009373958</v>
+        <v>0.001710269153143472</v>
       </c>
       <c r="X2">
-        <v>0.001819545570115855</v>
+        <v>0.1748977302431156</v>
       </c>
       <c r="Y2">
-        <v>-0.0004059972506930776</v>
+        <v>0.1793071139661081</v>
       </c>
       <c r="Z2">
-        <v>-53.53064411965607</v>
+        <v>-91.16535952176615</v>
       </c>
       <c r="AA2">
-        <v>-53.53058870307708</v>
+        <v>-91.16535954465623</v>
       </c>
       <c r="AB2">
-        <v>-53.53058870312866</v>
+        <v>-91.16535954463761</v>
       </c>
       <c r="AC2">
-        <v>126.3821854118916</v>
+        <v>88.74748847560487</v>
       </c>
       <c r="AD2">
-        <v>126.3822685157858</v>
+        <v>88.74748844128501</v>
       </c>
       <c r="AE2">
-        <v>126.3822685157271</v>
+        <v>88.74748844130357</v>
       </c>
       <c r="AG2">
-        <v>0.8355307139057</v>
+        <v>0.01853147306673235</v>
       </c>
       <c r="AH2">
-        <v>0.9322867262573368</v>
+        <v>1.741804122365766</v>
       </c>
       <c r="AI2">
-        <v>1.007490898186095</v>
+        <v>1.755536440881276</v>
       </c>
       <c r="AJ2">
-        <v>0.835408406308063</v>
+        <v>0.02552212578655173</v>
       </c>
       <c r="AK2">
-        <v>0.9322511398291139</v>
+        <v>1.739267334292675</v>
       </c>
       <c r="AL2">
-        <v>1.007626889979619</v>
+        <v>1.760688513819796</v>
       </c>
       <c r="AM2">
-        <v>-8.137528279291757</v>
+        <v>133.6384672593164</v>
       </c>
       <c r="AN2">
-        <v>-117.9012226105219</v>
+        <v>-150.7093183802835</v>
       </c>
       <c r="AO2">
-        <v>115.6592835567051</v>
+        <v>149.9200252930428</v>
       </c>
       <c r="AP2">
-        <v>-8.131919957850524</v>
+        <v>123.8737466915856</v>
       </c>
       <c r="AQ2">
-        <v>-117.9099964392208</v>
+        <v>-150.955961289639</v>
       </c>
       <c r="AR2">
-        <v>115.6624767475463</v>
+        <v>149.7244088134434</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8325,13 +8325,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.379872557340955E-05</v>
+        <v>0.005043051275240502</v>
       </c>
       <c r="F3">
-        <v>9.379872914137748E-05</v>
+        <v>0.005043051275141847</v>
       </c>
       <c r="G3">
-        <v>9.37987291413351E-05</v>
+        <v>0.005043051275140412</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8343,49 +8343,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001083094389189037</v>
+        <v>0.05823214022594379</v>
       </c>
       <c r="L3">
-        <v>0.001083094430388382</v>
+        <v>0.05823214022480462</v>
       </c>
       <c r="M3">
-        <v>0.001083094430387892</v>
+        <v>0.05823214022478804</v>
       </c>
       <c r="N3">
-        <v>4.734399832860639E-10</v>
+        <v>-5.587661566967713E-11</v>
       </c>
       <c r="O3">
-        <v>2.293335146135381E-10</v>
+        <v>-5.620882749734747E-09</v>
       </c>
       <c r="P3">
-        <v>-3.885971901718525E-11</v>
+        <v>-5.768215695669055E-09</v>
       </c>
       <c r="Q3">
-        <v>0.0006343601257762648</v>
+        <v>-0.001215548914870693</v>
       </c>
       <c r="R3">
-        <v>0.0004379954663251824</v>
+        <v>0.05109392515031552</v>
       </c>
       <c r="S3">
-        <v>-0.001072309427816699</v>
+        <v>-0.049743001684875</v>
       </c>
       <c r="T3">
-        <v>-4.332214179023342E-10</v>
+        <v>8.3404157783765E-11</v>
       </c>
       <c r="U3">
-        <v>1.245556092425921E-10</v>
+        <v>-3.284093834665524E-09</v>
       </c>
       <c r="V3">
-        <v>-2.793966678755934E-10</v>
+        <v>3.199066858502681E-09</v>
       </c>
       <c r="W3">
-        <v>0.000645211288043201</v>
+        <v>-0.0008551345377244295</v>
       </c>
       <c r="X3">
-        <v>-0.0009097727227250144</v>
+        <v>-0.08744886676175824</v>
       </c>
       <c r="Y3">
-        <v>0.0002029984856323647</v>
+        <v>-0.08965355538253321</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8397,49 +8397,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-53.61779428318575</v>
+        <v>-91.25250969451984</v>
       </c>
       <c r="AD3">
-        <v>-53.61773888056792</v>
+        <v>-91.25250971735035</v>
       </c>
       <c r="AE3">
-        <v>-53.61773888047104</v>
+        <v>-91.2525097173507</v>
       </c>
       <c r="AG3">
-        <v>0.8353839560754898</v>
+        <v>0.02698100790001805</v>
       </c>
       <c r="AH3">
-        <v>0.9322439977674586</v>
+        <v>1.738762387222821</v>
       </c>
       <c r="AI3">
-        <v>1.007654104082816</v>
+        <v>1.761720483580513</v>
       </c>
       <c r="AJ3">
-        <v>0.835408406308063</v>
+        <v>0.02552212578655173</v>
       </c>
       <c r="AK3">
-        <v>0.9322511398291139</v>
+        <v>1.739267334292675</v>
       </c>
       <c r="AL3">
-        <v>1.007626889979619</v>
+        <v>1.760688513819796</v>
       </c>
       <c r="AM3">
-        <v>-8.130796353888503</v>
+        <v>122.5356952499986</v>
       </c>
       <c r="AN3">
-        <v>-117.9117512165843</v>
+        <v>-151.0053701584052</v>
       </c>
       <c r="AO3">
-        <v>115.6631139909455</v>
+        <v>149.685384934624</v>
       </c>
       <c r="AP3">
-        <v>-8.131919957850524</v>
+        <v>123.8737466915856</v>
       </c>
       <c r="AQ3">
-        <v>-117.9099964392208</v>
+        <v>-150.955961289639</v>
       </c>
       <c r="AR3">
-        <v>115.6624767475463</v>
+        <v>149.7244088134434</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8456,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.379872557350839E-05</v>
+        <v>0.00504305127524002</v>
       </c>
       <c r="F4">
-        <v>9.379872914144756E-05</v>
+        <v>0.005043051275141847</v>
       </c>
       <c r="G4">
-        <v>9.379872914136717E-05</v>
+        <v>0.005043051275140412</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -8474,49 +8474,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001083094389190178</v>
+        <v>0.05823214022593822</v>
       </c>
       <c r="L4">
-        <v>0.001083094430389191</v>
+        <v>0.05823214022480462</v>
       </c>
       <c r="M4">
-        <v>0.001083094430388263</v>
+        <v>0.05823214022478804</v>
       </c>
       <c r="N4">
-        <v>4.734363107494632E-10</v>
+        <v>-5.5876065764214E-11</v>
       </c>
       <c r="O4">
-        <v>2.293354308342954E-10</v>
+        <v>-5.620878757307886E-09</v>
       </c>
       <c r="P4">
-        <v>-3.885927366878547E-11</v>
+        <v>-5.768232544524796E-09</v>
       </c>
       <c r="Q4">
-        <v>0.0006343601257799374</v>
+        <v>-0.001215548914871131</v>
       </c>
       <c r="R4">
-        <v>0.0004379954663235391</v>
+        <v>0.05109392515031552</v>
       </c>
       <c r="S4">
-        <v>-0.001072309427817392</v>
+        <v>-0.049743001684875</v>
       </c>
       <c r="T4">
-        <v>-4.332191443657642E-10</v>
+        <v>8.340329579063195E-11</v>
       </c>
       <c r="U4">
-        <v>1.245583421551627E-10</v>
+        <v>-3.284101038786569E-09</v>
       </c>
       <c r="V4">
-        <v>-2.793938061036715E-10</v>
+        <v>3.199038042018507E-09</v>
       </c>
       <c r="W4">
-        <v>0.0006452112880409273</v>
+        <v>-0.0008551345377235592</v>
       </c>
       <c r="X4">
-        <v>-0.0009097727227266426</v>
+        <v>-0.08744886676175824</v>
       </c>
       <c r="Y4">
-        <v>0.0002029984856307078</v>
+        <v>-0.08965355538253321</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8528,49 +8528,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-53.61779428291897</v>
+        <v>-91.25250969448267</v>
       </c>
       <c r="AD4">
-        <v>-53.61773888044383</v>
+        <v>-91.25250971735035</v>
       </c>
       <c r="AE4">
-        <v>-53.61773888056328</v>
+        <v>-91.2525097173507</v>
       </c>
       <c r="AG4">
-        <v>0.8353839560754898</v>
+        <v>0.02698100790001782</v>
       </c>
       <c r="AH4">
-        <v>0.9322439977674586</v>
+        <v>1.738762387222821</v>
       </c>
       <c r="AI4">
-        <v>1.007654104082816</v>
+        <v>1.761720483580513</v>
       </c>
       <c r="AJ4">
-        <v>0.835408406308063</v>
+        <v>0.02552212578655173</v>
       </c>
       <c r="AK4">
-        <v>0.9322511398291139</v>
+        <v>1.739267334292675</v>
       </c>
       <c r="AL4">
-        <v>1.007626889979619</v>
+        <v>1.760688513819796</v>
       </c>
       <c r="AM4">
-        <v>-8.130796353888506</v>
+        <v>122.53569525</v>
       </c>
       <c r="AN4">
-        <v>-117.9117512165843</v>
+        <v>-151.0053701584052</v>
       </c>
       <c r="AO4">
-        <v>115.6631139909455</v>
+        <v>149.6853849346241</v>
       </c>
       <c r="AP4">
-        <v>-8.131919957850524</v>
+        <v>123.8737466915856</v>
       </c>
       <c r="AQ4">
-        <v>-117.9099964392208</v>
+        <v>-150.955961289639</v>
       </c>
       <c r="AR4">
-        <v>115.6624767475463</v>
+        <v>149.7244088134434</v>
       </c>
     </row>
   </sheetData>
@@ -8725,130 +8725,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0002813078416322945</v>
+        <v>0.01512440453971722</v>
       </c>
       <c r="C2">
-        <v>0.000281307852750434</v>
+        <v>0.01512440453941546</v>
       </c>
       <c r="D2">
-        <v>0.0002813078527497845</v>
+        <v>0.01512440453941495</v>
       </c>
       <c r="E2">
-        <v>0.0001875974487726544</v>
+        <v>0.01008610255078829</v>
       </c>
       <c r="F2">
-        <v>0.0001875974594770208</v>
+        <v>0.0100861025504963</v>
       </c>
       <c r="G2">
-        <v>0.0001875974594764173</v>
+        <v>0.01008610255049562</v>
       </c>
       <c r="H2">
-        <v>0.003248263161831156</v>
+        <v>0.1746415806467707</v>
       </c>
       <c r="I2">
-        <v>0.003248263290212374</v>
+        <v>0.1746415806432863</v>
       </c>
       <c r="J2">
-        <v>0.003248263290204874</v>
+        <v>0.1746415806432804</v>
       </c>
       <c r="K2">
-        <v>0.002166188750963581</v>
+        <v>0.1164642804554358</v>
       </c>
       <c r="L2">
-        <v>0.002166188874566957</v>
+        <v>0.1164642804520642</v>
       </c>
       <c r="M2">
-        <v>0.002166188874559989</v>
+        <v>0.1164642804520563</v>
       </c>
       <c r="N2">
-        <v>0.00190589215690875</v>
+        <v>-0.002296278111085796</v>
       </c>
       <c r="O2">
-        <v>0.001309890358719606</v>
+        <v>0.154187682303645</v>
       </c>
       <c r="P2">
-        <v>-0.003214520587650149</v>
+        <v>-0.1482378425520082</v>
       </c>
       <c r="Q2">
-        <v>-0.001268719778186202</v>
+        <v>0.002431097775194207</v>
       </c>
       <c r="R2">
-        <v>-0.0008759907033403367</v>
+        <v>-0.1021878559236044</v>
       </c>
       <c r="S2">
-        <v>0.002144618816870935</v>
+        <v>0.09948599760940098</v>
       </c>
       <c r="T2">
-        <v>0.001932226538707958</v>
+        <v>-0.002280607395397167</v>
       </c>
       <c r="U2">
-        <v>-0.002730359931035643</v>
+        <v>-0.2622185762503807</v>
       </c>
       <c r="V2">
-        <v>0.0006137915003319714</v>
+        <v>-0.2683705665447284</v>
       </c>
       <c r="W2">
-        <v>-0.001290423009373958</v>
+        <v>0.001710269153143472</v>
       </c>
       <c r="X2">
-        <v>0.001819545570115855</v>
+        <v>0.1748977302431156</v>
       </c>
       <c r="Y2">
-        <v>-0.0004059972506930776</v>
+        <v>0.1793071139661081</v>
       </c>
       <c r="Z2">
-        <v>-53.53064411965607</v>
+        <v>-91.16535952176615</v>
       </c>
       <c r="AA2">
-        <v>-53.53058870307708</v>
+        <v>-91.16535954465623</v>
       </c>
       <c r="AB2">
-        <v>-53.53058870312866</v>
+        <v>-91.16535954463761</v>
       </c>
       <c r="AC2">
-        <v>126.3821854118916</v>
+        <v>88.74748847560487</v>
       </c>
       <c r="AD2">
-        <v>126.3822685157858</v>
+        <v>88.74748844128501</v>
       </c>
       <c r="AE2">
-        <v>126.3822685157271</v>
+        <v>88.74748844130357</v>
       </c>
       <c r="AG2">
-        <v>0.8355307139057</v>
+        <v>0.01853147306673235</v>
       </c>
       <c r="AH2">
-        <v>0.9322867262573368</v>
+        <v>1.741804122365766</v>
       </c>
       <c r="AI2">
-        <v>1.007490898186095</v>
+        <v>1.755536440881276</v>
       </c>
       <c r="AJ2">
-        <v>0.835408406308063</v>
+        <v>0.02552212578655173</v>
       </c>
       <c r="AK2">
-        <v>0.9322511398291139</v>
+        <v>1.739267334292675</v>
       </c>
       <c r="AL2">
-        <v>1.007626889979619</v>
+        <v>1.760688513819796</v>
       </c>
       <c r="AM2">
-        <v>-8.137528279291757</v>
+        <v>133.6384672593164</v>
       </c>
       <c r="AN2">
-        <v>-117.9012226105219</v>
+        <v>-150.7093183802835</v>
       </c>
       <c r="AO2">
-        <v>115.6592835567051</v>
+        <v>149.9200252930428</v>
       </c>
       <c r="AP2">
-        <v>-8.131919957850524</v>
+        <v>123.8737466915856</v>
       </c>
       <c r="AQ2">
-        <v>-117.9099964392208</v>
+        <v>-150.955961289639</v>
       </c>
       <c r="AR2">
-        <v>115.6624767475463</v>
+        <v>149.7244088134434</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8865,13 +8865,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.379872557340955E-05</v>
+        <v>0.005043051275240502</v>
       </c>
       <c r="F3">
-        <v>9.379872914137748E-05</v>
+        <v>0.005043051275141847</v>
       </c>
       <c r="G3">
-        <v>9.37987291413351E-05</v>
+        <v>0.005043051275140412</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -8883,49 +8883,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001083094389189037</v>
+        <v>0.05823214022594379</v>
       </c>
       <c r="L3">
-        <v>0.001083094430388382</v>
+        <v>0.05823214022480462</v>
       </c>
       <c r="M3">
-        <v>0.001083094430387892</v>
+        <v>0.05823214022478804</v>
       </c>
       <c r="N3">
-        <v>4.734399832860639E-10</v>
+        <v>-5.587661566967713E-11</v>
       </c>
       <c r="O3">
-        <v>2.293335146135381E-10</v>
+        <v>-5.620882749734747E-09</v>
       </c>
       <c r="P3">
-        <v>-3.885971901718525E-11</v>
+        <v>-5.768215695669055E-09</v>
       </c>
       <c r="Q3">
-        <v>0.0006343601257762648</v>
+        <v>-0.001215548914870693</v>
       </c>
       <c r="R3">
-        <v>0.0004379954663251824</v>
+        <v>0.05109392515031552</v>
       </c>
       <c r="S3">
-        <v>-0.001072309427816699</v>
+        <v>-0.049743001684875</v>
       </c>
       <c r="T3">
-        <v>-4.332214179023342E-10</v>
+        <v>8.3404157783765E-11</v>
       </c>
       <c r="U3">
-        <v>1.245556092425921E-10</v>
+        <v>-3.284093834665524E-09</v>
       </c>
       <c r="V3">
-        <v>-2.793966678755934E-10</v>
+        <v>3.199066858502681E-09</v>
       </c>
       <c r="W3">
-        <v>0.000645211288043201</v>
+        <v>-0.0008551345377244295</v>
       </c>
       <c r="X3">
-        <v>-0.0009097727227250144</v>
+        <v>-0.08744886676175824</v>
       </c>
       <c r="Y3">
-        <v>0.0002029984856323647</v>
+        <v>-0.08965355538253321</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8937,49 +8937,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>-53.61779428318575</v>
+        <v>-91.25250969451984</v>
       </c>
       <c r="AD3">
-        <v>-53.61773888056792</v>
+        <v>-91.25250971735035</v>
       </c>
       <c r="AE3">
-        <v>-53.61773888047104</v>
+        <v>-91.2525097173507</v>
       </c>
       <c r="AG3">
-        <v>0.8353839560754898</v>
+        <v>0.02698100790001805</v>
       </c>
       <c r="AH3">
-        <v>0.9322439977674586</v>
+        <v>1.738762387222821</v>
       </c>
       <c r="AI3">
-        <v>1.007654104082816</v>
+        <v>1.761720483580513</v>
       </c>
       <c r="AJ3">
-        <v>0.835408406308063</v>
+        <v>0.02552212578655173</v>
       </c>
       <c r="AK3">
-        <v>0.9322511398291139</v>
+        <v>1.739267334292675</v>
       </c>
       <c r="AL3">
-        <v>1.007626889979619</v>
+        <v>1.760688513819796</v>
       </c>
       <c r="AM3">
-        <v>-8.130796353888503</v>
+        <v>122.5356952499986</v>
       </c>
       <c r="AN3">
-        <v>-117.9117512165843</v>
+        <v>-151.0053701584052</v>
       </c>
       <c r="AO3">
-        <v>115.6631139909455</v>
+        <v>149.685384934624</v>
       </c>
       <c r="AP3">
-        <v>-8.131919957850524</v>
+        <v>123.8737466915856</v>
       </c>
       <c r="AQ3">
-        <v>-117.9099964392208</v>
+        <v>-150.955961289639</v>
       </c>
       <c r="AR3">
-        <v>115.6624767475463</v>
+        <v>149.7244088134434</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8996,13 +8996,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.379872557350839E-05</v>
+        <v>0.00504305127524002</v>
       </c>
       <c r="F4">
-        <v>9.379872914144756E-05</v>
+        <v>0.005043051275141847</v>
       </c>
       <c r="G4">
-        <v>9.379872914136717E-05</v>
+        <v>0.005043051275140412</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9014,49 +9014,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001083094389190178</v>
+        <v>0.05823214022593822</v>
       </c>
       <c r="L4">
-        <v>0.001083094430389191</v>
+        <v>0.05823214022480462</v>
       </c>
       <c r="M4">
-        <v>0.001083094430388263</v>
+        <v>0.05823214022478804</v>
       </c>
       <c r="N4">
-        <v>4.734363107494632E-10</v>
+        <v>-5.5876065764214E-11</v>
       </c>
       <c r="O4">
-        <v>2.293354308342954E-10</v>
+        <v>-5.620878757307886E-09</v>
       </c>
       <c r="P4">
-        <v>-3.885927366878547E-11</v>
+        <v>-5.768232544524796E-09</v>
       </c>
       <c r="Q4">
-        <v>0.0006343601257799374</v>
+        <v>-0.001215548914871131</v>
       </c>
       <c r="R4">
-        <v>0.0004379954663235391</v>
+        <v>0.05109392515031552</v>
       </c>
       <c r="S4">
-        <v>-0.001072309427817392</v>
+        <v>-0.049743001684875</v>
       </c>
       <c r="T4">
-        <v>-4.332191443657642E-10</v>
+        <v>8.340329579063195E-11</v>
       </c>
       <c r="U4">
-        <v>1.245583421551627E-10</v>
+        <v>-3.284101038786569E-09</v>
       </c>
       <c r="V4">
-        <v>-2.793938061036715E-10</v>
+        <v>3.199038042018507E-09</v>
       </c>
       <c r="W4">
-        <v>0.0006452112880409273</v>
+        <v>-0.0008551345377235592</v>
       </c>
       <c r="X4">
-        <v>-0.0009097727227266426</v>
+        <v>-0.08744886676175824</v>
       </c>
       <c r="Y4">
-        <v>0.0002029984856307078</v>
+        <v>-0.08965355538253321</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9068,49 +9068,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>-53.61779428291897</v>
+        <v>-91.25250969448267</v>
       </c>
       <c r="AD4">
-        <v>-53.61773888044383</v>
+        <v>-91.25250971735035</v>
       </c>
       <c r="AE4">
-        <v>-53.61773888056328</v>
+        <v>-91.2525097173507</v>
       </c>
       <c r="AG4">
-        <v>0.8353839560754898</v>
+        <v>0.02698100790001782</v>
       </c>
       <c r="AH4">
-        <v>0.9322439977674586</v>
+        <v>1.738762387222821</v>
       </c>
       <c r="AI4">
-        <v>1.007654104082816</v>
+        <v>1.761720483580513</v>
       </c>
       <c r="AJ4">
-        <v>0.835408406308063</v>
+        <v>0.02552212578655173</v>
       </c>
       <c r="AK4">
-        <v>0.9322511398291139</v>
+        <v>1.739267334292675</v>
       </c>
       <c r="AL4">
-        <v>1.007626889979619</v>
+        <v>1.760688513819796</v>
       </c>
       <c r="AM4">
-        <v>-8.130796353888506</v>
+        <v>122.53569525</v>
       </c>
       <c r="AN4">
-        <v>-117.9117512165843</v>
+        <v>-151.0053701584052</v>
       </c>
       <c r="AO4">
-        <v>115.6631139909455</v>
+        <v>149.6853849346241</v>
       </c>
       <c r="AP4">
-        <v>-8.131919957850524</v>
+        <v>123.8737466915856</v>
       </c>
       <c r="AQ4">
-        <v>-117.9099964392208</v>
+        <v>-150.955961289639</v>
       </c>
       <c r="AR4">
-        <v>115.6624767475463</v>
+        <v>149.7244088134434</v>
       </c>
     </row>
   </sheetData>
@@ -9265,97 +9265,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002358986511044137</v>
+        <v>0.008186906337530235</v>
       </c>
       <c r="C2">
-        <v>0.002358987369985243</v>
+        <v>0.008186907245102038</v>
       </c>
       <c r="D2">
-        <v>0.002358985555780785</v>
+        <v>0.008186905430114511</v>
       </c>
       <c r="E2">
-        <v>0.001573152848074545</v>
+        <v>0.005459656033944445</v>
       </c>
       <c r="F2">
-        <v>0.001573153707919618</v>
+        <v>0.005459656941512922</v>
       </c>
       <c r="G2">
-        <v>0.001573151893673314</v>
+        <v>0.005459655126533645</v>
       </c>
       <c r="H2">
-        <v>0.02723922994332057</v>
+        <v>0.09453425155606669</v>
       </c>
       <c r="I2">
-        <v>0.02723923986151815</v>
+        <v>0.09453426203580319</v>
       </c>
       <c r="J2">
-        <v>0.02723921891288951</v>
+        <v>0.09453424107813244</v>
       </c>
       <c r="K2">
-        <v>0.0181652044062453</v>
+        <v>0.0630426776176118</v>
       </c>
       <c r="L2">
-        <v>0.01816521433488099</v>
+        <v>0.0630426880973099</v>
       </c>
       <c r="M2">
-        <v>0.01816519338576915</v>
+        <v>0.0630426671397344</v>
       </c>
       <c r="N2">
-        <v>4.628875964084923E-05</v>
+        <v>0.0005575742494521058</v>
       </c>
       <c r="O2">
-        <v>-3.532108904561274E-13</v>
+        <v>-1.17657690201653E-14</v>
       </c>
       <c r="P2">
-        <v>-9.450808499793913E-14</v>
+        <v>-2.915076476502852E-14</v>
       </c>
       <c r="Q2">
-        <v>-2.628659184606373E-05</v>
+        <v>-0.0003166581815687111</v>
       </c>
       <c r="R2">
-        <v>1.14298145071752E-05</v>
+        <v>0.0001376663348838024</v>
       </c>
       <c r="S2">
-        <v>1.142979977214122E-05</v>
+        <v>0.0001376662839229662</v>
       </c>
       <c r="T2">
-        <v>-0.01296320201978612</v>
+        <v>-0.1561352716599332</v>
       </c>
       <c r="U2">
-        <v>-3.14761347029514E-13</v>
+        <v>-7.233549244947703E-14</v>
       </c>
       <c r="V2">
-        <v>4.627101639050145E-13</v>
+        <v>1.002253109640307E-14</v>
       </c>
       <c r="W2">
-        <v>0.008649376839086641</v>
+        <v>0.104177408575191</v>
       </c>
       <c r="X2">
-        <v>4.548231769257851E-06</v>
+        <v>5.478111054098258E-05</v>
       </c>
       <c r="Y2">
-        <v>4.54822398419073E-06</v>
+        <v>5.478108660798611E-05</v>
       </c>
       <c r="Z2">
-        <v>91.69688849781514</v>
+        <v>89.79243417060981</v>
       </c>
       <c r="AA2">
-        <v>91.69686069596194</v>
+        <v>89.79243420455275</v>
       </c>
       <c r="AB2">
-        <v>91.6968620012637</v>
+        <v>89.79243415849626</v>
       </c>
       <c r="AC2">
-        <v>-88.34849503842372</v>
+        <v>-90.25295841138798</v>
       </c>
       <c r="AD2">
-        <v>-88.34853670342362</v>
+        <v>-90.25295835290081</v>
       </c>
       <c r="AE2">
-        <v>-88.348534798232</v>
+        <v>-90.252958437071</v>
       </c>
       <c r="AG2">
-        <v>0.4759049609704779</v>
+        <v>1.651636995720118</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -9364,16 +9364,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.4761530115357616</v>
+        <v>1.652497859686191</v>
       </c>
       <c r="AK2">
-        <v>0.0006772013073188413</v>
+        <v>0.002350239468275451</v>
       </c>
       <c r="AL2">
-        <v>0.0006772011761611731</v>
+        <v>0.002350239358141528</v>
       </c>
       <c r="AM2">
-        <v>1.90147832757618</v>
+        <v>-0.00295789475538415</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -9382,13 +9382,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.82563382214081</v>
+        <v>-0.0788024045905279</v>
       </c>
       <c r="AQ2">
-        <v>-66.64959198366805</v>
+        <v>-68.55402827869968</v>
       </c>
       <c r="AR2">
-        <v>-66.64959839436384</v>
+        <v>-68.55402967586564</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9405,13 +9405,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0007865764187736524</v>
+        <v>0.002729828016947991</v>
       </c>
       <c r="F3">
-        <v>0.000786576705391023</v>
+        <v>0.002729828319464253</v>
       </c>
       <c r="G3">
-        <v>0.0007865761006359906</v>
+        <v>0.002729827714475537</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9423,49 +9423,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.009082602142343601</v>
+        <v>0.0315213388085261</v>
       </c>
       <c r="L3">
-        <v>0.009082605451915922</v>
+        <v>0.03152134230168301</v>
       </c>
       <c r="M3">
-        <v>0.009082598468806307</v>
+        <v>0.03152133531587504</v>
       </c>
       <c r="N3">
-        <v>1.088234070211602E-09</v>
+        <v>-3.349089865015868E-09</v>
       </c>
       <c r="O3">
-        <v>1.954351030525007E-12</v>
+        <v>7.061296345877302E-12</v>
       </c>
       <c r="P3">
-        <v>-3.258139812888659E-12</v>
+        <v>-1.127792873364105E-11</v>
       </c>
       <c r="Q3">
-        <v>1.314384002586005E-05</v>
+        <v>0.0001583274169339543</v>
       </c>
       <c r="R3">
-        <v>-5.714906439249441E-06</v>
+        <v>-6.883316449790318E-05</v>
       </c>
       <c r="S3">
-        <v>-5.714901243369498E-06</v>
+        <v>-6.883314665851852E-05</v>
       </c>
       <c r="T3">
-        <v>6.068173921515727E-11</v>
+        <v>-1.0931808885259E-11</v>
       </c>
       <c r="U3">
-        <v>2.629616610581905E-12</v>
+        <v>8.895206127687153E-12</v>
       </c>
       <c r="V3">
-        <v>3.798022636639825E-13</v>
+        <v>1.692983251420391E-12</v>
       </c>
       <c r="W3">
-        <v>-0.004324688388949425</v>
+        <v>-0.05208870429222098</v>
       </c>
       <c r="X3">
-        <v>-2.274114788904314E-06</v>
+        <v>-2.739055156394913E-05</v>
       </c>
       <c r="Y3">
-        <v>-2.27411183396984E-06</v>
+        <v>-2.739054259897796E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9477,49 +9477,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>91.65149775183913</v>
+        <v>89.74704342978094</v>
       </c>
       <c r="AD3">
-        <v>91.65146997556359</v>
+        <v>89.74704346877445</v>
       </c>
       <c r="AE3">
-        <v>91.65147124507162</v>
+        <v>89.7470434126618</v>
       </c>
       <c r="AG3">
-        <v>0.4762026712112321</v>
+        <v>1.652670204470395</v>
       </c>
       <c r="AH3">
-        <v>0.0008126671552712208</v>
+        <v>0.002820376148151533</v>
       </c>
       <c r="AI3">
-        <v>0.0008126669868547909</v>
+        <v>0.002820376001362892</v>
       </c>
       <c r="AJ3">
-        <v>0.4761530115357616</v>
+        <v>1.652497859686191</v>
       </c>
       <c r="AK3">
-        <v>0.0006772013073188413</v>
+        <v>0.002350239468275451</v>
       </c>
       <c r="AL3">
-        <v>0.0006772011761611731</v>
+        <v>0.002350239358141528</v>
       </c>
       <c r="AM3">
-        <v>1.810468703708975</v>
+        <v>-0.09396752448987905</v>
       </c>
       <c r="AN3">
-        <v>-66.65413174380348</v>
+        <v>-68.55856791213485</v>
       </c>
       <c r="AO3">
-        <v>-66.65413832645031</v>
+        <v>-68.55856945878116</v>
       </c>
       <c r="AP3">
-        <v>1.82563382214081</v>
+        <v>-0.0788024045905279</v>
       </c>
       <c r="AQ3">
-        <v>-66.64959198366805</v>
+        <v>-68.55402827869968</v>
       </c>
       <c r="AR3">
-        <v>-66.64959839436384</v>
+        <v>-68.55402967586564</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9536,13 +9536,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0007865764187736996</v>
+        <v>0.002729828016948818</v>
       </c>
       <c r="F4">
-        <v>0.0007865767053892882</v>
+        <v>0.002729828319467535</v>
       </c>
       <c r="G4">
-        <v>0.000786576100639271</v>
+        <v>0.002729827714475537</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9554,49 +9554,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.009082602142344147</v>
+        <v>0.03152133880853564</v>
       </c>
       <c r="L4">
-        <v>0.009082605451895891</v>
+        <v>0.03152134230172091</v>
       </c>
       <c r="M4">
-        <v>0.009082598468844186</v>
+        <v>0.03152133531587504</v>
       </c>
       <c r="N4">
-        <v>1.088243088703331E-09</v>
+        <v>-3.349089813658815E-09</v>
       </c>
       <c r="O4">
-        <v>1.954330790898186E-12</v>
+        <v>7.061346087333229E-12</v>
       </c>
       <c r="P4">
-        <v>-3.258083262517561E-12</v>
+        <v>-1.127797847509386E-11</v>
       </c>
       <c r="Q4">
-        <v>1.314384001684258E-05</v>
+        <v>0.0001583274169574162</v>
       </c>
       <c r="R4">
-        <v>-5.71490643922749E-06</v>
+        <v>-6.883316449798607E-05</v>
       </c>
       <c r="S4">
-        <v>-5.71490124339306E-06</v>
+        <v>-6.883314665851852E-05</v>
       </c>
       <c r="T4">
-        <v>6.068202428211301E-11</v>
+        <v>-1.090049445248182E-11</v>
       </c>
       <c r="U4">
-        <v>2.629624646145265E-12</v>
+        <v>8.895225662655695E-12</v>
       </c>
       <c r="V4">
-        <v>3.798266717812007E-13</v>
+        <v>1.692963716455722E-12</v>
       </c>
       <c r="W4">
-        <v>-0.004324688388949712</v>
+        <v>-0.05208870429223666</v>
       </c>
       <c r="X4">
-        <v>-2.27411478892279E-06</v>
+        <v>-2.739055156398169E-05</v>
       </c>
       <c r="Y4">
-        <v>-2.274111833980011E-06</v>
+        <v>-2.739054259897796E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9608,49 +9608,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>91.65149775195862</v>
+        <v>89.74704342975519</v>
       </c>
       <c r="AD4">
-        <v>91.65146997532807</v>
+        <v>89.74704346877475</v>
       </c>
       <c r="AE4">
-        <v>91.65147124506474</v>
+        <v>89.7470434126618</v>
       </c>
       <c r="AG4">
-        <v>0.4762026712112322</v>
+        <v>1.652670204470395</v>
       </c>
       <c r="AH4">
-        <v>0.0008126671552713806</v>
+        <v>0.002820376148151802</v>
       </c>
       <c r="AI4">
-        <v>0.0008126669868553305</v>
+        <v>0.002820376001363017</v>
       </c>
       <c r="AJ4">
-        <v>0.4761530115357616</v>
+        <v>1.652497859686191</v>
       </c>
       <c r="AK4">
-        <v>0.0006772013073188413</v>
+        <v>0.002350239468275451</v>
       </c>
       <c r="AL4">
-        <v>0.0006772011761611731</v>
+        <v>0.002350239358141528</v>
       </c>
       <c r="AM4">
-        <v>1.810468703708956</v>
+        <v>-0.09396752448988899</v>
       </c>
       <c r="AN4">
-        <v>-66.65413174381688</v>
+        <v>-68.55856791213942</v>
       </c>
       <c r="AO4">
-        <v>-66.65413832644116</v>
+        <v>-68.55856945878702</v>
       </c>
       <c r="AP4">
-        <v>1.82563382214081</v>
+        <v>-0.0788024045905279</v>
       </c>
       <c r="AQ4">
-        <v>-66.64959198366805</v>
+        <v>-68.55402827869968</v>
       </c>
       <c r="AR4">
-        <v>-66.64959839436384</v>
+        <v>-68.55402967586564</v>
       </c>
     </row>
   </sheetData>
@@ -9805,97 +9805,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002358986511044137</v>
+        <v>0.008186906337530235</v>
       </c>
       <c r="C2">
-        <v>0.002358987369985243</v>
+        <v>0.008186907245102038</v>
       </c>
       <c r="D2">
-        <v>0.002358985555780785</v>
+        <v>0.008186905430114511</v>
       </c>
       <c r="E2">
-        <v>0.001573152848074545</v>
+        <v>0.005459656033944445</v>
       </c>
       <c r="F2">
-        <v>0.001573153707919618</v>
+        <v>0.005459656941512922</v>
       </c>
       <c r="G2">
-        <v>0.001573151893673314</v>
+        <v>0.005459655126533645</v>
       </c>
       <c r="H2">
-        <v>0.02723922994332057</v>
+        <v>0.09453425155606669</v>
       </c>
       <c r="I2">
-        <v>0.02723923986151815</v>
+        <v>0.09453426203580319</v>
       </c>
       <c r="J2">
-        <v>0.02723921891288951</v>
+        <v>0.09453424107813244</v>
       </c>
       <c r="K2">
-        <v>0.0181652044062453</v>
+        <v>0.0630426776176118</v>
       </c>
       <c r="L2">
-        <v>0.01816521433488099</v>
+        <v>0.0630426880973099</v>
       </c>
       <c r="M2">
-        <v>0.01816519338576915</v>
+        <v>0.0630426671397344</v>
       </c>
       <c r="N2">
-        <v>4.628875964084923E-05</v>
+        <v>0.0005575742494521058</v>
       </c>
       <c r="O2">
-        <v>-3.532108904561274E-13</v>
+        <v>-1.17657690201653E-14</v>
       </c>
       <c r="P2">
-        <v>-9.450808499793913E-14</v>
+        <v>-2.915076476502852E-14</v>
       </c>
       <c r="Q2">
-        <v>-2.628659184606373E-05</v>
+        <v>-0.0003166581815687111</v>
       </c>
       <c r="R2">
-        <v>1.14298145071752E-05</v>
+        <v>0.0001376663348838024</v>
       </c>
       <c r="S2">
-        <v>1.142979977214122E-05</v>
+        <v>0.0001376662839229662</v>
       </c>
       <c r="T2">
-        <v>-0.01296320201978612</v>
+        <v>-0.1561352716599332</v>
       </c>
       <c r="U2">
-        <v>-3.14761347029514E-13</v>
+        <v>-7.233549244947703E-14</v>
       </c>
       <c r="V2">
-        <v>4.627101639050145E-13</v>
+        <v>1.002253109640307E-14</v>
       </c>
       <c r="W2">
-        <v>0.008649376839086641</v>
+        <v>0.104177408575191</v>
       </c>
       <c r="X2">
-        <v>4.548231769257851E-06</v>
+        <v>5.478111054098258E-05</v>
       </c>
       <c r="Y2">
-        <v>4.54822398419073E-06</v>
+        <v>5.478108660798611E-05</v>
       </c>
       <c r="Z2">
-        <v>91.69688849781514</v>
+        <v>89.79243417060981</v>
       </c>
       <c r="AA2">
-        <v>91.69686069596194</v>
+        <v>89.79243420455275</v>
       </c>
       <c r="AB2">
-        <v>91.6968620012637</v>
+        <v>89.79243415849626</v>
       </c>
       <c r="AC2">
-        <v>-88.34849503842372</v>
+        <v>-90.25295841138798</v>
       </c>
       <c r="AD2">
-        <v>-88.34853670342362</v>
+        <v>-90.25295835290081</v>
       </c>
       <c r="AE2">
-        <v>-88.348534798232</v>
+        <v>-90.252958437071</v>
       </c>
       <c r="AG2">
-        <v>0.4759049609704779</v>
+        <v>1.651636995720118</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -9904,16 +9904,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.4761530115357616</v>
+        <v>1.652497859686191</v>
       </c>
       <c r="AK2">
-        <v>0.0006772013073188413</v>
+        <v>0.002350239468275451</v>
       </c>
       <c r="AL2">
-        <v>0.0006772011761611731</v>
+        <v>0.002350239358141528</v>
       </c>
       <c r="AM2">
-        <v>1.90147832757618</v>
+        <v>-0.00295789475538415</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -9922,13 +9922,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.82563382214081</v>
+        <v>-0.0788024045905279</v>
       </c>
       <c r="AQ2">
-        <v>-66.64959198366805</v>
+        <v>-68.55402827869968</v>
       </c>
       <c r="AR2">
-        <v>-66.64959839436384</v>
+        <v>-68.55402967586564</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9945,13 +9945,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0007865764187736524</v>
+        <v>0.002729828016947991</v>
       </c>
       <c r="F3">
-        <v>0.000786576705391023</v>
+        <v>0.002729828319464253</v>
       </c>
       <c r="G3">
-        <v>0.0007865761006359906</v>
+        <v>0.002729827714475537</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9963,49 +9963,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.009082602142343601</v>
+        <v>0.0315213388085261</v>
       </c>
       <c r="L3">
-        <v>0.009082605451915922</v>
+        <v>0.03152134230168301</v>
       </c>
       <c r="M3">
-        <v>0.009082598468806307</v>
+        <v>0.03152133531587504</v>
       </c>
       <c r="N3">
-        <v>1.088234070211602E-09</v>
+        <v>-3.349089865015868E-09</v>
       </c>
       <c r="O3">
-        <v>1.954351030525007E-12</v>
+        <v>7.061296345877302E-12</v>
       </c>
       <c r="P3">
-        <v>-3.258139812888659E-12</v>
+        <v>-1.127792873364105E-11</v>
       </c>
       <c r="Q3">
-        <v>1.314384002586005E-05</v>
+        <v>0.0001583274169339543</v>
       </c>
       <c r="R3">
-        <v>-5.714906439249441E-06</v>
+        <v>-6.883316449790318E-05</v>
       </c>
       <c r="S3">
-        <v>-5.714901243369498E-06</v>
+        <v>-6.883314665851852E-05</v>
       </c>
       <c r="T3">
-        <v>6.068173921515727E-11</v>
+        <v>-1.0931808885259E-11</v>
       </c>
       <c r="U3">
-        <v>2.629616610581905E-12</v>
+        <v>8.895206127687153E-12</v>
       </c>
       <c r="V3">
-        <v>3.798022636639825E-13</v>
+        <v>1.692983251420391E-12</v>
       </c>
       <c r="W3">
-        <v>-0.004324688388949425</v>
+        <v>-0.05208870429222098</v>
       </c>
       <c r="X3">
-        <v>-2.274114788904314E-06</v>
+        <v>-2.739055156394913E-05</v>
       </c>
       <c r="Y3">
-        <v>-2.27411183396984E-06</v>
+        <v>-2.739054259897796E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10017,49 +10017,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>91.65149775183913</v>
+        <v>89.74704342978094</v>
       </c>
       <c r="AD3">
-        <v>91.65146997556359</v>
+        <v>89.74704346877445</v>
       </c>
       <c r="AE3">
-        <v>91.65147124507162</v>
+        <v>89.7470434126618</v>
       </c>
       <c r="AG3">
-        <v>0.4762026712112321</v>
+        <v>1.652670204470395</v>
       </c>
       <c r="AH3">
-        <v>0.0008126671552712208</v>
+        <v>0.002820376148151533</v>
       </c>
       <c r="AI3">
-        <v>0.0008126669868547909</v>
+        <v>0.002820376001362892</v>
       </c>
       <c r="AJ3">
-        <v>0.4761530115357616</v>
+        <v>1.652497859686191</v>
       </c>
       <c r="AK3">
-        <v>0.0006772013073188413</v>
+        <v>0.002350239468275451</v>
       </c>
       <c r="AL3">
-        <v>0.0006772011761611731</v>
+        <v>0.002350239358141528</v>
       </c>
       <c r="AM3">
-        <v>1.810468703708975</v>
+        <v>-0.09396752448987905</v>
       </c>
       <c r="AN3">
-        <v>-66.65413174380348</v>
+        <v>-68.55856791213485</v>
       </c>
       <c r="AO3">
-        <v>-66.65413832645031</v>
+        <v>-68.55856945878116</v>
       </c>
       <c r="AP3">
-        <v>1.82563382214081</v>
+        <v>-0.0788024045905279</v>
       </c>
       <c r="AQ3">
-        <v>-66.64959198366805</v>
+        <v>-68.55402827869968</v>
       </c>
       <c r="AR3">
-        <v>-66.64959839436384</v>
+        <v>-68.55402967586564</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10076,13 +10076,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0007865764187736996</v>
+        <v>0.002729828016948818</v>
       </c>
       <c r="F4">
-        <v>0.0007865767053892882</v>
+        <v>0.002729828319467535</v>
       </c>
       <c r="G4">
-        <v>0.000786576100639271</v>
+        <v>0.002729827714475537</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10094,49 +10094,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.009082602142344147</v>
+        <v>0.03152133880853564</v>
       </c>
       <c r="L4">
-        <v>0.009082605451895891</v>
+        <v>0.03152134230172091</v>
       </c>
       <c r="M4">
-        <v>0.009082598468844186</v>
+        <v>0.03152133531587504</v>
       </c>
       <c r="N4">
-        <v>1.088243088703331E-09</v>
+        <v>-3.349089813658815E-09</v>
       </c>
       <c r="O4">
-        <v>1.954330790898186E-12</v>
+        <v>7.061346087333229E-12</v>
       </c>
       <c r="P4">
-        <v>-3.258083262517561E-12</v>
+        <v>-1.127797847509386E-11</v>
       </c>
       <c r="Q4">
-        <v>1.314384001684258E-05</v>
+        <v>0.0001583274169574162</v>
       </c>
       <c r="R4">
-        <v>-5.71490643922749E-06</v>
+        <v>-6.883316449798607E-05</v>
       </c>
       <c r="S4">
-        <v>-5.71490124339306E-06</v>
+        <v>-6.883314665851852E-05</v>
       </c>
       <c r="T4">
-        <v>6.068202428211301E-11</v>
+        <v>-1.090049445248182E-11</v>
       </c>
       <c r="U4">
-        <v>2.629624646145265E-12</v>
+        <v>8.895225662655695E-12</v>
       </c>
       <c r="V4">
-        <v>3.798266717812007E-13</v>
+        <v>1.692963716455722E-12</v>
       </c>
       <c r="W4">
-        <v>-0.004324688388949712</v>
+        <v>-0.05208870429223666</v>
       </c>
       <c r="X4">
-        <v>-2.27411478892279E-06</v>
+        <v>-2.739055156398169E-05</v>
       </c>
       <c r="Y4">
-        <v>-2.274111833980011E-06</v>
+        <v>-2.739054259897796E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10148,49 +10148,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>91.65149775195862</v>
+        <v>89.74704342975519</v>
       </c>
       <c r="AD4">
-        <v>91.65146997532807</v>
+        <v>89.74704346877475</v>
       </c>
       <c r="AE4">
-        <v>91.65147124506474</v>
+        <v>89.7470434126618</v>
       </c>
       <c r="AG4">
-        <v>0.4762026712112322</v>
+        <v>1.652670204470395</v>
       </c>
       <c r="AH4">
-        <v>0.0008126671552713806</v>
+        <v>0.002820376148151802</v>
       </c>
       <c r="AI4">
-        <v>0.0008126669868553305</v>
+        <v>0.002820376001363017</v>
       </c>
       <c r="AJ4">
-        <v>0.4761530115357616</v>
+        <v>1.652497859686191</v>
       </c>
       <c r="AK4">
-        <v>0.0006772013073188413</v>
+        <v>0.002350239468275451</v>
       </c>
       <c r="AL4">
-        <v>0.0006772011761611731</v>
+        <v>0.002350239358141528</v>
       </c>
       <c r="AM4">
-        <v>1.810468703708956</v>
+        <v>-0.09396752448988899</v>
       </c>
       <c r="AN4">
-        <v>-66.65413174381688</v>
+        <v>-68.55856791213942</v>
       </c>
       <c r="AO4">
-        <v>-66.65413832644116</v>
+        <v>-68.55856945878702</v>
       </c>
       <c r="AP4">
-        <v>1.82563382214081</v>
+        <v>-0.0788024045905279</v>
       </c>
       <c r="AQ4">
-        <v>-66.64959198366805</v>
+        <v>-68.55402827869968</v>
       </c>
       <c r="AR4">
-        <v>-66.64959839436384</v>
+        <v>-68.55402967586564</v>
       </c>
     </row>
   </sheetData>
@@ -10345,130 +10345,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0003233206316625133</v>
+        <v>0.008239574967624338</v>
       </c>
       <c r="C2">
-        <v>0.0003233208584383528</v>
+        <v>0.008239575165275502</v>
       </c>
       <c r="D2">
-        <v>0.0003233203916834647</v>
+        <v>0.008239574770125902</v>
       </c>
       <c r="E2">
-        <v>0.0002156149558975157</v>
+        <v>0.005494779509436372</v>
       </c>
       <c r="F2">
-        <v>0.0002156151828170968</v>
+        <v>0.005494779706984716</v>
       </c>
       <c r="G2">
-        <v>0.0002156147160161358</v>
+        <v>0.005494779312037852</v>
       </c>
       <c r="H2">
-        <v>0.003733385074498238</v>
+        <v>0.09514241651132029</v>
       </c>
       <c r="I2">
-        <v>0.003733387693080078</v>
+        <v>0.09514241879359933</v>
       </c>
       <c r="J2">
-        <v>0.003733382303458872</v>
+        <v>0.09514241423080477</v>
       </c>
       <c r="K2">
-        <v>0.0024897070565748</v>
+        <v>0.0634482485782146</v>
       </c>
       <c r="L2">
-        <v>0.002489709676816425</v>
+        <v>0.06344825085930639</v>
       </c>
       <c r="M2">
-        <v>0.002489704286663215</v>
+        <v>0.06344824629885282</v>
       </c>
       <c r="N2">
-        <v>-0.002590337802245359</v>
+        <v>0.001245176120979975</v>
       </c>
       <c r="O2">
-        <v>-0.0005371617076968633</v>
+        <v>-0.07123822431415501</v>
       </c>
       <c r="P2">
-        <v>0.003128364730422579</v>
+        <v>0.07055781654338787</v>
       </c>
       <c r="Q2">
-        <v>0.00172614257909843</v>
+        <v>-0.0007741332219417793</v>
       </c>
       <c r="R2">
-        <v>0.000360257648565484</v>
+        <v>0.04765260048816552</v>
       </c>
       <c r="S2">
-        <v>-0.002086460280814848</v>
+        <v>-0.04692032322293707</v>
       </c>
       <c r="T2">
-        <v>-0.00285330656803302</v>
+        <v>-0.1574726739986431</v>
       </c>
       <c r="U2">
-        <v>0.003448733145162374</v>
+        <v>0.01148661357131852</v>
       </c>
       <c r="V2">
-        <v>-0.0008389390373716875</v>
+        <v>-0.01216459311611104</v>
       </c>
       <c r="W2">
-        <v>0.001904256445642638</v>
+        <v>0.1050696344107872</v>
       </c>
       <c r="X2">
-        <v>-0.002299510153854947</v>
+        <v>-0.007567025835157361</v>
       </c>
       <c r="Y2">
-        <v>0.0005579009600171578</v>
+        <v>0.008130489347003582</v>
       </c>
       <c r="Z2">
-        <v>129.4218866119257</v>
+        <v>89.4185920561556</v>
       </c>
       <c r="AA2">
-        <v>129.4218542786187</v>
+        <v>89.41859295447625</v>
       </c>
       <c r="AB2">
-        <v>129.421864646886</v>
+        <v>89.4185911796845</v>
       </c>
       <c r="AC2">
-        <v>-50.62349692442374</v>
+        <v>-90.62680052583589</v>
       </c>
       <c r="AD2">
-        <v>-50.6235453613338</v>
+        <v>-90.62679917714458</v>
       </c>
       <c r="AE2">
-        <v>-50.6235299118901</v>
+        <v>-90.62680184175559</v>
       </c>
       <c r="AG2">
-        <v>1.032233876319455</v>
+        <v>1.655177602764182</v>
       </c>
       <c r="AH2">
-        <v>0.9348923523836705</v>
+        <v>0.7584245481285701</v>
       </c>
       <c r="AI2">
-        <v>0.8675515910965048</v>
+        <v>0.7525430497568376</v>
       </c>
       <c r="AJ2">
-        <v>1.032317220343677</v>
+        <v>1.656034462105668</v>
       </c>
       <c r="AK2">
-        <v>0.9348717925731252</v>
+        <v>0.7604569829413685</v>
       </c>
       <c r="AL2">
-        <v>0.8674771413292572</v>
+        <v>0.7505258736454504</v>
       </c>
       <c r="AM2">
-        <v>-2.812448403493943</v>
+        <v>-0.1283652169885682</v>
       </c>
       <c r="AN2">
-        <v>-131.7251047866139</v>
+        <v>-99.74107111695977</v>
       </c>
       <c r="AO2">
-        <v>114.4099680154636</v>
+        <v>79.63661603765493</v>
       </c>
       <c r="AP2">
-        <v>-2.814715737986727</v>
+        <v>-0.2046636821888879</v>
       </c>
       <c r="AQ2">
-        <v>-131.719557678805</v>
+        <v>-99.64978192141028</v>
       </c>
       <c r="AR2">
-        <v>114.4063072884884</v>
+        <v>79.5424399415577</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -10485,13 +10485,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001078074772270471</v>
+        <v>0.002747389754692235</v>
       </c>
       <c r="F3">
-        <v>0.0001078075528680628</v>
+        <v>0.002747389820542217</v>
       </c>
       <c r="G3">
-        <v>0.0001078073972660339</v>
+        <v>0.002747389688892731</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -10503,49 +10503,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001244853519953802</v>
+        <v>0.03172412428880764</v>
       </c>
       <c r="L3">
-        <v>0.001244854393381017</v>
+        <v>0.03172412504917774</v>
       </c>
       <c r="M3">
-        <v>0.001244852596643553</v>
+        <v>0.03172412352902041</v>
       </c>
       <c r="N3">
-        <v>2.511072616790068E-10</v>
+        <v>-3.377779665980344E-09</v>
       </c>
       <c r="O3">
-        <v>4.874556953023078E-10</v>
+        <v>7.542512555690873E-10</v>
       </c>
       <c r="P3">
-        <v>7.229692734961444E-10</v>
+        <v>2.382363078721862E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.0008630711639646444</v>
+        <v>0.0003870649228094199</v>
       </c>
       <c r="R3">
-        <v>-0.0001801285805561142</v>
+        <v>-0.02382629986643335</v>
       </c>
       <c r="S3">
-        <v>0.001043230501867054</v>
+        <v>0.02346016173042573</v>
       </c>
       <c r="T3">
-        <v>-2.044972073909735E-10</v>
+        <v>-2.565011746186948E-11</v>
       </c>
       <c r="U3">
-        <v>-7.658273542530391E-10</v>
+        <v>1.068109805565128E-09</v>
       </c>
       <c r="V3">
-        <v>-3.41084359439761E-10</v>
+        <v>-1.963962711010225E-09</v>
       </c>
       <c r="W3">
-        <v>-0.0009521283250480502</v>
+        <v>-0.05253481721733536</v>
       </c>
       <c r="X3">
-        <v>0.001149754693993183</v>
+        <v>0.003783513450898981</v>
       </c>
       <c r="Y3">
-        <v>-0.0002789506505202261</v>
+        <v>-0.004065245655615699</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10557,49 +10557,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>129.3764958660115</v>
+        <v>89.37320131530376</v>
       </c>
       <c r="AD3">
-        <v>129.3764635753085</v>
+        <v>89.37320221445705</v>
       </c>
       <c r="AE3">
-        <v>129.3764738739536</v>
+        <v>89.37320043801546</v>
       </c>
       <c r="AG3">
-        <v>1.032333888606655</v>
+        <v>1.656206009045239</v>
       </c>
       <c r="AH3">
-        <v>0.9348676894915885</v>
+        <v>0.7608638924733431</v>
       </c>
       <c r="AI3">
-        <v>0.8674622437191908</v>
+        <v>0.7501224887202711</v>
       </c>
       <c r="AJ3">
-        <v>1.032317220343677</v>
+        <v>1.656034462105668</v>
       </c>
       <c r="AK3">
-        <v>0.9348717925731252</v>
+        <v>0.7604569829413685</v>
       </c>
       <c r="AL3">
-        <v>0.8674771413292572</v>
+        <v>0.7505258736454504</v>
       </c>
       <c r="AM3">
-        <v>-2.815169686358726</v>
+        <v>-0.2199195989133083</v>
       </c>
       <c r="AN3">
-        <v>-131.718447898542</v>
+        <v>-99.63159374673988</v>
       </c>
       <c r="AO3">
-        <v>114.4055753970809</v>
+        <v>79.52355502546766</v>
       </c>
       <c r="AP3">
-        <v>-2.814715737986727</v>
+        <v>-0.2046636821888879</v>
       </c>
       <c r="AQ3">
-        <v>-131.719557678805</v>
+        <v>-99.64978192141028</v>
       </c>
       <c r="AR3">
-        <v>114.4063072884884</v>
+        <v>79.5424399415577</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10616,13 +10616,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001078074772264698</v>
+        <v>0.002747389754690611</v>
       </c>
       <c r="F4">
-        <v>0.0001078075528676888</v>
+        <v>0.00274738982054384</v>
       </c>
       <c r="G4">
-        <v>0.000107807397266099</v>
+        <v>0.002747389688892722</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -10634,49 +10634,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001244853519947135</v>
+        <v>0.03172412428878889</v>
       </c>
       <c r="L4">
-        <v>0.001244854393376699</v>
+        <v>0.03172412504919648</v>
       </c>
       <c r="M4">
-        <v>0.001244852596644304</v>
+        <v>0.03172412352902031</v>
       </c>
       <c r="N4">
-        <v>2.510974932508224E-10</v>
+        <v>-3.377811167671673E-09</v>
       </c>
       <c r="O4">
-        <v>4.87446137354507E-10</v>
+        <v>7.54264263005295E-10</v>
       </c>
       <c r="P4">
-        <v>7.229655315468539E-10</v>
+        <v>2.382376000721534E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.0008630711639595201</v>
+        <v>0.0003870649228409101</v>
       </c>
       <c r="R4">
-        <v>-0.0001801285805465562</v>
+        <v>-0.02382629986644515</v>
       </c>
       <c r="S4">
-        <v>0.001043230501867478</v>
+        <v>0.02346016173042444</v>
       </c>
       <c r="T4">
-        <v>-2.044967270426119E-10</v>
+        <v>-2.568137824946838E-11</v>
       </c>
       <c r="U4">
-        <v>-7.6582476576238E-10</v>
+        <v>1.068100286730577E-09</v>
       </c>
       <c r="V4">
-        <v>-3.410860573023117E-10</v>
+        <v>-1.96395572289106E-09</v>
       </c>
       <c r="W4">
-        <v>-0.0009521283250434061</v>
+        <v>-0.0525348172173041</v>
       </c>
       <c r="X4">
-        <v>0.001149754693990594</v>
+        <v>0.003783513450915602</v>
       </c>
       <c r="Y4">
-        <v>-0.0002789506505211615</v>
+        <v>-0.004065245655622693</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10688,49 +10688,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>129.3764958659813</v>
+        <v>89.37320131526916</v>
       </c>
       <c r="AD4">
-        <v>129.3764635757537</v>
+        <v>89.37320221449166</v>
       </c>
       <c r="AE4">
-        <v>129.3764738739958</v>
+        <v>89.37320043803257</v>
       </c>
       <c r="AG4">
-        <v>1.032333888606655</v>
+        <v>1.656206009045239</v>
       </c>
       <c r="AH4">
-        <v>0.9348676894915885</v>
+        <v>0.7608638924733431</v>
       </c>
       <c r="AI4">
-        <v>0.8674622437191908</v>
+        <v>0.7501224887202709</v>
       </c>
       <c r="AJ4">
-        <v>1.032317220343677</v>
+        <v>1.656034462105668</v>
       </c>
       <c r="AK4">
-        <v>0.9348717925731252</v>
+        <v>0.7604569829413685</v>
       </c>
       <c r="AL4">
-        <v>0.8674771413292572</v>
+        <v>0.7505258736454504</v>
       </c>
       <c r="AM4">
-        <v>-2.815169686358725</v>
+        <v>-0.2199195989133114</v>
       </c>
       <c r="AN4">
-        <v>-131.718447898542</v>
+        <v>-99.63159374673987</v>
       </c>
       <c r="AO4">
-        <v>114.4055753970809</v>
+        <v>79.52355502546766</v>
       </c>
       <c r="AP4">
-        <v>-2.814715737986727</v>
+        <v>-0.2046636821888879</v>
       </c>
       <c r="AQ4">
-        <v>-131.719557678805</v>
+        <v>-99.64978192141028</v>
       </c>
       <c r="AR4">
-        <v>114.4063072884884</v>
+        <v>79.5424399415577</v>
       </c>
     </row>
   </sheetData>
@@ -10885,130 +10885,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0003233206316625133</v>
+        <v>0.008239574967624338</v>
       </c>
       <c r="C2">
-        <v>0.0003233208584383528</v>
+        <v>0.008239575165275502</v>
       </c>
       <c r="D2">
-        <v>0.0003233203916834647</v>
+        <v>0.008239574770125902</v>
       </c>
       <c r="E2">
-        <v>0.0002156149558975157</v>
+        <v>0.005494779509436372</v>
       </c>
       <c r="F2">
-        <v>0.0002156151828170968</v>
+        <v>0.005494779706984716</v>
       </c>
       <c r="G2">
-        <v>0.0002156147160161358</v>
+        <v>0.005494779312037852</v>
       </c>
       <c r="H2">
-        <v>0.003733385074498238</v>
+        <v>0.09514241651132029</v>
       </c>
       <c r="I2">
-        <v>0.003733387693080078</v>
+        <v>0.09514241879359933</v>
       </c>
       <c r="J2">
-        <v>0.003733382303458872</v>
+        <v>0.09514241423080477</v>
       </c>
       <c r="K2">
-        <v>0.0024897070565748</v>
+        <v>0.0634482485782146</v>
       </c>
       <c r="L2">
-        <v>0.002489709676816425</v>
+        <v>0.06344825085930639</v>
       </c>
       <c r="M2">
-        <v>0.002489704286663215</v>
+        <v>0.06344824629885282</v>
       </c>
       <c r="N2">
-        <v>-0.002590337802245359</v>
+        <v>0.001245176120979975</v>
       </c>
       <c r="O2">
-        <v>-0.0005371617076968633</v>
+        <v>-0.07123822431415501</v>
       </c>
       <c r="P2">
-        <v>0.003128364730422579</v>
+        <v>0.07055781654338787</v>
       </c>
       <c r="Q2">
-        <v>0.00172614257909843</v>
+        <v>-0.0007741332219417793</v>
       </c>
       <c r="R2">
-        <v>0.000360257648565484</v>
+        <v>0.04765260048816552</v>
       </c>
       <c r="S2">
-        <v>-0.002086460280814848</v>
+        <v>-0.04692032322293707</v>
       </c>
       <c r="T2">
-        <v>-0.00285330656803302</v>
+        <v>-0.1574726739986431</v>
       </c>
       <c r="U2">
-        <v>0.003448733145162374</v>
+        <v>0.01148661357131852</v>
       </c>
       <c r="V2">
-        <v>-0.0008389390373716875</v>
+        <v>-0.01216459311611104</v>
       </c>
       <c r="W2">
-        <v>0.001904256445642638</v>
+        <v>0.1050696344107872</v>
       </c>
       <c r="X2">
-        <v>-0.002299510153854947</v>
+        <v>-0.007567025835157361</v>
       </c>
       <c r="Y2">
-        <v>0.0005579009600171578</v>
+        <v>0.008130489347003582</v>
       </c>
       <c r="Z2">
-        <v>129.4218866119257</v>
+        <v>89.4185920561556</v>
       </c>
       <c r="AA2">
-        <v>129.4218542786187</v>
+        <v>89.41859295447625</v>
       </c>
       <c r="AB2">
-        <v>129.421864646886</v>
+        <v>89.4185911796845</v>
       </c>
       <c r="AC2">
-        <v>-50.62349692442374</v>
+        <v>-90.62680052583589</v>
       </c>
       <c r="AD2">
-        <v>-50.6235453613338</v>
+        <v>-90.62679917714458</v>
       </c>
       <c r="AE2">
-        <v>-50.6235299118901</v>
+        <v>-90.62680184175559</v>
       </c>
       <c r="AG2">
-        <v>1.032233876319455</v>
+        <v>1.655177602764182</v>
       </c>
       <c r="AH2">
-        <v>0.9348923523836705</v>
+        <v>0.7584245481285701</v>
       </c>
       <c r="AI2">
-        <v>0.8675515910965048</v>
+        <v>0.7525430497568376</v>
       </c>
       <c r="AJ2">
-        <v>1.032317220343677</v>
+        <v>1.656034462105668</v>
       </c>
       <c r="AK2">
-        <v>0.9348717925731252</v>
+        <v>0.7604569829413685</v>
       </c>
       <c r="AL2">
-        <v>0.8674771413292572</v>
+        <v>0.7505258736454504</v>
       </c>
       <c r="AM2">
-        <v>-2.812448403493943</v>
+        <v>-0.1283652169885682</v>
       </c>
       <c r="AN2">
-        <v>-131.7251047866139</v>
+        <v>-99.74107111695977</v>
       </c>
       <c r="AO2">
-        <v>114.4099680154636</v>
+        <v>79.63661603765493</v>
       </c>
       <c r="AP2">
-        <v>-2.814715737986727</v>
+        <v>-0.2046636821888879</v>
       </c>
       <c r="AQ2">
-        <v>-131.719557678805</v>
+        <v>-99.64978192141028</v>
       </c>
       <c r="AR2">
-        <v>114.4063072884884</v>
+        <v>79.5424399415577</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11025,13 +11025,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001078074772270471</v>
+        <v>0.002747389754692235</v>
       </c>
       <c r="F3">
-        <v>0.0001078075528680628</v>
+        <v>0.002747389820542217</v>
       </c>
       <c r="G3">
-        <v>0.0001078073972660339</v>
+        <v>0.002747389688892731</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11043,49 +11043,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001244853519953802</v>
+        <v>0.03172412428880764</v>
       </c>
       <c r="L3">
-        <v>0.001244854393381017</v>
+        <v>0.03172412504917774</v>
       </c>
       <c r="M3">
-        <v>0.001244852596643553</v>
+        <v>0.03172412352902041</v>
       </c>
       <c r="N3">
-        <v>2.511072616790068E-10</v>
+        <v>-3.377779665980344E-09</v>
       </c>
       <c r="O3">
-        <v>4.874556953023078E-10</v>
+        <v>7.542512555690873E-10</v>
       </c>
       <c r="P3">
-        <v>7.229692734961444E-10</v>
+        <v>2.382363078721862E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.0008630711639646444</v>
+        <v>0.0003870649228094199</v>
       </c>
       <c r="R3">
-        <v>-0.0001801285805561142</v>
+        <v>-0.02382629986643335</v>
       </c>
       <c r="S3">
-        <v>0.001043230501867054</v>
+        <v>0.02346016173042573</v>
       </c>
       <c r="T3">
-        <v>-2.044972073909735E-10</v>
+        <v>-2.565011746186948E-11</v>
       </c>
       <c r="U3">
-        <v>-7.658273542530391E-10</v>
+        <v>1.068109805565128E-09</v>
       </c>
       <c r="V3">
-        <v>-3.41084359439761E-10</v>
+        <v>-1.963962711010225E-09</v>
       </c>
       <c r="W3">
-        <v>-0.0009521283250480502</v>
+        <v>-0.05253481721733536</v>
       </c>
       <c r="X3">
-        <v>0.001149754693993183</v>
+        <v>0.003783513450898981</v>
       </c>
       <c r="Y3">
-        <v>-0.0002789506505202261</v>
+        <v>-0.004065245655615699</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11097,49 +11097,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>129.3764958660115</v>
+        <v>89.37320131530376</v>
       </c>
       <c r="AD3">
-        <v>129.3764635753085</v>
+        <v>89.37320221445705</v>
       </c>
       <c r="AE3">
-        <v>129.3764738739536</v>
+        <v>89.37320043801546</v>
       </c>
       <c r="AG3">
-        <v>1.032333888606655</v>
+        <v>1.656206009045239</v>
       </c>
       <c r="AH3">
-        <v>0.9348676894915885</v>
+        <v>0.7608638924733431</v>
       </c>
       <c r="AI3">
-        <v>0.8674622437191908</v>
+        <v>0.7501224887202711</v>
       </c>
       <c r="AJ3">
-        <v>1.032317220343677</v>
+        <v>1.656034462105668</v>
       </c>
       <c r="AK3">
-        <v>0.9348717925731252</v>
+        <v>0.7604569829413685</v>
       </c>
       <c r="AL3">
-        <v>0.8674771413292572</v>
+        <v>0.7505258736454504</v>
       </c>
       <c r="AM3">
-        <v>-2.815169686358726</v>
+        <v>-0.2199195989133083</v>
       </c>
       <c r="AN3">
-        <v>-131.718447898542</v>
+        <v>-99.63159374673988</v>
       </c>
       <c r="AO3">
-        <v>114.4055753970809</v>
+        <v>79.52355502546766</v>
       </c>
       <c r="AP3">
-        <v>-2.814715737986727</v>
+        <v>-0.2046636821888879</v>
       </c>
       <c r="AQ3">
-        <v>-131.719557678805</v>
+        <v>-99.64978192141028</v>
       </c>
       <c r="AR3">
-        <v>114.4063072884884</v>
+        <v>79.5424399415577</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001078074772264698</v>
+        <v>0.002747389754690611</v>
       </c>
       <c r="F4">
-        <v>0.0001078075528676888</v>
+        <v>0.00274738982054384</v>
       </c>
       <c r="G4">
-        <v>0.000107807397266099</v>
+        <v>0.002747389688892722</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11174,49 +11174,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001244853519947135</v>
+        <v>0.03172412428878889</v>
       </c>
       <c r="L4">
-        <v>0.001244854393376699</v>
+        <v>0.03172412504919648</v>
       </c>
       <c r="M4">
-        <v>0.001244852596644304</v>
+        <v>0.03172412352902031</v>
       </c>
       <c r="N4">
-        <v>2.510974932508224E-10</v>
+        <v>-3.377811167671673E-09</v>
       </c>
       <c r="O4">
-        <v>4.87446137354507E-10</v>
+        <v>7.54264263005295E-10</v>
       </c>
       <c r="P4">
-        <v>7.229655315468539E-10</v>
+        <v>2.382376000721534E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.0008630711639595201</v>
+        <v>0.0003870649228409101</v>
       </c>
       <c r="R4">
-        <v>-0.0001801285805465562</v>
+        <v>-0.02382629986644515</v>
       </c>
       <c r="S4">
-        <v>0.001043230501867478</v>
+        <v>0.02346016173042444</v>
       </c>
       <c r="T4">
-        <v>-2.044967270426119E-10</v>
+        <v>-2.568137824946838E-11</v>
       </c>
       <c r="U4">
-        <v>-7.6582476576238E-10</v>
+        <v>1.068100286730577E-09</v>
       </c>
       <c r="V4">
-        <v>-3.410860573023117E-10</v>
+        <v>-1.96395572289106E-09</v>
       </c>
       <c r="W4">
-        <v>-0.0009521283250434061</v>
+        <v>-0.0525348172173041</v>
       </c>
       <c r="X4">
-        <v>0.001149754693990594</v>
+        <v>0.003783513450915602</v>
       </c>
       <c r="Y4">
-        <v>-0.0002789506505211615</v>
+        <v>-0.004065245655622693</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11228,49 +11228,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>129.3764958659813</v>
+        <v>89.37320131526916</v>
       </c>
       <c r="AD4">
-        <v>129.3764635757537</v>
+        <v>89.37320221449166</v>
       </c>
       <c r="AE4">
-        <v>129.3764738739958</v>
+        <v>89.37320043803257</v>
       </c>
       <c r="AG4">
-        <v>1.032333888606655</v>
+        <v>1.656206009045239</v>
       </c>
       <c r="AH4">
-        <v>0.9348676894915885</v>
+        <v>0.7608638924733431</v>
       </c>
       <c r="AI4">
-        <v>0.8674622437191908</v>
+        <v>0.7501224887202709</v>
       </c>
       <c r="AJ4">
-        <v>1.032317220343677</v>
+        <v>1.656034462105668</v>
       </c>
       <c r="AK4">
-        <v>0.9348717925731252</v>
+        <v>0.7604569829413685</v>
       </c>
       <c r="AL4">
-        <v>0.8674771413292572</v>
+        <v>0.7505258736454504</v>
       </c>
       <c r="AM4">
-        <v>-2.815169686358725</v>
+        <v>-0.2199195989133114</v>
       </c>
       <c r="AN4">
-        <v>-131.718447898542</v>
+        <v>-99.63159374673987</v>
       </c>
       <c r="AO4">
-        <v>114.4055753970809</v>
+        <v>79.52355502546766</v>
       </c>
       <c r="AP4">
-        <v>-2.814715737986727</v>
+        <v>-0.2046636821888879</v>
       </c>
       <c r="AQ4">
-        <v>-131.719557678805</v>
+        <v>-99.64978192141028</v>
       </c>
       <c r="AR4">
-        <v>114.4063072884884</v>
+        <v>79.5424399415577</v>
       </c>
     </row>
   </sheetData>
@@ -11425,97 +11425,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002113695958971025</v>
+        <v>0.007442804066854883</v>
       </c>
       <c r="C2">
-        <v>0.002113696741881742</v>
+        <v>0.007442804891905796</v>
       </c>
       <c r="D2">
-        <v>0.002113695092507768</v>
+        <v>0.007442803241952592</v>
       </c>
       <c r="E2">
-        <v>0.001409573135384154</v>
+        <v>0.004963427478145444</v>
       </c>
       <c r="F2">
-        <v>0.001409573919884608</v>
+        <v>0.0049634283031853</v>
       </c>
       <c r="G2">
-        <v>0.001409572270444099</v>
+        <v>0.004963426653253</v>
       </c>
       <c r="H2">
-        <v>0.0244068586179389</v>
+        <v>0.08594209863048617</v>
       </c>
       <c r="I2">
-        <v>0.02440686765821318</v>
+        <v>0.08594210815735349</v>
       </c>
       <c r="J2">
-        <v>0.02440684861288302</v>
+        <v>0.08594208910533498</v>
       </c>
       <c r="K2">
-        <v>0.01627634858313012</v>
+        <v>0.05731272381220914</v>
       </c>
       <c r="L2">
-        <v>0.01627635764176109</v>
+        <v>0.05731273333894882</v>
       </c>
       <c r="M2">
-        <v>0.01627633859566265</v>
+        <v>0.05731271428717166</v>
       </c>
       <c r="N2">
-        <v>7.135500911820433E-05</v>
+        <v>0.0008847754042708472</v>
       </c>
       <c r="O2">
-        <v>-6.222572731225843E-14</v>
+        <v>-8.994794458963783E-14</v>
       </c>
       <c r="P2">
-        <v>2.152641382965116E-13</v>
+        <v>4.638160806795208E-14</v>
       </c>
       <c r="Q2">
-        <v>-4.052229244727145E-05</v>
+        <v>-0.0005024792577587089</v>
       </c>
       <c r="R2">
-        <v>1.761869944154051E-05</v>
+        <v>0.0002184549117352319</v>
       </c>
       <c r="S2">
-        <v>1.761867639289329E-05</v>
+        <v>0.0002184548307635274</v>
       </c>
       <c r="T2">
-        <v>-0.01040757444929063</v>
+        <v>-0.1290439562671369</v>
       </c>
       <c r="U2">
-        <v>2.11212198249942E-13</v>
+        <v>2.042689311875891E-14</v>
       </c>
       <c r="V2">
-        <v>-5.210896299038509E-14</v>
+        <v>4.148377210474169E-14</v>
       </c>
       <c r="W2">
-        <v>0.006944134841035638</v>
+        <v>0.08610062134937659</v>
       </c>
       <c r="X2">
-        <v>3.653494474976254E-06</v>
+        <v>4.529976054755534E-05</v>
       </c>
       <c r="Y2">
-        <v>3.653488531849876E-06</v>
+        <v>4.529974118684398E-05</v>
       </c>
       <c r="Z2">
-        <v>91.56336721969456</v>
+        <v>89.60371112534764</v>
       </c>
       <c r="AA2">
-        <v>91.56333890114351</v>
+        <v>89.60371118061224</v>
       </c>
       <c r="AB2">
-        <v>91.56334012135677</v>
+        <v>89.60371109278664</v>
       </c>
       <c r="AC2">
-        <v>-88.52377556140688</v>
+        <v>-90.48344088867</v>
       </c>
       <c r="AD2">
-        <v>-88.52381797750066</v>
+        <v>-90.48344079130986</v>
       </c>
       <c r="AE2">
-        <v>-88.52381624969134</v>
+        <v>-90.48344095197783</v>
       </c>
       <c r="AG2">
-        <v>0.4264300955987992</v>
+        <v>1.501557344648627</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -11524,16 +11524,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.426646863568842</v>
+        <v>1.502320633755062</v>
       </c>
       <c r="AK2">
-        <v>0.001105500116753418</v>
+        <v>0.003892717085787517</v>
       </c>
       <c r="AL2">
-        <v>0.001105499949652671</v>
+        <v>0.003892716927830721</v>
       </c>
       <c r="AM2">
-        <v>1.956184665585354</v>
+        <v>-0.003452948067976193</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -11542,13 +11542,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.810568461722134</v>
+        <v>-0.1490691562530498</v>
       </c>
       <c r="AQ2">
-        <v>-76.80873509253281</v>
+        <v>-78.76837142526311</v>
       </c>
       <c r="AR2">
-        <v>-76.80873699290082</v>
+        <v>-78.76837223221158</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11565,13 +11565,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0007047865632048926</v>
+        <v>0.002481713739022123</v>
       </c>
       <c r="F3">
-        <v>0.0007047868247062031</v>
+        <v>0.002481714014035935</v>
       </c>
       <c r="G3">
-        <v>0.0007047862748918884</v>
+        <v>0.002481713464055771</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11583,49 +11583,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.008138174239751519</v>
+        <v>0.02865636190552031</v>
       </c>
       <c r="L3">
-        <v>0.008138177259308559</v>
+        <v>0.02865636508110628</v>
       </c>
       <c r="M3">
-        <v>0.008138170910599709</v>
+        <v>0.02865635873048237</v>
       </c>
       <c r="N3">
-        <v>8.961986693648938E-10</v>
+        <v>-2.768170103387893E-09</v>
       </c>
       <c r="O3">
-        <v>3.540502893671285E-12</v>
+        <v>1.28031658504131E-11</v>
       </c>
       <c r="P3">
-        <v>-4.662750582082903E-12</v>
+        <v>-1.629690594572889E-11</v>
       </c>
       <c r="Q3">
-        <v>2.026159430726698E-05</v>
+        <v>0.0002512382453954188</v>
       </c>
       <c r="R3">
-        <v>-8.809348245382623E-06</v>
+        <v>-0.0001092274505284219</v>
       </c>
       <c r="S3">
-        <v>-8.809340138831206E-06</v>
+        <v>-0.0001092274221666685</v>
       </c>
       <c r="T3">
-        <v>4.863559025703854E-11</v>
+        <v>-1.712690077008411E-11</v>
       </c>
       <c r="U3">
-        <v>3.328782864914213E-12</v>
+        <v>1.128753984078311E-11</v>
       </c>
       <c r="V3">
-        <v>1.407372338164011E-12</v>
+        <v>5.51339689095464E-12</v>
       </c>
       <c r="W3">
-        <v>-0.003472067395796551</v>
+        <v>-0.04305031068188446</v>
       </c>
       <c r="X3">
-        <v>-1.826745850290363E-06</v>
+        <v>-2.264987556992905E-05</v>
       </c>
       <c r="Y3">
-        <v>-1.826743679807452E-06</v>
+        <v>-2.264986829721728E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11637,49 +11637,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>91.47621704221675</v>
+        <v>89.51656095259854</v>
       </c>
       <c r="AD3">
-        <v>91.47618876501596</v>
+        <v>89.51656101756203</v>
       </c>
       <c r="AE3">
-        <v>91.4761899169178</v>
+        <v>89.51656091043731</v>
       </c>
       <c r="AG3">
-        <v>0.4266903580756586</v>
+        <v>1.502473787734059</v>
       </c>
       <c r="AH3">
-        <v>0.00132664178842706</v>
+        <v>0.004671407125183465</v>
       </c>
       <c r="AI3">
-        <v>0.001326641568621314</v>
+        <v>0.004671406915119709</v>
       </c>
       <c r="AJ3">
-        <v>0.426646863568842</v>
+        <v>1.502320633755062</v>
       </c>
       <c r="AK3">
-        <v>0.001105500116753418</v>
+        <v>0.003892717085787517</v>
       </c>
       <c r="AL3">
-        <v>0.001105499949652671</v>
+        <v>0.003892716927830721</v>
       </c>
       <c r="AM3">
-        <v>1.781452189222841</v>
+        <v>-0.1781854301976391</v>
       </c>
       <c r="AN3">
-        <v>-76.81745084299125</v>
+        <v>-78.77708716157214</v>
       </c>
       <c r="AO3">
-        <v>-76.81745314101566</v>
+        <v>-78.77708805887416</v>
       </c>
       <c r="AP3">
-        <v>1.810568461722134</v>
+        <v>-0.1490691562530498</v>
       </c>
       <c r="AQ3">
-        <v>-76.80873509253281</v>
+        <v>-78.76837142526311</v>
       </c>
       <c r="AR3">
-        <v>-76.80873699290082</v>
+        <v>-78.76837223221158</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11696,13 +11696,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0007047865632065118</v>
+        <v>0.002481713739021296</v>
       </c>
       <c r="F4">
-        <v>0.0007047868247078012</v>
+        <v>0.002481714014035101</v>
       </c>
       <c r="G4">
-        <v>0.0007047862748935499</v>
+        <v>0.002481713464057405</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11714,49 +11714,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.008138174239770216</v>
+        <v>0.02865636190551076</v>
       </c>
       <c r="L4">
-        <v>0.008138177259327011</v>
+        <v>0.02865636508109665</v>
       </c>
       <c r="M4">
-        <v>0.008138170910618893</v>
+        <v>0.02865635873050123</v>
       </c>
       <c r="N4">
-        <v>8.961984180296866E-10</v>
+        <v>-2.768170147655363E-09</v>
       </c>
       <c r="O4">
-        <v>3.54049142849279E-12</v>
+        <v>1.280309625706249E-11</v>
       </c>
       <c r="P4">
-        <v>-4.662744849495129E-12</v>
+        <v>-1.629682773889737E-11</v>
       </c>
       <c r="Q4">
-        <v>2.026159431156239E-05</v>
+        <v>0.000251238245381223</v>
       </c>
       <c r="R4">
-        <v>-8.809348245398237E-06</v>
+        <v>-0.0001092274505284001</v>
       </c>
       <c r="S4">
-        <v>-8.809340138853989E-06</v>
+        <v>-0.000109227422166748</v>
       </c>
       <c r="T4">
-        <v>4.864367119568853E-11</v>
+        <v>-1.714113499239057E-11</v>
       </c>
       <c r="U4">
-        <v>3.328831814019859E-12</v>
+        <v>1.128743579349265E-11</v>
       </c>
       <c r="V4">
-        <v>1.407347863616441E-12</v>
+        <v>5.513457528080832E-12</v>
       </c>
       <c r="W4">
-        <v>-0.003472067395804503</v>
+        <v>-0.0430503106818702</v>
       </c>
       <c r="X4">
-        <v>-1.826745850315537E-06</v>
+        <v>-2.264987556984953E-05</v>
       </c>
       <c r="Y4">
-        <v>-1.826743679802035E-06</v>
+        <v>-2.264986829719548E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11768,49 +11768,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>91.47621704214663</v>
+        <v>89.51656095261733</v>
       </c>
       <c r="AD4">
-        <v>91.47618876487915</v>
+        <v>89.51656101759977</v>
       </c>
       <c r="AE4">
-        <v>91.47618991698104</v>
+        <v>89.51656091045656</v>
       </c>
       <c r="AG4">
-        <v>0.4266903580756583</v>
+        <v>1.502473787734059</v>
       </c>
       <c r="AH4">
-        <v>0.001326641788427607</v>
+        <v>0.004671407125183378</v>
       </c>
       <c r="AI4">
-        <v>0.001326641568621696</v>
+        <v>0.00467140691511997</v>
       </c>
       <c r="AJ4">
-        <v>0.426646863568842</v>
+        <v>1.502320633755062</v>
       </c>
       <c r="AK4">
-        <v>0.001105500116753418</v>
+        <v>0.003892717085787517</v>
       </c>
       <c r="AL4">
-        <v>0.001105499949652671</v>
+        <v>0.003892716927830721</v>
       </c>
       <c r="AM4">
-        <v>1.781452189222749</v>
+        <v>-0.1781854301976367</v>
       </c>
       <c r="AN4">
-        <v>-76.81745084301649</v>
+        <v>-78.77708716157053</v>
       </c>
       <c r="AO4">
-        <v>-76.81745314102938</v>
+        <v>-78.777088058872</v>
       </c>
       <c r="AP4">
-        <v>1.810568461722134</v>
+        <v>-0.1490691562530498</v>
       </c>
       <c r="AQ4">
-        <v>-76.80873509253281</v>
+        <v>-78.76837142526311</v>
       </c>
       <c r="AR4">
-        <v>-76.80873699290082</v>
+        <v>-78.76837223221158</v>
       </c>
     </row>
   </sheetData>
@@ -12190,97 +12190,97 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002113695958971025</v>
+        <v>0.007442804066854883</v>
       </c>
       <c r="C2">
-        <v>0.002113696741881742</v>
+        <v>0.007442804891905796</v>
       </c>
       <c r="D2">
-        <v>0.002113695092507768</v>
+        <v>0.007442803241952592</v>
       </c>
       <c r="E2">
-        <v>0.001409573135384154</v>
+        <v>0.004963427478145444</v>
       </c>
       <c r="F2">
-        <v>0.001409573919884608</v>
+        <v>0.0049634283031853</v>
       </c>
       <c r="G2">
-        <v>0.001409572270444099</v>
+        <v>0.004963426653253</v>
       </c>
       <c r="H2">
-        <v>0.0244068586179389</v>
+        <v>0.08594209863048617</v>
       </c>
       <c r="I2">
-        <v>0.02440686765821318</v>
+        <v>0.08594210815735349</v>
       </c>
       <c r="J2">
-        <v>0.02440684861288302</v>
+        <v>0.08594208910533498</v>
       </c>
       <c r="K2">
-        <v>0.01627634858313012</v>
+        <v>0.05731272381220914</v>
       </c>
       <c r="L2">
-        <v>0.01627635764176109</v>
+        <v>0.05731273333894882</v>
       </c>
       <c r="M2">
-        <v>0.01627633859566265</v>
+        <v>0.05731271428717166</v>
       </c>
       <c r="N2">
-        <v>7.135500911820433E-05</v>
+        <v>0.0008847754042708472</v>
       </c>
       <c r="O2">
-        <v>-6.222572731225843E-14</v>
+        <v>-8.994794458963783E-14</v>
       </c>
       <c r="P2">
-        <v>2.152641382965116E-13</v>
+        <v>4.638160806795208E-14</v>
       </c>
       <c r="Q2">
-        <v>-4.052229244727145E-05</v>
+        <v>-0.0005024792577587089</v>
       </c>
       <c r="R2">
-        <v>1.761869944154051E-05</v>
+        <v>0.0002184549117352319</v>
       </c>
       <c r="S2">
-        <v>1.761867639289329E-05</v>
+        <v>0.0002184548307635274</v>
       </c>
       <c r="T2">
-        <v>-0.01040757444929063</v>
+        <v>-0.1290439562671369</v>
       </c>
       <c r="U2">
-        <v>2.11212198249942E-13</v>
+        <v>2.042689311875891E-14</v>
       </c>
       <c r="V2">
-        <v>-5.210896299038509E-14</v>
+        <v>4.148377210474169E-14</v>
       </c>
       <c r="W2">
-        <v>0.006944134841035638</v>
+        <v>0.08610062134937659</v>
       </c>
       <c r="X2">
-        <v>3.653494474976254E-06</v>
+        <v>4.529976054755534E-05</v>
       </c>
       <c r="Y2">
-        <v>3.653488531849876E-06</v>
+        <v>4.529974118684398E-05</v>
       </c>
       <c r="Z2">
-        <v>91.56336721969456</v>
+        <v>89.60371112534764</v>
       </c>
       <c r="AA2">
-        <v>91.56333890114351</v>
+        <v>89.60371118061224</v>
       </c>
       <c r="AB2">
-        <v>91.56334012135677</v>
+        <v>89.60371109278664</v>
       </c>
       <c r="AC2">
-        <v>-88.52377556140688</v>
+        <v>-90.48344088867</v>
       </c>
       <c r="AD2">
-        <v>-88.52381797750066</v>
+        <v>-90.48344079130986</v>
       </c>
       <c r="AE2">
-        <v>-88.52381624969134</v>
+        <v>-90.48344095197783</v>
       </c>
       <c r="AG2">
-        <v>0.4264300955987992</v>
+        <v>1.501557344648627</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -12289,16 +12289,16 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.426646863568842</v>
+        <v>1.502320633755062</v>
       </c>
       <c r="AK2">
-        <v>0.001105500116753418</v>
+        <v>0.003892717085787517</v>
       </c>
       <c r="AL2">
-        <v>0.001105499949652671</v>
+        <v>0.003892716927830721</v>
       </c>
       <c r="AM2">
-        <v>1.956184665585354</v>
+        <v>-0.003452948067976193</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -12307,13 +12307,13 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.810568461722134</v>
+        <v>-0.1490691562530498</v>
       </c>
       <c r="AQ2">
-        <v>-76.80873509253281</v>
+        <v>-78.76837142526311</v>
       </c>
       <c r="AR2">
-        <v>-76.80873699290082</v>
+        <v>-78.76837223221158</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12330,13 +12330,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0007047865632048926</v>
+        <v>0.002481713739022123</v>
       </c>
       <c r="F3">
-        <v>0.0007047868247062031</v>
+        <v>0.002481714014035935</v>
       </c>
       <c r="G3">
-        <v>0.0007047862748918884</v>
+        <v>0.002481713464055771</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -12348,49 +12348,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.008138174239751519</v>
+        <v>0.02865636190552031</v>
       </c>
       <c r="L3">
-        <v>0.008138177259308559</v>
+        <v>0.02865636508110628</v>
       </c>
       <c r="M3">
-        <v>0.008138170910599709</v>
+        <v>0.02865635873048237</v>
       </c>
       <c r="N3">
-        <v>8.961986693648938E-10</v>
+        <v>-2.768170103387893E-09</v>
       </c>
       <c r="O3">
-        <v>3.540502893671285E-12</v>
+        <v>1.28031658504131E-11</v>
       </c>
       <c r="P3">
-        <v>-4.662750582082903E-12</v>
+        <v>-1.629690594572889E-11</v>
       </c>
       <c r="Q3">
-        <v>2.026159430726698E-05</v>
+        <v>0.0002512382453954188</v>
       </c>
       <c r="R3">
-        <v>-8.809348245382623E-06</v>
+        <v>-0.0001092274505284219</v>
       </c>
       <c r="S3">
-        <v>-8.809340138831206E-06</v>
+        <v>-0.0001092274221666685</v>
       </c>
       <c r="T3">
-        <v>4.863559025703854E-11</v>
+        <v>-1.712690077008411E-11</v>
       </c>
       <c r="U3">
-        <v>3.328782864914213E-12</v>
+        <v>1.128753984078311E-11</v>
       </c>
       <c r="V3">
-        <v>1.407372338164011E-12</v>
+        <v>5.51339689095464E-12</v>
       </c>
       <c r="W3">
-        <v>-0.003472067395796551</v>
+        <v>-0.04305031068188446</v>
       </c>
       <c r="X3">
-        <v>-1.826745850290363E-06</v>
+        <v>-2.264987556992905E-05</v>
       </c>
       <c r="Y3">
-        <v>-1.826743679807452E-06</v>
+        <v>-2.264986829721728E-05</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12402,49 +12402,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>91.47621704221675</v>
+        <v>89.51656095259854</v>
       </c>
       <c r="AD3">
-        <v>91.47618876501596</v>
+        <v>89.51656101756203</v>
       </c>
       <c r="AE3">
-        <v>91.4761899169178</v>
+        <v>89.51656091043731</v>
       </c>
       <c r="AG3">
-        <v>0.4266903580756586</v>
+        <v>1.502473787734059</v>
       </c>
       <c r="AH3">
-        <v>0.00132664178842706</v>
+        <v>0.004671407125183465</v>
       </c>
       <c r="AI3">
-        <v>0.001326641568621314</v>
+        <v>0.004671406915119709</v>
       </c>
       <c r="AJ3">
-        <v>0.426646863568842</v>
+        <v>1.502320633755062</v>
       </c>
       <c r="AK3">
-        <v>0.001105500116753418</v>
+        <v>0.003892717085787517</v>
       </c>
       <c r="AL3">
-        <v>0.001105499949652671</v>
+        <v>0.003892716927830721</v>
       </c>
       <c r="AM3">
-        <v>1.781452189222841</v>
+        <v>-0.1781854301976391</v>
       </c>
       <c r="AN3">
-        <v>-76.81745084299125</v>
+        <v>-78.77708716157214</v>
       </c>
       <c r="AO3">
-        <v>-76.81745314101566</v>
+        <v>-78.77708805887416</v>
       </c>
       <c r="AP3">
-        <v>1.810568461722134</v>
+        <v>-0.1490691562530498</v>
       </c>
       <c r="AQ3">
-        <v>-76.80873509253281</v>
+        <v>-78.76837142526311</v>
       </c>
       <c r="AR3">
-        <v>-76.80873699290082</v>
+        <v>-78.76837223221158</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12461,13 +12461,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0007047865632065118</v>
+        <v>0.002481713739021296</v>
       </c>
       <c r="F4">
-        <v>0.0007047868247078012</v>
+        <v>0.002481714014035101</v>
       </c>
       <c r="G4">
-        <v>0.0007047862748935499</v>
+        <v>0.002481713464057405</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -12479,49 +12479,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.008138174239770216</v>
+        <v>0.02865636190551076</v>
       </c>
       <c r="L4">
-        <v>0.008138177259327011</v>
+        <v>0.02865636508109665</v>
       </c>
       <c r="M4">
-        <v>0.008138170910618893</v>
+        <v>0.02865635873050123</v>
       </c>
       <c r="N4">
-        <v>8.961984180296866E-10</v>
+        <v>-2.768170147655363E-09</v>
       </c>
       <c r="O4">
-        <v>3.54049142849279E-12</v>
+        <v>1.280309625706249E-11</v>
       </c>
       <c r="P4">
-        <v>-4.662744849495129E-12</v>
+        <v>-1.629682773889737E-11</v>
       </c>
       <c r="Q4">
-        <v>2.026159431156239E-05</v>
+        <v>0.000251238245381223</v>
       </c>
       <c r="R4">
-        <v>-8.809348245398237E-06</v>
+        <v>-0.0001092274505284001</v>
       </c>
       <c r="S4">
-        <v>-8.809340138853989E-06</v>
+        <v>-0.000109227422166748</v>
       </c>
       <c r="T4">
-        <v>4.864367119568853E-11</v>
+        <v>-1.714113499239057E-11</v>
       </c>
       <c r="U4">
-        <v>3.328831814019859E-12</v>
+        <v>1.128743579349265E-11</v>
       </c>
       <c r="V4">
-        <v>1.407347863616441E-12</v>
+        <v>5.513457528080832E-12</v>
       </c>
       <c r="W4">
-        <v>-0.003472067395804503</v>
+        <v>-0.0430503106818702</v>
       </c>
       <c r="X4">
-        <v>-1.826745850315537E-06</v>
+        <v>-2.264987556984953E-05</v>
       </c>
       <c r="Y4">
-        <v>-1.826743679802035E-06</v>
+        <v>-2.264986829719548E-05</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12533,49 +12533,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>91.47621704214663</v>
+        <v>89.51656095261733</v>
       </c>
       <c r="AD4">
-        <v>91.47618876487915</v>
+        <v>89.51656101759977</v>
       </c>
       <c r="AE4">
-        <v>91.47618991698104</v>
+        <v>89.51656091045656</v>
       </c>
       <c r="AG4">
-        <v>0.4266903580756583</v>
+        <v>1.502473787734059</v>
       </c>
       <c r="AH4">
-        <v>0.001326641788427607</v>
+        <v>0.004671407125183378</v>
       </c>
       <c r="AI4">
-        <v>0.001326641568621696</v>
+        <v>0.00467140691511997</v>
       </c>
       <c r="AJ4">
-        <v>0.426646863568842</v>
+        <v>1.502320633755062</v>
       </c>
       <c r="AK4">
-        <v>0.001105500116753418</v>
+        <v>0.003892717085787517</v>
       </c>
       <c r="AL4">
-        <v>0.001105499949652671</v>
+        <v>0.003892716927830721</v>
       </c>
       <c r="AM4">
-        <v>1.781452189222749</v>
+        <v>-0.1781854301976367</v>
       </c>
       <c r="AN4">
-        <v>-76.81745084301649</v>
+        <v>-78.77708716157053</v>
       </c>
       <c r="AO4">
-        <v>-76.81745314102938</v>
+        <v>-78.777088058872</v>
       </c>
       <c r="AP4">
-        <v>1.810568461722134</v>
+        <v>-0.1490691562530498</v>
       </c>
       <c r="AQ4">
-        <v>-76.80873509253281</v>
+        <v>-78.76837142526311</v>
       </c>
       <c r="AR4">
-        <v>-76.80873699290082</v>
+        <v>-78.76837223221158</v>
       </c>
     </row>
   </sheetData>
@@ -12730,130 +12730,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0003001549031048322</v>
+        <v>0.007490443580334748</v>
       </c>
       <c r="C2">
-        <v>0.0003001551169568235</v>
+        <v>0.007490443766963719</v>
       </c>
       <c r="D2">
-        <v>0.0003001546773891026</v>
+        <v>0.007490443393862197</v>
       </c>
       <c r="E2">
-        <v>0.0002001661052880468</v>
+        <v>0.004995197126806078</v>
       </c>
       <c r="F2">
-        <v>0.0002001663194021989</v>
+        <v>0.004995197313250854</v>
       </c>
       <c r="G2">
-        <v>0.0002001658797509503</v>
+        <v>0.0049951969405138</v>
       </c>
       <c r="H2">
-        <v>0.003465890282123218</v>
+        <v>0.08649219234911942</v>
       </c>
       <c r="I2">
-        <v>0.003465892751473313</v>
+        <v>0.08649219450412515</v>
       </c>
       <c r="J2">
-        <v>0.003465887675782473</v>
+        <v>0.08649219019591987</v>
       </c>
       <c r="K2">
-        <v>0.002311319095413857</v>
+        <v>0.0576795681163347</v>
       </c>
       <c r="L2">
-        <v>0.002311321567791123</v>
+        <v>0.05767957026921353</v>
       </c>
       <c r="M2">
-        <v>0.002311316491135789</v>
+        <v>0.05767956596521675</v>
       </c>
       <c r="N2">
-        <v>-0.002168392245561292</v>
+        <v>0.001459364484761855</v>
       </c>
       <c r="O2">
-        <v>-0.0004466207960519174</v>
+        <v>-0.05824164472167505</v>
       </c>
       <c r="P2">
-        <v>0.002616448260703355</v>
+        <v>0.05767841576554467</v>
       </c>
       <c r="Q2">
-        <v>0.001443958324038246</v>
+        <v>-0.0008839666332549523</v>
       </c>
       <c r="R2">
-        <v>0.0003011274333966406</v>
+        <v>0.03907086642277739</v>
       </c>
       <c r="S2">
-        <v>-0.00174518864972033</v>
+        <v>-0.03825330880571521</v>
       </c>
       <c r="T2">
-        <v>-0.00240968063123763</v>
+        <v>-0.1301418161393431</v>
       </c>
       <c r="U2">
-        <v>0.002889895974304024</v>
+        <v>0.009557489844574822</v>
       </c>
       <c r="V2">
-        <v>-0.0006900844212707388</v>
+        <v>-0.01011687020766767</v>
       </c>
       <c r="W2">
-        <v>0.00160922936473036</v>
+        <v>0.08683275582345468</v>
       </c>
       <c r="X2">
-        <v>-0.001926674012359383</v>
+        <v>-0.00626869317364754</v>
       </c>
       <c r="Y2">
-        <v>0.000457619588061994</v>
+        <v>0.006734063654579331</v>
       </c>
       <c r="Z2">
-        <v>129.0447581097788</v>
+        <v>89.22805142661069</v>
       </c>
       <c r="AA2">
-        <v>129.0447251146878</v>
+        <v>89.22805235177253</v>
       </c>
       <c r="AB2">
-        <v>129.0447356882617</v>
+        <v>89.22805052421393</v>
       </c>
       <c r="AC2">
-        <v>-51.04238467137517</v>
+        <v>-90.85910058741575</v>
       </c>
       <c r="AD2">
-        <v>-51.04243405519982</v>
+        <v>-90.8590991968494</v>
       </c>
       <c r="AE2">
-        <v>-51.04241839124736</v>
+        <v>-90.85910194383304</v>
       </c>
       <c r="AG2">
-        <v>0.935309311316709</v>
+        <v>1.504760080036286</v>
       </c>
       <c r="AH2">
-        <v>0.843708730487533</v>
+        <v>0.6823810005305019</v>
       </c>
       <c r="AI2">
-        <v>0.7807300807158311</v>
+        <v>0.677043217143103</v>
       </c>
       <c r="AJ2">
-        <v>0.9354356909596768</v>
+        <v>1.505511535187433</v>
       </c>
       <c r="AK2">
-        <v>0.8437009596699999</v>
+        <v>0.6860411499558045</v>
       </c>
       <c r="AL2">
-        <v>0.7805894732118844</v>
+        <v>0.6734016430287189</v>
       </c>
       <c r="AM2">
-        <v>-2.938246143187477</v>
+        <v>-0.1294808122360139</v>
       </c>
       <c r="AN2">
-        <v>-132.1699663090589</v>
+        <v>-100.0911604145011</v>
       </c>
       <c r="AO2">
-        <v>114.2695275236789</v>
+        <v>79.27949591238887</v>
       </c>
       <c r="AP2">
-        <v>-2.943950669478611</v>
+        <v>-0.2758436432848271</v>
       </c>
       <c r="AQ2">
-        <v>-132.1593184788018</v>
+        <v>-99.97418885708356</v>
       </c>
       <c r="AR2">
-        <v>114.2644034765456</v>
+        <v>79.15691674684838</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12870,13 +12870,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001000830520070394</v>
+        <v>0.002497598563351227</v>
       </c>
       <c r="F3">
-        <v>0.0001000831233785097</v>
+        <v>0.00249759862550054</v>
       </c>
       <c r="G3">
-        <v>0.0001000829768280741</v>
+        <v>0.002497598501252773</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -12888,49 +12888,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001155659540351671</v>
+        <v>0.02883978405756907</v>
       </c>
       <c r="L3">
-        <v>0.001155660364478422</v>
+        <v>0.02883978477520752</v>
       </c>
       <c r="M3">
-        <v>0.001155658672259754</v>
+        <v>0.02883978334051788</v>
       </c>
       <c r="N3">
-        <v>2.168374889021172E-10</v>
+        <v>-2.791730144675038E-09</v>
       </c>
       <c r="O3">
-        <v>4.141393603427728E-10</v>
+        <v>6.361580953147132E-10</v>
       </c>
       <c r="P3">
-        <v>6.13711261940862E-10</v>
+        <v>2.060712230604144E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.0007219790535574128</v>
+        <v>0.000441981921383629</v>
       </c>
       <c r="R3">
-        <v>-0.0001505635096379958</v>
+        <v>-0.01953543289256716</v>
       </c>
       <c r="S3">
-        <v>0.0008725946316886864</v>
+        <v>0.01912665450544458</v>
       </c>
       <c r="T3">
-        <v>-1.762321358305719E-10</v>
+        <v>-2.941107273456268E-11</v>
       </c>
       <c r="U3">
-        <v>-6.514801610454636E-10</v>
+        <v>8.632907367967591E-10</v>
       </c>
       <c r="V3">
-        <v>-2.860774487115121E-10</v>
+        <v>-1.613832393464766E-09</v>
       </c>
       <c r="W3">
-        <v>-0.0008046147704434807</v>
+        <v>-0.04341637792503029</v>
       </c>
       <c r="X3">
-        <v>0.0009633366803833425</v>
+        <v>0.003134347017537235</v>
       </c>
       <c r="Y3">
-        <v>-0.00022880993705328</v>
+        <v>-0.003367032634702221</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12942,49 +12942,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>128.9576079323822</v>
+        <v>89.14090125384199</v>
       </c>
       <c r="AD3">
-        <v>128.957575010012</v>
+        <v>89.1409021809493</v>
       </c>
       <c r="AE3">
-        <v>128.9575854526412</v>
+        <v>89.14090034967016</v>
       </c>
       <c r="AG3">
-        <v>0.9354609557607687</v>
+        <v>1.505662331340947</v>
       </c>
       <c r="AH3">
-        <v>0.8436994373338907</v>
+        <v>0.6867739126832213</v>
       </c>
       <c r="AI3">
-        <v>0.7805613344223701</v>
+        <v>0.6726732987511538</v>
       </c>
       <c r="AJ3">
-        <v>0.9354356909596768</v>
+        <v>1.505511535187433</v>
       </c>
       <c r="AK3">
-        <v>0.8437009596699999</v>
+        <v>0.6860411499558045</v>
       </c>
       <c r="AL3">
-        <v>0.7805894732118844</v>
+        <v>0.6734016430287189</v>
       </c>
       <c r="AM3">
-        <v>-2.945093017534564</v>
+        <v>-0.3051093990191213</v>
       </c>
       <c r="AN3">
-        <v>-132.1571883920549</v>
+        <v>-99.95099558973925</v>
       </c>
       <c r="AO3">
-        <v>114.2633801368351</v>
+        <v>79.13229362176391</v>
       </c>
       <c r="AP3">
-        <v>-2.943950669478611</v>
+        <v>-0.2758436432848271</v>
       </c>
       <c r="AQ3">
-        <v>-132.1593184788018</v>
+        <v>-99.97418885708356</v>
       </c>
       <c r="AR3">
-        <v>114.2644034765456</v>
+        <v>79.15691674684838</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13001,13 +13001,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001000830520071192</v>
+        <v>0.002497598563350805</v>
       </c>
       <c r="F4">
-        <v>0.0001000831233790798</v>
+        <v>0.002497598625499707</v>
       </c>
       <c r="G4">
-        <v>0.0001000829768282641</v>
+        <v>0.002497598501253599</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13019,49 +13019,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001155659540352592</v>
+        <v>0.02883978405756419</v>
       </c>
       <c r="L4">
-        <v>0.001155660364485006</v>
+        <v>0.02883978477519791</v>
       </c>
       <c r="M4">
-        <v>0.001155658672261948</v>
+        <v>0.02883978334052743</v>
       </c>
       <c r="N4">
-        <v>2.168399292644782E-10</v>
+        <v>-2.791715918358411E-09</v>
       </c>
       <c r="O4">
-        <v>4.141472974687009E-10</v>
+        <v>6.361569709658246E-10</v>
       </c>
       <c r="P4">
-        <v>6.137112619408619E-10</v>
+        <v>2.060649645147795E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.0007219790535574697</v>
+        <v>0.0004419819213694005</v>
       </c>
       <c r="R4">
-        <v>-0.0001505635096509073</v>
+        <v>-0.01953543289255964</v>
       </c>
       <c r="S4">
-        <v>0.0008725946316912978</v>
+        <v>0.01912665450545145</v>
       </c>
       <c r="T4">
-        <v>-1.762278242859957E-10</v>
+        <v>-2.941828084341659E-11</v>
       </c>
       <c r="U4">
-        <v>-6.514833037591169E-10</v>
+        <v>8.632843282505266E-10</v>
       </c>
       <c r="V4">
-        <v>-2.860774487115119E-10</v>
+        <v>-1.613831191916759E-09</v>
       </c>
       <c r="W4">
-        <v>-0.000804614770444587</v>
+        <v>-0.04341637792502309</v>
       </c>
       <c r="X4">
-        <v>0.0009633366803869461</v>
+        <v>0.003134347017542511</v>
       </c>
       <c r="Y4">
-        <v>-0.0002288099370500749</v>
+        <v>-0.003367032634700288</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13073,49 +13073,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>128.9576079323453</v>
+        <v>89.14090125386066</v>
       </c>
       <c r="AD4">
-        <v>128.9575750092951</v>
+        <v>89.14090218096783</v>
       </c>
       <c r="AE4">
-        <v>128.9575854524022</v>
+        <v>89.14090034966104</v>
       </c>
       <c r="AG4">
-        <v>0.9354609557607688</v>
+        <v>1.505662331340947</v>
       </c>
       <c r="AH4">
-        <v>0.843699437333891</v>
+        <v>0.6867739126832211</v>
       </c>
       <c r="AI4">
-        <v>0.7805613344223699</v>
+        <v>0.6726732987511539</v>
       </c>
       <c r="AJ4">
-        <v>0.9354356909596768</v>
+        <v>1.505511535187433</v>
       </c>
       <c r="AK4">
-        <v>0.8437009596699999</v>
+        <v>0.6860411499558045</v>
       </c>
       <c r="AL4">
-        <v>0.7805894732118844</v>
+        <v>0.6734016430287189</v>
       </c>
       <c r="AM4">
-        <v>-2.945093017534575</v>
+        <v>-0.3051093990191131</v>
       </c>
       <c r="AN4">
-        <v>-132.1571883920549</v>
+        <v>-99.95099558973924</v>
       </c>
       <c r="AO4">
-        <v>114.2633801368351</v>
+        <v>79.13229362176389</v>
       </c>
       <c r="AP4">
-        <v>-2.943950669478611</v>
+        <v>-0.2758436432848271</v>
       </c>
       <c r="AQ4">
-        <v>-132.1593184788018</v>
+        <v>-99.97418885708356</v>
       </c>
       <c r="AR4">
-        <v>114.2644034765456</v>
+        <v>79.15691674684838</v>
       </c>
     </row>
   </sheetData>
@@ -13270,130 +13270,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.0003001549031048322</v>
+        <v>0.007490443580334748</v>
       </c>
       <c r="C2">
-        <v>0.0003001551169568235</v>
+        <v>0.007490443766963719</v>
       </c>
       <c r="D2">
-        <v>0.0003001546773891026</v>
+        <v>0.007490443393862197</v>
       </c>
       <c r="E2">
-        <v>0.0002001661052880468</v>
+        <v>0.004995197126806078</v>
       </c>
       <c r="F2">
-        <v>0.0002001663194021989</v>
+        <v>0.004995197313250854</v>
       </c>
       <c r="G2">
-        <v>0.0002001658797509503</v>
+        <v>0.0049951969405138</v>
       </c>
       <c r="H2">
-        <v>0.003465890282123218</v>
+        <v>0.08649219234911942</v>
       </c>
       <c r="I2">
-        <v>0.003465892751473313</v>
+        <v>0.08649219450412515</v>
       </c>
       <c r="J2">
-        <v>0.003465887675782473</v>
+        <v>0.08649219019591987</v>
       </c>
       <c r="K2">
-        <v>0.002311319095413857</v>
+        <v>0.0576795681163347</v>
       </c>
       <c r="L2">
-        <v>0.002311321567791123</v>
+        <v>0.05767957026921353</v>
       </c>
       <c r="M2">
-        <v>0.002311316491135789</v>
+        <v>0.05767956596521675</v>
       </c>
       <c r="N2">
-        <v>-0.002168392245561292</v>
+        <v>0.001459364484761855</v>
       </c>
       <c r="O2">
-        <v>-0.0004466207960519174</v>
+        <v>-0.05824164472167505</v>
       </c>
       <c r="P2">
-        <v>0.002616448260703355</v>
+        <v>0.05767841576554467</v>
       </c>
       <c r="Q2">
-        <v>0.001443958324038246</v>
+        <v>-0.0008839666332549523</v>
       </c>
       <c r="R2">
-        <v>0.0003011274333966406</v>
+        <v>0.03907086642277739</v>
       </c>
       <c r="S2">
-        <v>-0.00174518864972033</v>
+        <v>-0.03825330880571521</v>
       </c>
       <c r="T2">
-        <v>-0.00240968063123763</v>
+        <v>-0.1301418161393431</v>
       </c>
       <c r="U2">
-        <v>0.002889895974304024</v>
+        <v>0.009557489844574822</v>
       </c>
       <c r="V2">
-        <v>-0.0006900844212707388</v>
+        <v>-0.01011687020766767</v>
       </c>
       <c r="W2">
-        <v>0.00160922936473036</v>
+        <v>0.08683275582345468</v>
       </c>
       <c r="X2">
-        <v>-0.001926674012359383</v>
+        <v>-0.00626869317364754</v>
       </c>
       <c r="Y2">
-        <v>0.000457619588061994</v>
+        <v>0.006734063654579331</v>
       </c>
       <c r="Z2">
-        <v>129.0447581097788</v>
+        <v>89.22805142661069</v>
       </c>
       <c r="AA2">
-        <v>129.0447251146878</v>
+        <v>89.22805235177253</v>
       </c>
       <c r="AB2">
-        <v>129.0447356882617</v>
+        <v>89.22805052421393</v>
       </c>
       <c r="AC2">
-        <v>-51.04238467137517</v>
+        <v>-90.85910058741575</v>
       </c>
       <c r="AD2">
-        <v>-51.04243405519982</v>
+        <v>-90.8590991968494</v>
       </c>
       <c r="AE2">
-        <v>-51.04241839124736</v>
+        <v>-90.85910194383304</v>
       </c>
       <c r="AG2">
-        <v>0.935309311316709</v>
+        <v>1.504760080036286</v>
       </c>
       <c r="AH2">
-        <v>0.843708730487533</v>
+        <v>0.6823810005305019</v>
       </c>
       <c r="AI2">
-        <v>0.7807300807158311</v>
+        <v>0.677043217143103</v>
       </c>
       <c r="AJ2">
-        <v>0.9354356909596768</v>
+        <v>1.505511535187433</v>
       </c>
       <c r="AK2">
-        <v>0.8437009596699999</v>
+        <v>0.6860411499558045</v>
       </c>
       <c r="AL2">
-        <v>0.7805894732118844</v>
+        <v>0.6734016430287189</v>
       </c>
       <c r="AM2">
-        <v>-2.938246143187477</v>
+        <v>-0.1294808122360139</v>
       </c>
       <c r="AN2">
-        <v>-132.1699663090589</v>
+        <v>-100.0911604145011</v>
       </c>
       <c r="AO2">
-        <v>114.2695275236789</v>
+        <v>79.27949591238887</v>
       </c>
       <c r="AP2">
-        <v>-2.943950669478611</v>
+        <v>-0.2758436432848271</v>
       </c>
       <c r="AQ2">
-        <v>-132.1593184788018</v>
+        <v>-99.97418885708356</v>
       </c>
       <c r="AR2">
-        <v>114.2644034765456</v>
+        <v>79.15691674684838</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13410,13 +13410,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001000830520070394</v>
+        <v>0.002497598563351227</v>
       </c>
       <c r="F3">
-        <v>0.0001000831233785097</v>
+        <v>0.00249759862550054</v>
       </c>
       <c r="G3">
-        <v>0.0001000829768280741</v>
+        <v>0.002497598501252773</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13428,49 +13428,49 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001155659540351671</v>
+        <v>0.02883978405756907</v>
       </c>
       <c r="L3">
-        <v>0.001155660364478422</v>
+        <v>0.02883978477520752</v>
       </c>
       <c r="M3">
-        <v>0.001155658672259754</v>
+        <v>0.02883978334051788</v>
       </c>
       <c r="N3">
-        <v>2.168374889021172E-10</v>
+        <v>-2.791730144675038E-09</v>
       </c>
       <c r="O3">
-        <v>4.141393603427728E-10</v>
+        <v>6.361580953147132E-10</v>
       </c>
       <c r="P3">
-        <v>6.13711261940862E-10</v>
+        <v>2.060712230604144E-10</v>
       </c>
       <c r="Q3">
-        <v>-0.0007219790535574128</v>
+        <v>0.000441981921383629</v>
       </c>
       <c r="R3">
-        <v>-0.0001505635096379958</v>
+        <v>-0.01953543289256716</v>
       </c>
       <c r="S3">
-        <v>0.0008725946316886864</v>
+        <v>0.01912665450544458</v>
       </c>
       <c r="T3">
-        <v>-1.762321358305719E-10</v>
+        <v>-2.941107273456268E-11</v>
       </c>
       <c r="U3">
-        <v>-6.514801610454636E-10</v>
+        <v>8.632907367967591E-10</v>
       </c>
       <c r="V3">
-        <v>-2.860774487115121E-10</v>
+        <v>-1.613832393464766E-09</v>
       </c>
       <c r="W3">
-        <v>-0.0008046147704434807</v>
+        <v>-0.04341637792503029</v>
       </c>
       <c r="X3">
-        <v>0.0009633366803833425</v>
+        <v>0.003134347017537235</v>
       </c>
       <c r="Y3">
-        <v>-0.00022880993705328</v>
+        <v>-0.003367032634702221</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13482,49 +13482,49 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>128.9576079323822</v>
+        <v>89.14090125384199</v>
       </c>
       <c r="AD3">
-        <v>128.957575010012</v>
+        <v>89.1409021809493</v>
       </c>
       <c r="AE3">
-        <v>128.9575854526412</v>
+        <v>89.14090034967016</v>
       </c>
       <c r="AG3">
-        <v>0.9354609557607687</v>
+        <v>1.505662331340947</v>
       </c>
       <c r="AH3">
-        <v>0.8436994373338907</v>
+        <v>0.6867739126832213</v>
       </c>
       <c r="AI3">
-        <v>0.7805613344223701</v>
+        <v>0.6726732987511538</v>
       </c>
       <c r="AJ3">
-        <v>0.9354356909596768</v>
+        <v>1.505511535187433</v>
       </c>
       <c r="AK3">
-        <v>0.8437009596699999</v>
+        <v>0.6860411499558045</v>
       </c>
       <c r="AL3">
-        <v>0.7805894732118844</v>
+        <v>0.6734016430287189</v>
       </c>
       <c r="AM3">
-        <v>-2.945093017534564</v>
+        <v>-0.3051093990191213</v>
       </c>
       <c r="AN3">
-        <v>-132.1571883920549</v>
+        <v>-99.95099558973925</v>
       </c>
       <c r="AO3">
-        <v>114.2633801368351</v>
+        <v>79.13229362176391</v>
       </c>
       <c r="AP3">
-        <v>-2.943950669478611</v>
+        <v>-0.2758436432848271</v>
       </c>
       <c r="AQ3">
-        <v>-132.1593184788018</v>
+        <v>-99.97418885708356</v>
       </c>
       <c r="AR3">
-        <v>114.2644034765456</v>
+        <v>79.15691674684838</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13541,13 +13541,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001000830520071192</v>
+        <v>0.002497598563350805</v>
       </c>
       <c r="F4">
-        <v>0.0001000831233790798</v>
+        <v>0.002497598625499707</v>
       </c>
       <c r="G4">
-        <v>0.0001000829768282641</v>
+        <v>0.002497598501253599</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13559,49 +13559,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001155659540352592</v>
+        <v>0.02883978405756419</v>
       </c>
       <c r="L4">
-        <v>0.001155660364485006</v>
+        <v>0.02883978477519791</v>
       </c>
       <c r="M4">
-        <v>0.001155658672261948</v>
+        <v>0.02883978334052743</v>
       </c>
       <c r="N4">
-        <v>2.168399292644782E-10</v>
+        <v>-2.791715918358411E-09</v>
       </c>
       <c r="O4">
-        <v>4.141472974687009E-10</v>
+        <v>6.361569709658246E-10</v>
       </c>
       <c r="P4">
-        <v>6.137112619408619E-10</v>
+        <v>2.060649645147795E-10</v>
       </c>
       <c r="Q4">
-        <v>-0.0007219790535574697</v>
+        <v>0.0004419819213694005</v>
       </c>
       <c r="R4">
-        <v>-0.0001505635096509073</v>
+        <v>-0.01953543289255964</v>
       </c>
       <c r="S4">
-        <v>0.0008725946316912978</v>
+        <v>0.01912665450545145</v>
       </c>
       <c r="T4">
-        <v>-1.762278242859957E-10</v>
+        <v>-2.941828084341659E-11</v>
       </c>
       <c r="U4">
-        <v>-6.514833037591169E-10</v>
+        <v>8.632843282505266E-10</v>
       </c>
       <c r="V4">
-        <v>-2.860774487115119E-10</v>
+        <v>-1.613831191916759E-09</v>
       </c>
       <c r="W4">
-        <v>-0.000804614770444587</v>
+        <v>-0.04341637792502309</v>
       </c>
       <c r="X4">
-        <v>0.0009633366803869461</v>
+        <v>0.003134347017542511</v>
       </c>
       <c r="Y4">
-        <v>-0.0002288099370500749</v>
+        <v>-0.003367032634700288</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13613,49 +13613,49 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>128.9576079323453</v>
+        <v>89.14090125386066</v>
       </c>
       <c r="AD4">
-        <v>128.9575750092951</v>
+        <v>89.14090218096783</v>
       </c>
       <c r="AE4">
-        <v>128.9575854524022</v>
+        <v>89.14090034966104</v>
       </c>
       <c r="AG4">
-        <v>0.9354609557607688</v>
+        <v>1.505662331340947</v>
       </c>
       <c r="AH4">
-        <v>0.843699437333891</v>
+        <v>0.6867739126832211</v>
       </c>
       <c r="AI4">
-        <v>0.7805613344223699</v>
+        <v>0.6726732987511539</v>
       </c>
       <c r="AJ4">
-        <v>0.9354356909596768</v>
+        <v>1.505511535187433</v>
       </c>
       <c r="AK4">
-        <v>0.8437009596699999</v>
+        <v>0.6860411499558045</v>
       </c>
       <c r="AL4">
-        <v>0.7805894732118844</v>
+        <v>0.6734016430287189</v>
       </c>
       <c r="AM4">
-        <v>-2.945093017534575</v>
+        <v>-0.3051093990191131</v>
       </c>
       <c r="AN4">
-        <v>-132.1571883920549</v>
+        <v>-99.95099558973924</v>
       </c>
       <c r="AO4">
-        <v>114.2633801368351</v>
+        <v>79.13229362176389</v>
       </c>
       <c r="AP4">
-        <v>-2.943950669478611</v>
+        <v>-0.2758436432848271</v>
       </c>
       <c r="AQ4">
-        <v>-132.1593184788018</v>
+        <v>-99.97418885708356</v>
       </c>
       <c r="AR4">
-        <v>114.2644034765456</v>
+        <v>79.15691674684838</v>
       </c>
     </row>
   </sheetData>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.084258736719999E-14</v>
+        <v>-1.563194052539792E-14</v>
       </c>
       <c r="O2">
-        <v>1.042129505522852E-14</v>
+        <v>2.865855831046933E-14</v>
       </c>
       <c r="P2">
-        <v>5.210647521222798E-15</v>
+        <v>-1.563193963309399E-14</v>
       </c>
       <c r="Q2">
-        <v>-1.964251360374589E-28</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>7.81639713425436E-15</v>
+        <v>-1.823683638439443E-14</v>
       </c>
       <c r="S2">
-        <v>-1.563151295570878E-14</v>
+        <v>1.563236788447004E-14</v>
       </c>
       <c r="T2">
-        <v>-2.605323420900065E-14</v>
+        <v>1.563194052539873E-14</v>
       </c>
       <c r="U2">
-        <v>5.763381837480579E-09</v>
+        <v>5.763376626835089E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763381837488515E-09</v>
+        <v>-5.76339225878364E-09</v>
       </c>
       <c r="W2">
-        <v>1.563194052540024E-14</v>
+        <v>-0</v>
       </c>
       <c r="X2">
-        <v>-5.763371415700995E-09</v>
+        <v>-5.763379231672612E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763397469914936E-09</v>
+        <v>5.763376627329007E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15022,40 +15022,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AG2">
-        <v>0.5500000119157952</v>
+        <v>0.5500000119159242</v>
       </c>
       <c r="AH2">
-        <v>0.5500000119165526</v>
+        <v>0.5500000119166901</v>
       </c>
       <c r="AI2">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000118694257</v>
+        <v>0.5500000118695547</v>
       </c>
       <c r="AK2">
-        <v>0.5500000119629213</v>
+        <v>0.550000011963059</v>
       </c>
       <c r="AL2">
-        <v>7.136948832612105E-13</v>
+        <v>-1.498082848613717E-12</v>
       </c>
       <c r="AM2">
-        <v>179.9999999999791</v>
+        <v>179.9999999999859</v>
       </c>
       <c r="AN2">
-        <v>-179.999999999986</v>
+        <v>-179.9999999999839</v>
       </c>
       <c r="AO2">
-        <v>7.199574017660761E-13</v>
+        <v>-1.476538053658606E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957422</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999957421</v>
+        <v>179.9999999957442</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.042129368360016E-14</v>
+        <v>1.563194052539846E-14</v>
       </c>
       <c r="O3">
-        <v>-2.084239749300037E-14</v>
+        <v>-2.344772068468526E-14</v>
       </c>
       <c r="P3">
-        <v>1.563213063336163E-14</v>
+        <v>1.563213056214329E-14</v>
       </c>
       <c r="Q3">
-        <v>-2.605323420900034E-14</v>
+        <v>-2.605323420899681E-14</v>
       </c>
       <c r="R3">
-        <v>2.865841533672503E-14</v>
+        <v>3.386906194870968E-14</v>
       </c>
       <c r="S3">
-        <v>-2.605337673463045E-14</v>
+        <v>-1.563208297956945E-14</v>
       </c>
       <c r="T3">
-        <v>1.309944479623194E-28</v>
+        <v>5.210646841799042E-15</v>
       </c>
       <c r="U3">
-        <v>-1.921113383885996E-09</v>
+        <v>-1.921118594533288E-09</v>
       </c>
       <c r="V3">
-        <v>1.921134226907912E-09</v>
+        <v>1.921123805614709E-09</v>
       </c>
       <c r="W3">
-        <v>-5.210646841800407E-15</v>
+        <v>1.5631940525399E-14</v>
       </c>
       <c r="X3">
-        <v>1.921123805233668E-09</v>
+        <v>1.921126410557539E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921129016207081E-09</v>
+        <v>-1.921129016207563E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15153,40 +15153,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AG3">
-        <v>0.5500000118539693</v>
+        <v>0.5500000118540982</v>
       </c>
       <c r="AH3">
-        <v>0.5500000119783777</v>
+        <v>0.5500000119785153</v>
       </c>
       <c r="AI3">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000118694257</v>
+        <v>0.5500000118695547</v>
       </c>
       <c r="AK3">
-        <v>0.5500000119629213</v>
+        <v>0.550000011963059</v>
       </c>
       <c r="AL3">
-        <v>7.202012759411887E-13</v>
+        <v>-1.463372887937923E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999943299</v>
+        <v>-179.9999999943231</v>
       </c>
       <c r="AN3">
-        <v>179.999999994323</v>
+        <v>179.9999999943251</v>
       </c>
       <c r="AO3">
-        <v>7.199574017660761E-13</v>
+        <v>-1.476538053658606E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957422</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999957421</v>
+        <v>179.9999999957442</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.559660329959602E-29</v>
+        <v>-1.042129368359888E-14</v>
       </c>
       <c r="O4">
-        <v>-1.042110381057885E-14</v>
+        <v>-1.302642700187351E-14</v>
       </c>
       <c r="P4">
-        <v>5.2108369479394E-15</v>
+        <v>5.210836877749702E-15</v>
       </c>
       <c r="Q4">
-        <v>-1.563194052540018E-14</v>
+        <v>4.028421505812582E-28</v>
       </c>
       <c r="R4">
-        <v>2.865841533672503E-14</v>
+        <v>1.302647458404914E-14</v>
       </c>
       <c r="S4">
-        <v>-1.563208304937141E-14</v>
+        <v>-5.210789295853673E-15</v>
       </c>
       <c r="T4">
-        <v>-5.210646841800081E-15</v>
+        <v>2.674398665928246E-28</v>
       </c>
       <c r="U4">
-        <v>-1.921113383885996E-09</v>
+        <v>-1.921118594533289E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123805614229E-09</v>
+        <v>1.921123805614711E-09</v>
       </c>
       <c r="W4">
-        <v>-5.210646841800277E-15</v>
+        <v>1.563194052539833E-14</v>
       </c>
       <c r="X4">
-        <v>1.921123805233668E-09</v>
+        <v>1.921115989263855E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921118594913398E-09</v>
+        <v>-1.921139437501249E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15284,40 +15284,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AG4">
-        <v>0.5500000118539694</v>
+        <v>0.5500000118540985</v>
       </c>
       <c r="AH4">
-        <v>0.5500000119783777</v>
+        <v>0.5500000119785156</v>
       </c>
       <c r="AI4">
-        <v>1.100000023832348</v>
+        <v>1.100000023832213</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000118694257</v>
+        <v>0.5500000118695547</v>
       </c>
       <c r="AK4">
-        <v>0.5500000119629213</v>
+        <v>0.550000011963059</v>
       </c>
       <c r="AL4">
-        <v>7.212940415210028E-13</v>
+        <v>-1.470371730663895E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999943299</v>
+        <v>-179.9999999943231</v>
       </c>
       <c r="AN4">
-        <v>179.999999994323</v>
+        <v>179.9999999943251</v>
       </c>
       <c r="AO4">
-        <v>7.199574017660761E-13</v>
+        <v>-1.476538053658606E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.999999995749</v>
+        <v>-179.9999999957422</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999957421</v>
+        <v>179.9999999957442</v>
       </c>
     </row>
   </sheetData>
